--- a/BackTest/2019-11-02 BackTest MXC.xlsx
+++ b/BackTest/2019-11-02 BackTest MXC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.3600000000000012</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-24.99999999999993</v>
+      </c>
       <c r="L12" t="n">
         <v>2.577</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.4100000000000015</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-8.108108108108024</v>
+      </c>
       <c r="L13" t="n">
         <v>2.574</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.4400000000000017</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>6.249999999999974</v>
+      </c>
       <c r="L14" t="n">
         <v>2.568</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.5100000000000016</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-37.49999999999989</v>
+      </c>
       <c r="L15" t="n">
         <v>2.563</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.5200000000000014</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-29.03225806451614</v>
+      </c>
       <c r="L16" t="n">
         <v>2.552</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.5200000000000014</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>2.543</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.5300000000000011</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L18" t="n">
         <v>2.542</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.5300000000000011</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L19" t="n">
         <v>2.536</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.620000000000001</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>11.11111111111104</v>
+      </c>
       <c r="L20" t="n">
         <v>2.539000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.680000000000001</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-6.250000000000008</v>
+      </c>
       <c r="L21" t="n">
         <v>2.536</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.7000000000000011</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-31.03448275862084</v>
+      </c>
       <c r="L22" t="n">
         <v>2.532</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.7100000000000009</v>
       </c>
       <c r="K23" t="n">
-        <v>-19.40298507462683</v>
+        <v>-25.92592592592595</v>
       </c>
       <c r="L23" t="n">
         <v>2.522</v>
@@ -1466,7 +1488,7 @@
         <v>0.7800000000000007</v>
       </c>
       <c r="K24" t="n">
-        <v>-8.108108108108109</v>
+        <v>25.92592592592595</v>
       </c>
       <c r="L24" t="n">
         <v>2.522</v>
@@ -1515,7 +1537,7 @@
         <v>0.7800000000000007</v>
       </c>
       <c r="K25" t="n">
-        <v>3.03030303030303</v>
+        <v>23.07692307692315</v>
       </c>
       <c r="L25" t="n">
         <v>2.529</v>
@@ -1564,7 +1586,7 @@
         <v>0.830000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>35.48387096774208</v>
       </c>
       <c r="L26" t="n">
         <v>2.54</v>
@@ -1613,7 +1635,7 @@
         <v>0.830000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>3.225806451612903</v>
+        <v>40.00000000000006</v>
       </c>
       <c r="L27" t="n">
         <v>2.551000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>0.830000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>20.75471698113213</v>
+        <v>40.00000000000006</v>
       </c>
       <c r="L28" t="n">
         <v>2.563000000000001</v>
@@ -1715,7 +1737,7 @@
         <v>0.8400000000000012</v>
       </c>
       <c r="K29" t="n">
-        <v>10.20408163265302</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L29" t="n">
         <v>2.574000000000001</v>
@@ -1768,7 +1790,7 @@
         <v>0.8400000000000012</v>
       </c>
       <c r="K30" t="n">
-        <v>10.20408163265302</v>
+        <v>50</v>
       </c>
       <c r="L30" t="n">
         <v>2.576000000000001</v>
@@ -1823,7 +1845,7 @@
         <v>0.8700000000000014</v>
       </c>
       <c r="K31" t="n">
-        <v>15.38461538461539</v>
+        <v>76.47058823529414</v>
       </c>
       <c r="L31" t="n">
         <v>2.587000000000001</v>
@@ -1880,7 +1902,7 @@
         <v>0.8700000000000014</v>
       </c>
       <c r="K32" t="n">
-        <v>17.64705882352946</v>
+        <v>87.49999999999976</v>
       </c>
       <c r="L32" t="n">
         <v>2.600000000000001</v>
@@ -1937,7 +1959,7 @@
         <v>0.9000000000000017</v>
       </c>
       <c r="K33" t="n">
-        <v>2.040816326530568</v>
+        <v>33.33333333333309</v>
       </c>
       <c r="L33" t="n">
         <v>2.611000000000001</v>
@@ -1994,7 +2016,7 @@
         <v>0.9100000000000019</v>
       </c>
       <c r="K34" t="n">
-        <v>10.63829787234048</v>
+        <v>38.4615384615383</v>
       </c>
       <c r="L34" t="n">
         <v>2.616000000000001</v>
@@ -2051,7 +2073,7 @@
         <v>0.9200000000000021</v>
       </c>
       <c r="K35" t="n">
-        <v>26.82926829268285</v>
+        <v>-11.11111111111122</v>
       </c>
       <c r="L35" t="n">
         <v>2.620000000000001</v>
@@ -2108,7 +2130,7 @@
         <v>0.950000000000002</v>
       </c>
       <c r="K36" t="n">
-        <v>16.2790697674419</v>
+        <v>-33.33333333333309</v>
       </c>
       <c r="L36" t="n">
         <v>2.616000000000001</v>
@@ -2165,7 +2187,7 @@
         <v>1.060000000000002</v>
       </c>
       <c r="K37" t="n">
-        <v>33.33333333333333</v>
+        <v>30.43478260869546</v>
       </c>
       <c r="L37" t="n">
         <v>2.623000000000001</v>
@@ -2222,7 +2244,7 @@
         <v>1.170000000000002</v>
       </c>
       <c r="K38" t="n">
-        <v>12.5</v>
+        <v>-9.090909090909017</v>
       </c>
       <c r="L38" t="n">
         <v>2.619000000000001</v>
@@ -2279,7 +2301,7 @@
         <v>1.170000000000002</v>
       </c>
       <c r="K39" t="n">
-        <v>12.5</v>
+        <v>-9.090909090909017</v>
       </c>
       <c r="L39" t="n">
         <v>2.616000000000001</v>
@@ -2336,7 +2358,7 @@
         <v>1.300000000000002</v>
       </c>
       <c r="K40" t="n">
-        <v>-20.58823529411758</v>
+        <v>-44.18604651162788</v>
       </c>
       <c r="L40" t="n">
         <v>2.600000000000001</v>
@@ -2393,7 +2415,7 @@
         <v>1.520000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>16.66666666666668</v>
+        <v>4.615384615384586</v>
       </c>
       <c r="L41" t="n">
         <v>2.603000000000001</v>
@@ -2450,7 +2472,7 @@
         <v>1.680000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>-12.82051282051284</v>
       </c>
       <c r="L42" t="n">
         <v>2.590000000000001</v>
@@ -2507,7 +2529,7 @@
         <v>1.850000000000002</v>
       </c>
       <c r="K43" t="n">
-        <v>15.78947368421053</v>
+        <v>6.382978723404261</v>
       </c>
       <c r="L43" t="n">
         <v>2.597</v>
@@ -2564,7 +2586,7 @@
         <v>1.880000000000002</v>
       </c>
       <c r="K44" t="n">
-        <v>12.72727272727273</v>
+        <v>10.41666666666668</v>
       </c>
       <c r="L44" t="n">
         <v>2.606000000000001</v>
@@ -2621,7 +2643,7 @@
         <v>2.080000000000002</v>
       </c>
       <c r="K45" t="n">
-        <v>-4.615384615384616</v>
+        <v>-6.194690265486751</v>
       </c>
       <c r="L45" t="n">
         <v>2.596000000000001</v>
@@ -2678,7 +2700,7 @@
         <v>2.120000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>-11.62790697674417</v>
+        <v>-20.75471698113206</v>
       </c>
       <c r="L46" t="n">
         <v>2.585000000000001</v>
@@ -2735,7 +2757,7 @@
         <v>2.360000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>5.88235294117646</v>
+        <v>10.92436974789916</v>
       </c>
       <c r="L47" t="n">
         <v>2.587000000000001</v>
@@ -2792,7 +2814,7 @@
         <v>2.520000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>-4.142011834319542</v>
+        <v>-2.222222222222241</v>
       </c>
       <c r="L48" t="n">
         <v>2.584000000000001</v>
@@ -2843,7 +2865,7 @@
         <v>2.550000000000002</v>
       </c>
       <c r="K49" t="n">
-        <v>-1.754385964912269</v>
+        <v>10.39999999999999</v>
       </c>
       <c r="L49" t="n">
         <v>2.584000000000001</v>
@@ -2894,7 +2916,7 @@
         <v>2.600000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>1.136363636363637</v>
+        <v>-3.703703703703707</v>
       </c>
       <c r="L50" t="n">
         <v>2.602000000000001</v>
@@ -2945,7 +2967,7 @@
         <v>2.670000000000002</v>
       </c>
       <c r="K51" t="n">
-        <v>3.333333333333336</v>
+        <v>19.19191919191923</v>
       </c>
       <c r="L51" t="n">
         <v>2.605000000000001</v>
@@ -2996,7 +3018,7 @@
         <v>2.750000000000002</v>
       </c>
       <c r="K52" t="n">
-        <v>-1.063829787234043</v>
+        <v>-6.666666666666673</v>
       </c>
       <c r="L52" t="n">
         <v>2.616000000000001</v>
@@ -3047,7 +3069,7 @@
         <v>2.760000000000002</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>-11.36363636363637</v>
       </c>
       <c r="L53" t="n">
         <v>2.609000000000001</v>
@@ -3098,7 +3120,7 @@
         <v>2.770000000000002</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>15.94202898550728</v>
       </c>
       <c r="L54" t="n">
         <v>2.600000000000001</v>
@@ -3149,7 +3171,7 @@
         <v>2.790000000000002</v>
       </c>
       <c r="K55" t="n">
-        <v>1.604278074866323</v>
+        <v>25.37313432835817</v>
       </c>
       <c r="L55" t="n">
         <v>2.613000000000001</v>
@@ -3200,7 +3222,7 @@
         <v>2.830000000000002</v>
       </c>
       <c r="K56" t="n">
-        <v>1.063829787234043</v>
+        <v>-23.40425531914886</v>
       </c>
       <c r="L56" t="n">
         <v>2.626000000000001</v>
@@ -3251,7 +3273,7 @@
         <v>2.860000000000002</v>
       </c>
       <c r="K57" t="n">
-        <v>-3.333333333333336</v>
+        <v>23.52941176470585</v>
       </c>
       <c r="L57" t="n">
         <v>2.618000000000001</v>
@@ -3302,7 +3324,7 @@
         <v>2.890000000000002</v>
       </c>
       <c r="K58" t="n">
-        <v>4.651162790697677</v>
+        <v>23.52941176470585</v>
       </c>
       <c r="L58" t="n">
         <v>2.629000000000001</v>
@@ -3353,7 +3375,7 @@
         <v>2.910000000000002</v>
       </c>
       <c r="K59" t="n">
-        <v>5.747126436781612</v>
+        <v>16.12903225806455</v>
       </c>
       <c r="L59" t="n">
         <v>2.639000000000001</v>
@@ -3404,7 +3426,7 @@
         <v>2.920000000000003</v>
       </c>
       <c r="K60" t="n">
-        <v>13.58024691358022</v>
+        <v>-12.00000000000006</v>
       </c>
       <c r="L60" t="n">
         <v>2.643000000000001</v>
@@ -3455,7 +3477,7 @@
         <v>2.960000000000003</v>
       </c>
       <c r="K61" t="n">
-        <v>-2.777777777777778</v>
+        <v>4.761904761904641</v>
       </c>
       <c r="L61" t="n">
         <v>2.636000000000001</v>
@@ -3506,7 +3528,7 @@
         <v>2.970000000000003</v>
       </c>
       <c r="K62" t="n">
-        <v>10.07751937984498</v>
+        <v>14.28571428571435</v>
       </c>
       <c r="L62" t="n">
         <v>2.638000000000001</v>
@@ -3557,7 +3579,7 @@
         <v>2.970000000000003</v>
       </c>
       <c r="K63" t="n">
-        <v>-3.571428571428571</v>
+        <v>9.999999999999979</v>
       </c>
       <c r="L63" t="n">
         <v>2.641000000000001</v>
@@ -3608,7 +3630,7 @@
         <v>2.970000000000003</v>
       </c>
       <c r="K64" t="n">
-        <v>-6.422018348623832</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>2.643000000000001</v>
@@ -3659,7 +3681,7 @@
         <v>3.030000000000003</v>
       </c>
       <c r="K65" t="n">
-        <v>20.00000000000002</v>
+        <v>49.99999999999989</v>
       </c>
       <c r="L65" t="n">
         <v>2.649000000000001</v>
@@ -3710,7 +3732,7 @@
         <v>3.140000000000003</v>
       </c>
       <c r="K66" t="n">
-        <v>11.76470588235289</v>
+        <v>-14.28571428571424</v>
       </c>
       <c r="L66" t="n">
         <v>2.648000000000001</v>
@@ -3761,7 +3783,7 @@
         <v>3.160000000000003</v>
       </c>
       <c r="K67" t="n">
-        <v>-17.49999999999997</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L67" t="n">
         <v>2.642000000000001</v>
@@ -3812,7 +3834,7 @@
         <v>3.250000000000004</v>
       </c>
       <c r="K68" t="n">
-        <v>15.06849315068493</v>
+        <v>-5.882352941176455</v>
       </c>
       <c r="L68" t="n">
         <v>2.642000000000001</v>
@@ -3863,7 +3885,7 @@
         <v>3.350000000000004</v>
       </c>
       <c r="K69" t="n">
-        <v>-2.499999999999996</v>
+        <v>-25.58139534883712</v>
       </c>
       <c r="L69" t="n">
         <v>2.630000000000001</v>
@@ -3914,7 +3936,7 @@
         <v>3.720000000000004</v>
       </c>
       <c r="K70" t="n">
-        <v>-39.2857142857142</v>
+        <v>-57.89473684210517</v>
       </c>
       <c r="L70" t="n">
         <v>2.582000000000001</v>
@@ -3965,7 +3987,7 @@
         <v>4.170000000000003</v>
       </c>
       <c r="K71" t="n">
-        <v>-3.999999999999999</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>2.583000000000001</v>
@@ -4016,7 +4038,7 @@
         <v>4.490000000000004</v>
       </c>
       <c r="K72" t="n">
-        <v>-17.24137931034482</v>
+        <v>-21.05263157894738</v>
       </c>
       <c r="L72" t="n">
         <v>2.551000000000001</v>
@@ -4067,7 +4089,7 @@
         <v>4.550000000000004</v>
       </c>
       <c r="K73" t="n">
-        <v>-19.5530726256983</v>
+        <v>-24.05063291139241</v>
       </c>
       <c r="L73" t="n">
         <v>2.513000000000001</v>
@@ -4118,7 +4140,7 @@
         <v>4.870000000000005</v>
       </c>
       <c r="K74" t="n">
-        <v>-1.904761904761904</v>
+        <v>-6.521739130434782</v>
       </c>
       <c r="L74" t="n">
         <v>2.507000000000001</v>
@@ -4169,7 +4191,7 @@
         <v>4.910000000000005</v>
       </c>
       <c r="K75" t="n">
-        <v>-4.716981132075471</v>
+        <v>-2.824858757062135</v>
       </c>
       <c r="L75" t="n">
         <v>2.491000000000001</v>
@@ -4220,7 +4242,7 @@
         <v>4.930000000000005</v>
       </c>
       <c r="K76" t="n">
-        <v>-1.904761904761904</v>
+        <v>-0.5649717514124168</v>
       </c>
       <c r="L76" t="n">
         <v>2.488</v>
@@ -4271,7 +4293,7 @@
         <v>4.960000000000005</v>
       </c>
       <c r="K77" t="n">
-        <v>-4.761904761904759</v>
+        <v>-7.602339181286561</v>
       </c>
       <c r="L77" t="n">
         <v>2.484000000000001</v>
@@ -4322,7 +4344,7 @@
         <v>4.990000000000006</v>
       </c>
       <c r="K78" t="n">
-        <v>-4.761904761904759</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>2.474000000000001</v>
@@ -4373,7 +4395,7 @@
         <v>4.990000000000006</v>
       </c>
       <c r="K79" t="n">
-        <v>-5.769230769230766</v>
+        <v>29.1338582677165</v>
       </c>
       <c r="L79" t="n">
         <v>2.474000000000001</v>
@@ -4424,7 +4446,7 @@
         <v>5.000000000000005</v>
       </c>
       <c r="K80" t="n">
-        <v>-4.807692307692306</v>
+        <v>-8.433734939759052</v>
       </c>
       <c r="L80" t="n">
         <v>2.512</v>
@@ -4475,7 +4497,7 @@
         <v>5.000000000000005</v>
       </c>
       <c r="K81" t="n">
-        <v>-2.941176470588234</v>
+        <v>49.0196078431371</v>
       </c>
       <c r="L81" t="n">
         <v>2.505</v>
@@ -4526,7 +4548,7 @@
         <v>5.000000000000005</v>
       </c>
       <c r="K82" t="n">
-        <v>-3.448275862068975</v>
+        <v>68.88888888888873</v>
       </c>
       <c r="L82" t="n">
         <v>2.53</v>
@@ -4577,7 +4599,7 @@
         <v>5.000000000000005</v>
       </c>
       <c r="K83" t="n">
-        <v>-3.448275862068975</v>
+        <v>-7.692307692307823</v>
       </c>
       <c r="L83" t="n">
         <v>2.561000000000001</v>
@@ -4628,7 +4650,7 @@
         <v>5.130000000000005</v>
       </c>
       <c r="K84" t="n">
-        <v>-9.259259259259258</v>
+        <v>-45.45454545454536</v>
       </c>
       <c r="L84" t="n">
         <v>2.547000000000001</v>
@@ -4679,7 +4701,7 @@
         <v>5.150000000000006</v>
       </c>
       <c r="K85" t="n">
-        <v>-13.20754716981132</v>
+        <v>-63.63636363636351</v>
       </c>
       <c r="L85" t="n">
         <v>2.535000000000001</v>
@@ -4730,7 +4752,7 @@
         <v>5.190000000000006</v>
       </c>
       <c r="K86" t="n">
-        <v>-6.341463414634134</v>
+        <v>-30.43478260869553</v>
       </c>
       <c r="L86" t="n">
         <v>2.525000000000001</v>
@@ -4781,7 +4803,7 @@
         <v>5.290000000000006</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.4694835680751067</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>2.528000000000001</v>
@@ -4832,7 +4854,7 @@
         <v>5.470000000000006</v>
       </c>
       <c r="K88" t="n">
-        <v>-12.61261261261261</v>
+        <v>-37.5</v>
       </c>
       <c r="L88" t="n">
         <v>2.510000000000001</v>
@@ -4883,7 +4905,7 @@
         <v>5.480000000000006</v>
       </c>
       <c r="K89" t="n">
-        <v>-8.920187793427219</v>
+        <v>-41.66666666666657</v>
       </c>
       <c r="L89" t="n">
         <v>2.491000000000001</v>
@@ -4934,7 +4956,7 @@
         <v>5.600000000000006</v>
       </c>
       <c r="K90" t="n">
-        <v>15.95744680851063</v>
+        <v>-13.33333333333326</v>
       </c>
       <c r="L90" t="n">
         <v>2.483000000000001</v>
@@ -4985,7 +5007,7 @@
         <v>5.620000000000006</v>
       </c>
       <c r="K91" t="n">
-        <v>-11.72413793103446</v>
+        <v>-16.12903225806443</v>
       </c>
       <c r="L91" t="n">
         <v>2.473000000000001</v>
@@ -5036,7 +5058,7 @@
         <v>5.710000000000006</v>
       </c>
       <c r="K92" t="n">
-        <v>19.67213114754096</v>
+        <v>-1.40845070422532</v>
       </c>
       <c r="L92" t="n">
         <v>2.472000000000001</v>
@@ -5087,7 +5109,7 @@
         <v>5.860000000000007</v>
       </c>
       <c r="K93" t="n">
-        <v>11.45038167938932</v>
+        <v>-4.109589041095856</v>
       </c>
       <c r="L93" t="n">
         <v>2.456000000000001</v>
@@ -5144,7 +5166,7 @@
         <v>5.910000000000006</v>
       </c>
       <c r="K94" t="n">
-        <v>-11.53846153846153</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L94" t="n">
         <v>2.458000000000001</v>
@@ -5203,7 +5225,7 @@
         <v>6.030000000000006</v>
       </c>
       <c r="K95" t="n">
-        <v>3.571428571428569</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L95" t="n">
         <v>2.474000000000001</v>
@@ -5266,7 +5288,7 @@
         <v>6.040000000000006</v>
       </c>
       <c r="K96" t="n">
-        <v>2.702702702702682</v>
+        <v>3.999999999999974</v>
       </c>
       <c r="L96" t="n">
         <v>2.487000000000001</v>
@@ -5329,7 +5351,7 @@
         <v>6.040000000000006</v>
       </c>
       <c r="K97" t="n">
-        <v>5.555555555555555</v>
+        <v>36.84210526315787</v>
       </c>
       <c r="L97" t="n">
         <v>2.490000000000001</v>
@@ -5392,7 +5414,7 @@
         <v>6.050000000000006</v>
       </c>
       <c r="K98" t="n">
-        <v>3.773584905660379</v>
+        <v>40.35087719298243</v>
       </c>
       <c r="L98" t="n">
         <v>2.512000000000001</v>
@@ -5455,7 +5477,7 @@
         <v>6.060000000000006</v>
       </c>
       <c r="K99" t="n">
-        <v>2.80373831775699</v>
+        <v>21.73913043478253</v>
       </c>
       <c r="L99" t="n">
         <v>2.534000000000001</v>
@@ -5518,7 +5540,7 @@
         <v>6.080000000000005</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>21.73913043478257</v>
       </c>
       <c r="L100" t="n">
         <v>2.542000000000001</v>
@@ -5579,7 +5601,7 @@
         <v>6.170000000000005</v>
       </c>
       <c r="K101" t="n">
-        <v>-7.69230769230768</v>
+        <v>-17.39130434782614</v>
       </c>
       <c r="L101" t="n">
         <v>2.543000000000001</v>
@@ -5640,7 +5662,7 @@
         <v>6.290000000000005</v>
       </c>
       <c r="K102" t="n">
-        <v>2.325581395348856</v>
+        <v>44.18604651162801</v>
       </c>
       <c r="L102" t="n">
         <v>2.547000000000001</v>
@@ -5701,7 +5723,7 @@
         <v>6.300000000000005</v>
       </c>
       <c r="K103" t="n">
-        <v>3.07692307692308</v>
+        <v>38.46153846153856</v>
       </c>
       <c r="L103" t="n">
         <v>2.567000000000001</v>
@@ -5762,7 +5784,7 @@
         <v>6.330000000000005</v>
       </c>
       <c r="K104" t="n">
-        <v>16.66666666666668</v>
+        <v>20.00000000000009</v>
       </c>
       <c r="L104" t="n">
         <v>2.585000000000001</v>
@@ -5819,7 +5841,7 @@
         <v>6.500000000000005</v>
       </c>
       <c r="K105" t="n">
-        <v>3.703703703703724</v>
+        <v>-26.08695652173911</v>
       </c>
       <c r="L105" t="n">
         <v>2.574000000000001</v>
@@ -5876,7 +5898,7 @@
         <v>6.680000000000005</v>
       </c>
       <c r="K106" t="n">
-        <v>12.75167785234899</v>
+        <v>9.375000000000027</v>
       </c>
       <c r="L106" t="n">
         <v>2.580000000000001</v>
@@ -5933,7 +5955,7 @@
         <v>6.720000000000005</v>
       </c>
       <c r="K107" t="n">
-        <v>9.090909090909092</v>
+        <v>13.43283582089552</v>
       </c>
       <c r="L107" t="n">
         <v>2.590000000000001</v>
@@ -5984,7 +6006,7 @@
         <v>6.760000000000005</v>
       </c>
       <c r="K108" t="n">
-        <v>27.13178294573646</v>
+        <v>20.00000000000004</v>
       </c>
       <c r="L108" t="n">
         <v>2.603000000000001</v>
@@ -6035,7 +6057,7 @@
         <v>6.760000000000005</v>
       </c>
       <c r="K109" t="n">
-        <v>28.12500000000001</v>
+        <v>23.52941176470591</v>
       </c>
       <c r="L109" t="n">
         <v>2.617000000000001</v>
@@ -6086,7 +6108,7 @@
         <v>6.760000000000005</v>
       </c>
       <c r="K110" t="n">
-        <v>20.68965517241379</v>
+        <v>42.37288135593221</v>
       </c>
       <c r="L110" t="n">
         <v>2.633000000000001</v>
@@ -6137,7 +6159,7 @@
         <v>7.020000000000005</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>-17.80821917808219</v>
       </c>
       <c r="L111" t="n">
         <v>2.632000000000001</v>
@@ -6188,7 +6210,7 @@
         <v>7.300000000000004</v>
       </c>
       <c r="K112" t="n">
-        <v>11.94968553459121</v>
+        <v>14.00000000000002</v>
       </c>
       <c r="L112" t="n">
         <v>2.647000000000001</v>
@@ -6239,7 +6261,7 @@
         <v>7.480000000000004</v>
       </c>
       <c r="K113" t="n">
-        <v>9.876543209876539</v>
+        <v>-6.086956521739163</v>
       </c>
       <c r="L113" t="n">
         <v>2.643000000000001</v>
@@ -6290,7 +6312,7 @@
         <v>7.660000000000004</v>
       </c>
       <c r="K114" t="n">
-        <v>16.5714285714286</v>
+        <v>24.13793103448278</v>
       </c>
       <c r="L114" t="n">
         <v>2.654000000000001</v>
@@ -6341,7 +6363,7 @@
         <v>7.680000000000003</v>
       </c>
       <c r="K115" t="n">
-        <v>11.51515151515153</v>
+        <v>12.00000000000003</v>
       </c>
       <c r="L115" t="n">
         <v>2.684000000000001</v>
@@ -6392,7 +6414,7 @@
         <v>7.690000000000003</v>
       </c>
       <c r="K116" t="n">
-        <v>10.30303030303032</v>
+        <v>7.216494845360823</v>
       </c>
       <c r="L116" t="n">
         <v>2.695000000000001</v>
@@ -6443,7 +6465,7 @@
         <v>7.760000000000003</v>
       </c>
       <c r="K117" t="n">
-        <v>13.95348837209306</v>
+        <v>10.00000000000003</v>
       </c>
       <c r="L117" t="n">
         <v>2.709000000000001</v>
@@ -6494,7 +6516,7 @@
         <v>7.790000000000004</v>
       </c>
       <c r="K118" t="n">
-        <v>11.49425287356322</v>
+        <v>6.796116504854363</v>
       </c>
       <c r="L118" t="n">
         <v>2.716000000000001</v>
@@ -6545,7 +6567,7 @@
         <v>7.980000000000004</v>
       </c>
       <c r="K119" t="n">
-        <v>1.041666666666669</v>
+        <v>-9.83606557377051</v>
       </c>
       <c r="L119" t="n">
         <v>2.704000000000001</v>
@@ -6596,7 +6618,7 @@
         <v>8.140000000000004</v>
       </c>
       <c r="K120" t="n">
-        <v>9.708737864077685</v>
+        <v>26.78571428571429</v>
       </c>
       <c r="L120" t="n">
         <v>2.708000000000001</v>
@@ -6647,7 +6669,7 @@
         <v>8.180000000000003</v>
       </c>
       <c r="K121" t="n">
-        <v>12.43781094527364</v>
+        <v>-2.272727272727277</v>
       </c>
       <c r="L121" t="n">
         <v>2.734000000000001</v>
@@ -6698,7 +6720,7 @@
         <v>8.180000000000003</v>
       </c>
       <c r="K122" t="n">
-        <v>6.878306878306881</v>
+        <v>22.8571428571429</v>
       </c>
       <c r="L122" t="n">
         <v>2.732000000000001</v>
@@ -6749,7 +6771,7 @@
         <v>8.380000000000003</v>
       </c>
       <c r="K123" t="n">
-        <v>-3.846153846153855</v>
+        <v>-30.55555555555563</v>
       </c>
       <c r="L123" t="n">
         <v>2.728000000000001</v>
@@ -6800,7 +6822,7 @@
         <v>8.380000000000003</v>
       </c>
       <c r="K124" t="n">
-        <v>-5.365853658536608</v>
+        <v>-34.28571428571436</v>
       </c>
       <c r="L124" t="n">
         <v>2.706000000000001</v>
@@ -6851,7 +6873,7 @@
         <v>8.400000000000002</v>
       </c>
       <c r="K125" t="n">
-        <v>4.210526315789461</v>
+        <v>-29.57746478873243</v>
       </c>
       <c r="L125" t="n">
         <v>2.684000000000001</v>
@@ -6902,7 +6924,7 @@
         <v>8.470000000000002</v>
       </c>
       <c r="K126" t="n">
-        <v>-1.675977653631276</v>
+        <v>-29.57746478873243</v>
       </c>
       <c r="L126" t="n">
         <v>2.670000000000001</v>
@@ -6953,7 +6975,7 @@
         <v>8.560000000000002</v>
       </c>
       <c r="K127" t="n">
-        <v>-8.695652173913064</v>
+        <v>-35.06493506493513</v>
       </c>
       <c r="L127" t="n">
         <v>2.640000000000001</v>
@@ -7004,7 +7026,7 @@
         <v>8.730000000000002</v>
       </c>
       <c r="K128" t="n">
-        <v>-1.522842639593901</v>
+        <v>12.00000000000007</v>
       </c>
       <c r="L128" t="n">
         <v>2.630000000000001</v>
@@ -7055,7 +7077,7 @@
         <v>8.780000000000003</v>
       </c>
       <c r="K129" t="n">
-        <v>-3.960396039603968</v>
+        <v>-18.75000000000005</v>
       </c>
       <c r="L129" t="n">
         <v>2.634000000000001</v>
@@ -7106,7 +7128,7 @@
         <v>8.780000000000003</v>
       </c>
       <c r="K130" t="n">
-        <v>-3.960396039603968</v>
+        <v>-13.33333333333335</v>
       </c>
       <c r="L130" t="n">
         <v>2.622000000000001</v>
@@ -7157,7 +7179,7 @@
         <v>8.780000000000003</v>
       </c>
       <c r="K131" t="n">
-        <v>10.22727272727272</v>
+        <v>-13.33333333333335</v>
       </c>
       <c r="L131" t="n">
         <v>2.614000000000001</v>
@@ -7208,7 +7230,7 @@
         <v>8.820000000000004</v>
       </c>
       <c r="K132" t="n">
-        <v>-9.210526315789485</v>
+        <v>18.18181818181815</v>
       </c>
       <c r="L132" t="n">
         <v>2.602000000000001</v>
@@ -7259,7 +7281,7 @@
         <v>8.840000000000003</v>
       </c>
       <c r="K133" t="n">
-        <v>1.47058823529412</v>
+        <v>13.04347826086955</v>
       </c>
       <c r="L133" t="n">
         <v>2.608000000000001</v>
@@ -7310,7 +7332,7 @@
         <v>8.860000000000003</v>
       </c>
       <c r="K134" t="n">
-        <v>-11.66666666666668</v>
+        <v>13.04347826086955</v>
       </c>
       <c r="L134" t="n">
         <v>2.616000000000001</v>
@@ -7361,7 +7383,7 @@
         <v>8.860000000000003</v>
       </c>
       <c r="K135" t="n">
-        <v>-13.55932203389832</v>
+        <v>-2.564102564102619</v>
       </c>
       <c r="L135" t="n">
         <v>2.622</v>
@@ -7412,7 +7434,7 @@
         <v>8.870000000000003</v>
       </c>
       <c r="K136" t="n">
-        <v>-13.55932203389828</v>
+        <v>22.58064516129038</v>
       </c>
       <c r="L136" t="n">
         <v>2.62</v>
@@ -7463,7 +7485,7 @@
         <v>8.920000000000003</v>
       </c>
       <c r="K137" t="n">
-        <v>-24.13793103448278</v>
+        <v>-78.94736842105229</v>
       </c>
       <c r="L137" t="n">
         <v>2.622</v>
@@ -7514,7 +7536,7 @@
         <v>8.920000000000003</v>
       </c>
       <c r="K138" t="n">
-        <v>-22.12389380530973</v>
+        <v>-71.4285714285712</v>
       </c>
       <c r="L138" t="n">
         <v>2.607</v>
@@ -7565,7 +7587,7 @@
         <v>8.980000000000004</v>
       </c>
       <c r="K139" t="n">
-        <v>-11.99999999999997</v>
+        <v>-79.99999999999943</v>
       </c>
       <c r="L139" t="n">
         <v>2.591</v>
@@ -7616,7 +7638,7 @@
         <v>9.140000000000004</v>
       </c>
       <c r="K140" t="n">
-        <v>-12.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>2.591</v>
@@ -7667,7 +7689,7 @@
         <v>9.140000000000004</v>
       </c>
       <c r="K141" t="n">
-        <v>-8.333333333333332</v>
+        <v>12.5</v>
       </c>
       <c r="L141" t="n">
         <v>2.591</v>
@@ -7718,7 +7740,7 @@
         <v>9.280000000000005</v>
       </c>
       <c r="K142" t="n">
-        <v>-19.99999999999999</v>
+        <v>-18.18181818181815</v>
       </c>
       <c r="L142" t="n">
         <v>2.581</v>
@@ -7769,7 +7791,7 @@
         <v>9.420000000000005</v>
       </c>
       <c r="K143" t="n">
-        <v>11.53846153846152</v>
+        <v>7.14285714285712</v>
       </c>
       <c r="L143" t="n">
         <v>2.587</v>
@@ -7820,7 +7842,7 @@
         <v>9.440000000000005</v>
       </c>
       <c r="K144" t="n">
-        <v>13.2075471698113</v>
+        <v>10.34482758620687</v>
       </c>
       <c r="L144" t="n">
         <v>2.593</v>
@@ -7871,7 +7893,7 @@
         <v>9.480000000000004</v>
       </c>
       <c r="K145" t="n">
-        <v>7.407407407407401</v>
+        <v>4.918032786885204</v>
       </c>
       <c r="L145" t="n">
         <v>2.595</v>
@@ -7922,7 +7944,7 @@
         <v>9.580000000000004</v>
       </c>
       <c r="K146" t="n">
-        <v>-8.108108108108127</v>
+        <v>-3.030303030303032</v>
       </c>
       <c r="L146" t="n">
         <v>2.588</v>
@@ -7973,7 +7995,7 @@
         <v>9.600000000000003</v>
       </c>
       <c r="K147" t="n">
-        <v>1.923076923076923</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
         <v>2.588</v>
@@ -8024,7 +8046,7 @@
         <v>9.600000000000003</v>
       </c>
       <c r="K148" t="n">
-        <v>-17.24137931034485</v>
+        <v>9.67741935483866</v>
       </c>
       <c r="L148" t="n">
         <v>2.588</v>
@@ -8075,7 +8097,7 @@
         <v>9.600000000000003</v>
       </c>
       <c r="K149" t="n">
-        <v>-12.19512195121952</v>
+        <v>-21.73913043478267</v>
       </c>
       <c r="L149" t="n">
         <v>2.594</v>
@@ -8126,7 +8148,7 @@
         <v>9.630000000000003</v>
       </c>
       <c r="K150" t="n">
-        <v>-15.29411764705882</v>
+        <v>-26.53061224489802</v>
       </c>
       <c r="L150" t="n">
         <v>2.581</v>
@@ -8177,7 +8199,7 @@
         <v>9.650000000000002</v>
       </c>
       <c r="K151" t="n">
-        <v>-12.64367816091954</v>
+        <v>8.108108108108231</v>
       </c>
       <c r="L151" t="n">
         <v>2.57</v>
@@ -8228,7 +8250,7 @@
         <v>9.670000000000002</v>
       </c>
       <c r="K152" t="n">
-        <v>-10.58823529411766</v>
+        <v>-52.0000000000007</v>
       </c>
       <c r="L152" t="n">
         <v>2.571</v>
@@ -8279,7 +8301,7 @@
         <v>9.710000000000001</v>
       </c>
       <c r="K153" t="n">
-        <v>-3.448275862068953</v>
+        <v>-40.74074074074129</v>
       </c>
       <c r="L153" t="n">
         <v>2.562</v>
@@ -8330,7 +8352,7 @@
         <v>9.710000000000001</v>
       </c>
       <c r="K154" t="n">
-        <v>-5.882352941176464</v>
+        <v>-30.434782608696</v>
       </c>
       <c r="L154" t="n">
         <v>2.551</v>
@@ -8381,7 +8403,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="K155" t="n">
-        <v>-6.976744186046536</v>
+        <v>14.2857142857146</v>
       </c>
       <c r="L155" t="n">
         <v>2.543</v>
@@ -8432,7 +8454,7 @@
         <v>9.74</v>
       </c>
       <c r="K156" t="n">
-        <v>-3.448275862069004</v>
+        <v>14.2857142857146</v>
       </c>
       <c r="L156" t="n">
         <v>2.547</v>
@@ -8483,7 +8505,7 @@
         <v>9.74</v>
       </c>
       <c r="K157" t="n">
-        <v>2.439024390243914</v>
+        <v>14.2857142857146</v>
       </c>
       <c r="L157" t="n">
         <v>2.549</v>
@@ -8534,7 +8556,7 @@
         <v>9.780000000000001</v>
       </c>
       <c r="K158" t="n">
-        <v>6.976744186046536</v>
+        <v>33.33333333333374</v>
       </c>
       <c r="L158" t="n">
         <v>2.555</v>
@@ -8585,7 +8607,7 @@
         <v>9.82</v>
       </c>
       <c r="K159" t="n">
-        <v>9.523809523809522</v>
+        <v>26.31578947368443</v>
       </c>
       <c r="L159" t="n">
         <v>2.556999999999999</v>
@@ -8636,7 +8658,7 @@
         <v>9.82</v>
       </c>
       <c r="K160" t="n">
-        <v>-11.76470588235302</v>
+        <v>17.64705882352949</v>
       </c>
       <c r="L160" t="n">
         <v>2.562</v>
@@ -8687,7 +8709,7 @@
         <v>9.83</v>
       </c>
       <c r="K161" t="n">
-        <v>-13.04347826086962</v>
+        <v>25.00000000000028</v>
       </c>
       <c r="L161" t="n">
         <v>2.564</v>
@@ -8738,7 +8760,7 @@
         <v>9.84</v>
       </c>
       <c r="K162" t="n">
-        <v>10.71428571428582</v>
+        <v>7.692307692307587</v>
       </c>
       <c r="L162" t="n">
         <v>2.569</v>
@@ -8789,7 +8811,7 @@
         <v>9.84</v>
       </c>
       <c r="K163" t="n">
-        <v>-19.04761904761931</v>
+        <v>7.692307692307587</v>
       </c>
       <c r="L163" t="n">
         <v>2.57</v>
@@ -8840,7 +8862,7 @@
         <v>9.85</v>
       </c>
       <c r="K164" t="n">
-        <v>-26.82926829268323</v>
+        <v>7.692307692307929</v>
       </c>
       <c r="L164" t="n">
         <v>2.57</v>
@@ -8891,7 +8913,7 @@
         <v>9.85</v>
       </c>
       <c r="K165" t="n">
-        <v>-18.9189189189191</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L165" t="n">
         <v>2.571</v>
@@ -8942,7 +8964,7 @@
         <v>9.92</v>
       </c>
       <c r="K166" t="n">
-        <v>29.4117647058827</v>
+        <v>33.33333333333341</v>
       </c>
       <c r="L166" t="n">
         <v>2.577</v>
@@ -8993,7 +9015,7 @@
         <v>9.98</v>
       </c>
       <c r="K167" t="n">
-        <v>5.263157894736885</v>
+        <v>-20.00000000000009</v>
       </c>
       <c r="L167" t="n">
         <v>2.577</v>
@@ -9044,7 +9066,7 @@
         <v>10.01</v>
       </c>
       <c r="K168" t="n">
-        <v>-2.43902439024387</v>
+        <v>-15.78947368421046</v>
       </c>
       <c r="L168" t="n">
         <v>2.569999999999999</v>
@@ -9095,7 +9117,7 @@
         <v>10.03</v>
       </c>
       <c r="K169" t="n">
-        <v>2.325581395348912</v>
+        <v>-4.761904761904681</v>
       </c>
       <c r="L169" t="n">
         <v>2.569</v>
@@ -9146,7 +9168,7 @@
         <v>10.04</v>
       </c>
       <c r="K170" t="n">
-        <v>12.19512195121957</v>
+        <v>4.761904761904681</v>
       </c>
       <c r="L170" t="n">
         <v>2.569</v>
@@ -9197,7 +9219,7 @@
         <v>10.05</v>
       </c>
       <c r="K171" t="n">
-        <v>10.00000000000009</v>
+        <v>4.761904761904892</v>
       </c>
       <c r="L171" t="n">
         <v>2.571</v>
@@ -9248,7 +9270,7 @@
         <v>10.07</v>
       </c>
       <c r="K172" t="n">
-        <v>10.00000000000009</v>
+        <v>-4.347826086956454</v>
       </c>
       <c r="L172" t="n">
         <v>2.569999999999999</v>
@@ -9350,7 +9372,7 @@
         <v>10.08</v>
       </c>
       <c r="K174" t="n">
-        <v>2.702702702702664</v>
+        <v>4.347826086956454</v>
       </c>
       <c r="L174" t="n">
         <v>2.569999999999999</v>
@@ -9401,7 +9423,7 @@
         <v>10.21</v>
       </c>
       <c r="K175" t="n">
-        <v>30.61224489795936</v>
+        <v>24.13793103448293</v>
       </c>
       <c r="L175" t="n">
         <v>2.584</v>
@@ -9452,7 +9474,7 @@
         <v>10.33</v>
       </c>
       <c r="K176" t="n">
-        <v>1.694915254237333</v>
+        <v>2.857142857142941</v>
       </c>
       <c r="L176" t="n">
         <v>2.579</v>
@@ -9503,7 +9525,7 @@
         <v>10.35</v>
       </c>
       <c r="K177" t="n">
-        <v>-1.639344262295053</v>
+        <v>5.882352941176508</v>
       </c>
       <c r="L177" t="n">
         <v>2.577999999999999</v>
@@ -9554,7 +9576,7 @@
         <v>10.36</v>
       </c>
       <c r="K178" t="n">
-        <v>-10.34482758620697</v>
+        <v>-3.030303030303116</v>
       </c>
       <c r="L178" t="n">
         <v>2.579</v>
@@ -9656,7 +9678,7 @@
         <v>10.4</v>
       </c>
       <c r="K180" t="n">
-        <v>-3.448275862068989</v>
+        <v>-8.571428571428696</v>
       </c>
       <c r="L180" t="n">
         <v>2.578</v>
@@ -9707,7 +9729,7 @@
         <v>10.42</v>
       </c>
       <c r="K181" t="n">
-        <v>1.694915254237263</v>
+        <v>2.857142857142814</v>
       </c>
       <c r="L181" t="n">
         <v>2.577</v>
@@ -9758,7 +9780,7 @@
         <v>10.43</v>
       </c>
       <c r="K182" t="n">
-        <v>1.694915254237338</v>
+        <v>5.555555555555597</v>
       </c>
       <c r="L182" t="n">
         <v>2.579</v>
@@ -9809,7 +9831,7 @@
         <v>10.56</v>
       </c>
       <c r="K183" t="n">
-        <v>19.44444444444459</v>
+        <v>29.16666666666688</v>
       </c>
       <c r="L183" t="n">
         <v>2.594</v>
@@ -9860,7 +9882,7 @@
         <v>10.72</v>
       </c>
       <c r="K184" t="n">
-        <v>-1.149425287356354</v>
+        <v>-29.41176470588264</v>
       </c>
       <c r="L184" t="n">
         <v>2.592</v>
@@ -9911,7 +9933,7 @@
         <v>10.77</v>
       </c>
       <c r="K185" t="n">
-        <v>4.347826086956543</v>
+        <v>4.545454545454573</v>
       </c>
       <c r="L185" t="n">
         <v>2.582</v>
@@ -9962,7 +9984,7 @@
         <v>10.78</v>
       </c>
       <c r="K186" t="n">
-        <v>-2.32558139534885</v>
+        <v>11.6279069767442</v>
       </c>
       <c r="L186" t="n">
         <v>2.585</v>
@@ -10013,7 +10035,7 @@
         <v>10.81</v>
       </c>
       <c r="K187" t="n">
-        <v>1.204819277108469</v>
+        <v>6.666666666666758</v>
       </c>
       <c r="L187" t="n">
         <v>2.587</v>
@@ -10064,7 +10086,7 @@
         <v>10.81999999999999</v>
       </c>
       <c r="K188" t="n">
-        <v>6.172839506172854</v>
+        <v>4.545454545454573</v>
       </c>
       <c r="L188" t="n">
         <v>2.591</v>
@@ -10115,7 +10137,7 @@
         <v>10.82999999999999</v>
       </c>
       <c r="K189" t="n">
-        <v>5.000000000000034</v>
+        <v>11.6279069767443</v>
       </c>
       <c r="L189" t="n">
         <v>2.594</v>
@@ -10166,7 +10188,7 @@
         <v>10.82999999999999</v>
       </c>
       <c r="K190" t="n">
-        <v>3.797468354430432</v>
+        <v>7.317073170731797</v>
       </c>
       <c r="L190" t="n">
         <v>2.599</v>
@@ -10217,7 +10239,7 @@
         <v>10.83999999999999</v>
       </c>
       <c r="K191" t="n">
-        <v>3.797468354430376</v>
+        <v>7.317073170731689</v>
       </c>
       <c r="L191" t="n">
         <v>2.603</v>
@@ -10268,7 +10290,7 @@
         <v>10.9</v>
       </c>
       <c r="K192" t="n">
-        <v>-1.204819277108466</v>
+        <v>-47.05882352941182</v>
       </c>
       <c r="L192" t="n">
         <v>2.6</v>
@@ -10319,7 +10341,7 @@
         <v>10.90999999999999</v>
       </c>
       <c r="K193" t="n">
-        <v>0</v>
+        <v>5.263157894736977</v>
       </c>
       <c r="L193" t="n">
         <v>2.585</v>
@@ -10370,7 +10392,7 @@
         <v>10.91999999999999</v>
       </c>
       <c r="K194" t="n">
-        <v>0</v>
+        <v>-20.00000000000036</v>
       </c>
       <c r="L194" t="n">
         <v>2.587</v>
@@ -10421,7 +10443,7 @@
         <v>10.98999999999999</v>
       </c>
       <c r="K195" t="n">
-        <v>-7.69230769230774</v>
+        <v>14.28571428571447</v>
       </c>
       <c r="L195" t="n">
         <v>2.591</v>
@@ -10472,7 +10494,7 @@
         <v>11.06</v>
       </c>
       <c r="K196" t="n">
-        <v>-1.369863013698668</v>
+        <v>-4.000000000000092</v>
       </c>
       <c r="L196" t="n">
         <v>2.587</v>
@@ -10523,7 +10545,7 @@
         <v>11.12</v>
       </c>
       <c r="K197" t="n">
-        <v>-6.493506493506547</v>
+        <v>-26.66666666666663</v>
       </c>
       <c r="L197" t="n">
         <v>2.58</v>
@@ -10574,7 +10596,7 @@
         <v>11.14</v>
       </c>
       <c r="K198" t="n">
-        <v>-2.564102564102575</v>
+        <v>-22.58064516129038</v>
       </c>
       <c r="L198" t="n">
         <v>2.574</v>
@@ -10625,7 +10647,7 @@
         <v>11.15999999999999</v>
       </c>
       <c r="K199" t="n">
-        <v>-2.564102564102575</v>
+        <v>-15.15151515151523</v>
       </c>
       <c r="L199" t="n">
         <v>2.569</v>
@@ -10676,7 +10698,7 @@
         <v>11.15999999999999</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>-18.75</v>
       </c>
       <c r="L200" t="n">
         <v>2.564</v>
@@ -10727,7 +10749,7 @@
         <v>11.29</v>
       </c>
       <c r="K201" t="n">
-        <v>12.64367816091959</v>
+        <v>33.33333333333337</v>
       </c>
       <c r="L201" t="n">
         <v>2.571</v>
@@ -10778,7 +10800,7 @@
         <v>11.43</v>
       </c>
       <c r="K202" t="n">
-        <v>-4.000000000000004</v>
+        <v>-3.84615384615384</v>
       </c>
       <c r="L202" t="n">
         <v>2.569999999999999</v>
@@ -10829,7 +10851,7 @@
         <v>11.44</v>
       </c>
       <c r="K203" t="n">
-        <v>-18.18181818181818</v>
+        <v>-3.84615384615384</v>
       </c>
       <c r="L203" t="n">
         <v>2.569</v>
@@ -10880,7 +10902,7 @@
         <v>11.45</v>
       </c>
       <c r="K204" t="n">
-        <v>1.369863013698661</v>
+        <v>-17.39130434782607</v>
       </c>
       <c r="L204" t="n">
         <v>2.568</v>
@@ -10931,7 +10953,7 @@
         <v>11.45</v>
       </c>
       <c r="K205" t="n">
-        <v>-5.882352941176478</v>
+        <v>-2.564102564102506</v>
       </c>
       <c r="L205" t="n">
         <v>2.56</v>
@@ -10982,7 +11004,7 @@
         <v>11.46</v>
       </c>
       <c r="K206" t="n">
-        <v>-5.882352941176478</v>
+        <v>17.64705882352943</v>
       </c>
       <c r="L206" t="n">
         <v>2.56</v>
@@ -11033,7 +11055,7 @@
         <v>11.46</v>
       </c>
       <c r="K207" t="n">
-        <v>-1.538461538461573</v>
+        <v>12.5</v>
       </c>
       <c r="L207" t="n">
         <v>2.566</v>
@@ -11084,7 +11106,7 @@
         <v>11.47</v>
       </c>
       <c r="K208" t="n">
-        <v>-1.538461538461505</v>
+        <v>9.677419354838774</v>
       </c>
       <c r="L208" t="n">
         <v>2.570999999999999</v>
@@ -11135,7 +11157,7 @@
         <v>11.47</v>
       </c>
       <c r="K209" t="n">
-        <v>-3.125</v>
+        <v>9.677419354838774</v>
       </c>
       <c r="L209" t="n">
         <v>2.573999999999999</v>
@@ -11186,7 +11208,7 @@
         <v>11.56</v>
       </c>
       <c r="K210" t="n">
-        <v>9.589041095890384</v>
+        <v>-3.703703703703795</v>
       </c>
       <c r="L210" t="n">
         <v>2.585999999999999</v>

--- a/BackTest/2019-11-02 BackTest MXC.xlsx
+++ b/BackTest/2019-11-02 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S210"/>
+  <dimension ref="A1:M189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.04000000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.04000000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.1200000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.1900000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06999999999999984</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.2100000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.3000000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.350000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.350000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.350000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>2.589</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.3600000000000012</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-24.99999999999993</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.577</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.06999999999999984</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.4100000000000015</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-8.108108108108024</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.574</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.4400000000000017</v>
-      </c>
-      <c r="K14" t="n">
-        <v>6.249999999999974</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.568</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5100000000000016</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-37.49999999999989</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.563</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5200000000000014</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-29.03225806451614</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.552</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5200000000000014</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.543</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5300000000000011</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.542</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5300000000000011</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.536</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.620000000000001</v>
-      </c>
-      <c r="K20" t="n">
-        <v>11.11111111111104</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.539000000000001</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1400000000000001</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.680000000000001</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-6.250000000000008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.536</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>2.5625</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.7000000000000011</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-31.03448275862084</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.532</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>2.5545</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.7100000000000009</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-25.92592592592595</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>2.548</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.7800000000000007</v>
-      </c>
-      <c r="K24" t="n">
-        <v>25.92592592592595</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>2.544999999999999</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.7800000000000007</v>
-      </c>
-      <c r="K25" t="n">
-        <v>23.07692307692315</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>2.546</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.830000000000001</v>
-      </c>
-      <c r="K26" t="n">
-        <v>35.48387096774208</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>2.546</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.830000000000001</v>
-      </c>
-      <c r="K27" t="n">
-        <v>40.00000000000006</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.551000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>2.547</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1675,33 +1361,15 @@
         <v>2.604999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.830000000000001</v>
-      </c>
-      <c r="K28" t="n">
-        <v>40.00000000000006</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.563000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>2.552499999999999</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1731,30 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.06000000000000005</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.8400000000000012</v>
-      </c>
-      <c r="K29" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.574000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>2.554999999999999</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="n">
-        <v>2.711</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1784,32 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.06000000000000005</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.8400000000000012</v>
-      </c>
-      <c r="K30" t="n">
-        <v>50</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.576000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>2.557499999999999</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1839,34 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.0299999999999998</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.8700000000000014</v>
-      </c>
-      <c r="K31" t="n">
-        <v>76.47058823529414</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.587000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>2.561499999999999</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2.570666666666667</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1896,34 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.0299999999999998</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.8700000000000014</v>
-      </c>
-      <c r="K32" t="n">
-        <v>87.49999999999976</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.600000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>2.565999999999999</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.569666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,34 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.06000000000000005</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.9000000000000017</v>
-      </c>
-      <c r="K33" t="n">
-        <v>33.33333333333309</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2.611000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>2.566499999999999</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.569</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2010,34 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.9100000000000019</v>
-      </c>
-      <c r="K34" t="n">
-        <v>38.4615384615383</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.616000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>2.568999999999999</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.568666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2067,34 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.06000000000000005</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.9200000000000021</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-11.11111111111122</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.620000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>2.574499999999999</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.570666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2124,34 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.950000000000002</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-33.33333333333309</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.616000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>2.577999999999999</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2.569333333333334</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2181,34 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.060000000000002</v>
-      </c>
-      <c r="K37" t="n">
-        <v>30.43478260869546</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.623000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>2.586999999999999</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2.572333333333334</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2238,34 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.170000000000002</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-9.090909090909017</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.619000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>2.590999999999999</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2.574666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2295,34 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.170000000000002</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-9.090909090909017</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.616000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>2.594999999999999</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2.575333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2352,34 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.2199999999999998</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.300000000000002</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-44.18604651162788</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.600000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>2.587999999999999</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2.571666666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2411,32 +1821,10 @@
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1.520000000000001</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4.615384615384586</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.603000000000001</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>2.594999999999999</v>
-      </c>
-      <c r="N41" t="n">
-        <v>2.575333333333333</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2466,34 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.680000000000001</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-12.82051282051284</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.590000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>2.594999999999999</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.574</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2523,34 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01000000000000023</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.850000000000002</v>
-      </c>
-      <c r="K43" t="n">
-        <v>6.382978723404261</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>2.603999999999999</v>
-      </c>
-      <c r="N43" t="n">
-        <v>2.576666666666668</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2580,34 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1.880000000000002</v>
-      </c>
-      <c r="K44" t="n">
-        <v>10.41666666666668</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.606000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>2.610999999999999</v>
-      </c>
-      <c r="N44" t="n">
-        <v>2.581333333333334</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2637,34 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2.080000000000002</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-6.194690265486751</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.596000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>2.607999999999999</v>
-      </c>
-      <c r="N45" t="n">
-        <v>2.581666666666668</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2694,34 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.1999999999999997</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.120000000000001</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-20.75471698113206</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.585000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>2.600499999999999</v>
-      </c>
-      <c r="N46" t="n">
-        <v>2.580333333333334</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2751,35 +2029,13 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2.360000000000001</v>
-      </c>
-      <c r="K47" t="n">
-        <v>10.92436974789916</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.587000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>2.604999999999999</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2.587000000000001</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>이탈 완료</t>
-        </is>
-      </c>
-      <c r="S47" t="n">
-        <v>0.9682824427480915</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2808,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2.520000000000001</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-2.222222222222241</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2.584000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>2.601499999999999</v>
-      </c>
-      <c r="N48" t="n">
-        <v>2.588666666666667</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2859,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2.550000000000002</v>
-      </c>
-      <c r="K49" t="n">
-        <v>10.39999999999999</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.584000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>2.599999999999999</v>
-      </c>
-      <c r="N49" t="n">
-        <v>2.591333333333333</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2910,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2.600000000000001</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-3.703703703703707</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2.602000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>2.600999999999999</v>
-      </c>
-      <c r="N50" t="n">
-        <v>2.592666666666667</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2961,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.03000000000000025</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2.670000000000002</v>
-      </c>
-      <c r="K51" t="n">
-        <v>19.19191919191923</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.605000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>2.603999999999999</v>
-      </c>
-      <c r="N51" t="n">
-        <v>2.598333333333334</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3012,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2.750000000000002</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-6.666666666666673</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.616000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>2.602999999999999</v>
-      </c>
-      <c r="N52" t="n">
-        <v>2.602</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3063,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.06000000000000005</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2.760000000000002</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-11.36363636363637</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.609000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>2.602999999999999</v>
-      </c>
-      <c r="N53" t="n">
-        <v>2.605666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3114,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2.770000000000002</v>
-      </c>
-      <c r="K54" t="n">
-        <v>15.94202898550728</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.600000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>2.602999999999999</v>
-      </c>
-      <c r="N54" t="n">
-        <v>2.607333333333334</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3165,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.0299999999999998</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2.790000000000002</v>
-      </c>
-      <c r="K55" t="n">
-        <v>25.37313432835817</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.613000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>2.604499999999999</v>
-      </c>
-      <c r="N55" t="n">
-        <v>2.609666666666667</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3216,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.06999999999999984</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2.830000000000002</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-23.40425531914886</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.626000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>2.605499999999999</v>
-      </c>
-      <c r="N56" t="n">
-        <v>2.609</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3267,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2.860000000000002</v>
-      </c>
-      <c r="K57" t="n">
-        <v>23.52941176470585</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.618000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>2.6025</v>
-      </c>
-      <c r="N57" t="n">
-        <v>2.609333333333333</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J58" t="n">
-        <v>2.890000000000002</v>
-      </c>
-      <c r="K58" t="n">
-        <v>23.52941176470585</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.629000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>2.6065</v>
-      </c>
-      <c r="N58" t="n">
-        <v>2.610666666666666</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.01000000000000023</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2.910000000000002</v>
-      </c>
-      <c r="K59" t="n">
-        <v>16.12903225806455</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.639000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>2.6115</v>
-      </c>
-      <c r="N59" t="n">
-        <v>2.613</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3422,26 +2486,10 @@
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>2.920000000000003</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-12.00000000000006</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.643000000000001</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>2.6225</v>
-      </c>
-      <c r="N60" t="n">
-        <v>2.615</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3471,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2.960000000000003</v>
-      </c>
-      <c r="K61" t="n">
-        <v>4.761904761904641</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.636000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>2.6205</v>
-      </c>
-      <c r="N61" t="n">
-        <v>2.614666666666666</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3522,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.0299999999999998</v>
-      </c>
-      <c r="J62" t="n">
-        <v>2.970000000000003</v>
-      </c>
-      <c r="K62" t="n">
-        <v>14.28571428571435</v>
-      </c>
-      <c r="L62" t="n">
-        <v>2.638000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>2.627</v>
-      </c>
-      <c r="N62" t="n">
-        <v>2.614666666666666</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3573,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.0299999999999998</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2.970000000000003</v>
-      </c>
-      <c r="K63" t="n">
-        <v>9.999999999999979</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.641000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>2.625</v>
-      </c>
-      <c r="N63" t="n">
-        <v>2.615666666666667</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3624,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.0299999999999998</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2.970000000000003</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.643000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>2.6215</v>
-      </c>
-      <c r="N64" t="n">
-        <v>2.616333333333333</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3675,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.03000000000000025</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3.030000000000003</v>
-      </c>
-      <c r="K65" t="n">
-        <v>49.99999999999989</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.649000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>2.631</v>
-      </c>
-      <c r="N65" t="n">
-        <v>2.619333333333333</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3726,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3.140000000000003</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-14.28571428571424</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.648000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>2.637</v>
-      </c>
-      <c r="N66" t="n">
-        <v>2.619666666666667</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3777,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3.160000000000003</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.642000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N67" t="n">
-        <v>2.615666666666667</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3828,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3.250000000000004</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-5.882352941176455</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.642000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>2.6355</v>
-      </c>
-      <c r="N68" t="n">
-        <v>2.618333333333333</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3879,28 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3.350000000000004</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-25.58139534883712</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2.630000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>2.634500000000001</v>
-      </c>
-      <c r="N69" t="n">
-        <v>2.617666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3930,28 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3.720000000000004</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-57.89473684210517</v>
-      </c>
-      <c r="L70" t="n">
-        <v>2.582000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>2.6125</v>
-      </c>
-      <c r="N70" t="n">
-        <v>2.609</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3981,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.0299999999999998</v>
-      </c>
-      <c r="J71" t="n">
-        <v>4.170000000000003</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.583000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>2.6095</v>
-      </c>
-      <c r="N71" t="n">
-        <v>2.608</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4032,28 +2904,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.3500000000000001</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4.490000000000004</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-21.05263157894738</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.551000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>2.5945</v>
-      </c>
-      <c r="N72" t="n">
-        <v>2.601666666666666</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4083,28 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.4100000000000001</v>
-      </c>
-      <c r="J73" t="n">
-        <v>4.550000000000004</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-24.05063291139241</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.513000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>2.577</v>
-      </c>
-      <c r="N73" t="n">
-        <v>2.587666666666666</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4131,31 +2971,21 @@
         <v>2.582333333333332</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.08999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>4.870000000000005</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-6.521739130434782</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.507000000000001</v>
+        <v>2.57</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>2.575</v>
-      </c>
-      <c r="N74" t="n">
-        <v>2.583333333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4185,28 +3015,16 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J75" t="n">
-        <v>4.910000000000005</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-2.824858757062135</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.491000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="N75" t="n">
-        <v>2.584333333333333</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4236,28 +3054,16 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="J76" t="n">
-        <v>4.930000000000005</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-0.5649717514124168</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.488</v>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>2.568000000000001</v>
-      </c>
-      <c r="N76" t="n">
-        <v>2.587333333333333</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4287,28 +3093,16 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.1400000000000001</v>
-      </c>
-      <c r="J77" t="n">
-        <v>4.960000000000005</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-7.602339181286561</v>
-      </c>
-      <c r="L77" t="n">
-        <v>2.484000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>2.563</v>
-      </c>
-      <c r="N77" t="n">
-        <v>2.581333333333333</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4338,28 +3132,16 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="J78" t="n">
-        <v>4.990000000000006</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.474000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>2.558000000000001</v>
-      </c>
-      <c r="N78" t="n">
-        <v>2.581666666666667</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4389,28 +3171,16 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="J79" t="n">
-        <v>4.990000000000006</v>
-      </c>
-      <c r="K79" t="n">
-        <v>29.1338582677165</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.474000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>2.552</v>
-      </c>
-      <c r="N79" t="n">
-        <v>2.581</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4440,28 +3210,16 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J80" t="n">
-        <v>5.000000000000005</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-8.433734939759052</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.512</v>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>2.547000000000001</v>
-      </c>
-      <c r="N80" t="n">
-        <v>2.579</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,28 +3249,16 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J81" t="n">
-        <v>5.000000000000005</v>
-      </c>
-      <c r="K81" t="n">
-        <v>49.0196078431371</v>
-      </c>
-      <c r="L81" t="n">
-        <v>2.505</v>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>2.544</v>
-      </c>
-      <c r="N81" t="n">
-        <v>2.574666666666666</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,28 +3288,16 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J82" t="n">
-        <v>5.000000000000005</v>
-      </c>
-      <c r="K82" t="n">
-        <v>68.88888888888873</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.53</v>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>2.540500000000001</v>
-      </c>
-      <c r="N82" t="n">
-        <v>2.573</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4593,28 +3327,16 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J83" t="n">
-        <v>5.000000000000005</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-7.692307692307823</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.561000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>2.537</v>
-      </c>
-      <c r="N83" t="n">
-        <v>2.571666666666666</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4644,28 +3366,16 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.23</v>
-      </c>
-      <c r="J84" t="n">
-        <v>5.130000000000005</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-45.45454545454536</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.547000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>2.527</v>
-      </c>
-      <c r="N84" t="n">
-        <v>2.565666666666666</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4695,28 +3405,16 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="J85" t="n">
-        <v>5.150000000000006</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-63.63636363636351</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.535000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>2.513</v>
-      </c>
-      <c r="N85" t="n">
-        <v>2.558333333333332</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4743,31 +3441,21 @@
         <v>2.581333333333332</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.21</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>5.190000000000006</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-30.43478260869553</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.525000000000001</v>
+        <v>2.46</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>2.5065</v>
-      </c>
-      <c r="N86" t="n">
-        <v>2.553666666666666</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4794,31 +3482,21 @@
         <v>2.580333333333332</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.1099999999999999</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>5.290000000000006</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.528000000000001</v>
+        <v>2.56</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>2.506000000000001</v>
-      </c>
-      <c r="N87" t="n">
-        <v>2.551333333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4845,31 +3523,21 @@
         <v>2.576333333333332</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.29</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>5.470000000000006</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.510000000000001</v>
+        <v>2.48</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>2.492000000000001</v>
-      </c>
-      <c r="N88" t="n">
-        <v>2.541999999999999</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4896,31 +3564,21 @@
         <v>2.572333333333332</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>5.480000000000006</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-41.66666666666657</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.491000000000001</v>
+        <v>2.39</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>2.482500000000001</v>
-      </c>
-      <c r="N89" t="n">
-        <v>2.531666666666666</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4947,31 +3605,21 @@
         <v>2.570333333333331</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.1799999999999997</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>5.600000000000006</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-13.33333333333326</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.483000000000001</v>
+        <v>2.5</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>2.497500000000001</v>
-      </c>
-      <c r="N90" t="n">
-        <v>2.525666666666666</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,31 +3646,21 @@
         <v>2.567499999999998</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.1999999999999997</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>5.620000000000006</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-16.12903225806443</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.473000000000001</v>
+        <v>2.46</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>2.489000000000001</v>
-      </c>
-      <c r="N91" t="n">
-        <v>2.520333333333332</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5049,31 +3687,21 @@
         <v>2.566166666666665</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.1099999999999999</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>5.710000000000006</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-1.40845070422532</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.472000000000001</v>
+        <v>2.53</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>2.501000000000001</v>
-      </c>
-      <c r="N92" t="n">
-        <v>2.517666666666666</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,34 +3731,18 @@
         <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.2599999999999998</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>5.860000000000007</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-4.109589041095856</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.456000000000001</v>
+        <v>2.46</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>2.508500000000001</v>
-      </c>
-      <c r="N93" t="n">
-        <v>2.509999999999999</v>
-      </c>
-      <c r="O93" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="P93" t="n">
-        <v>2.649</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5160,36 +3772,18 @@
         <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.21</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>5.910000000000006</v>
-      </c>
-      <c r="K94" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.458000000000001</v>
+        <v>2.46</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>2.502500000000001</v>
-      </c>
-      <c r="N94" t="n">
-        <v>2.503999999999999</v>
-      </c>
-      <c r="O94" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5219,40 +3813,18 @@
         <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.08999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>6.030000000000006</v>
-      </c>
-      <c r="K95" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.474000000000001</v>
+        <v>2.58</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>2.504500000000001</v>
-      </c>
-      <c r="N95" t="n">
-        <v>2.499999999999999</v>
-      </c>
-      <c r="O95" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q95" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5282,40 +3854,18 @@
         <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.08000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>6.040000000000006</v>
-      </c>
-      <c r="K96" t="n">
-        <v>3.999999999999974</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.487000000000001</v>
+        <v>2.58</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>2.506000000000001</v>
-      </c>
-      <c r="N96" t="n">
-        <v>2.499999999999999</v>
-      </c>
-      <c r="O96" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q96" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5345,40 +3895,18 @@
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.08000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>6.040000000000006</v>
-      </c>
-      <c r="K97" t="n">
-        <v>36.84210526315787</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.490000000000001</v>
+        <v>2.59</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>2.509000000000001</v>
-      </c>
-      <c r="N97" t="n">
-        <v>2.500666666666666</v>
-      </c>
-      <c r="O97" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q97" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5405,43 +3933,19 @@
         <v>2.558499999999998</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.06999999999999984</v>
-      </c>
-      <c r="J98" t="n">
-        <v>6.050000000000006</v>
-      </c>
-      <c r="K98" t="n">
-        <v>40.35087719298243</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.512000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>2.511000000000001</v>
-      </c>
-      <c r="N98" t="n">
-        <v>2.498666666666665</v>
-      </c>
-      <c r="O98" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q98" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5468,43 +3972,19 @@
         <v>2.558666666666665</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J99" t="n">
-        <v>6.060000000000006</v>
-      </c>
-      <c r="K99" t="n">
-        <v>21.73913043478253</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.534000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>2.512500000000001</v>
-      </c>
-      <c r="N99" t="n">
-        <v>2.499666666666665</v>
-      </c>
-      <c r="O99" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q99" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5534,38 +4014,16 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J100" t="n">
-        <v>6.080000000000005</v>
-      </c>
-      <c r="K100" t="n">
-        <v>21.73913043478257</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.542000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>2.512500000000001</v>
-      </c>
-      <c r="N100" t="n">
-        <v>2.512333333333332</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q100" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5595,38 +4053,16 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.1899999999999999</v>
-      </c>
-      <c r="J101" t="n">
-        <v>6.170000000000005</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-17.39130434782614</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.543000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>2.508</v>
-      </c>
-      <c r="N101" t="n">
-        <v>2.506999999999999</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q101" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5656,38 +4092,16 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.06999999999999984</v>
-      </c>
-      <c r="J102" t="n">
-        <v>6.290000000000005</v>
-      </c>
-      <c r="K102" t="n">
-        <v>44.18604651162801</v>
-      </c>
-      <c r="L102" t="n">
-        <v>2.547000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>2.509500000000001</v>
-      </c>
-      <c r="N102" t="n">
-        <v>2.516333333333332</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q102" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5717,38 +4131,16 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.06000000000000005</v>
-      </c>
-      <c r="J103" t="n">
-        <v>6.300000000000005</v>
-      </c>
-      <c r="K103" t="n">
-        <v>38.46153846153856</v>
-      </c>
-      <c r="L103" t="n">
-        <v>2.567000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>2.511500000000001</v>
-      </c>
-      <c r="N103" t="n">
-        <v>2.527999999999999</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q103" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5778,34 +4170,16 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.0299999999999998</v>
-      </c>
-      <c r="J104" t="n">
-        <v>6.330000000000005</v>
-      </c>
-      <c r="K104" t="n">
-        <v>20.00000000000009</v>
-      </c>
-      <c r="L104" t="n">
-        <v>2.585000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>2.521500000000001</v>
-      </c>
-      <c r="N104" t="n">
-        <v>2.529999999999999</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5835,34 +4209,16 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.1999999999999997</v>
-      </c>
-      <c r="J105" t="n">
-        <v>6.500000000000005</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-26.08695652173911</v>
-      </c>
-      <c r="L105" t="n">
-        <v>2.574000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>2.524</v>
-      </c>
-      <c r="N105" t="n">
-        <v>2.527666666666665</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5892,35 +4248,17 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J106" t="n">
-        <v>6.680000000000005</v>
-      </c>
-      <c r="K106" t="n">
-        <v>9.375000000000027</v>
-      </c>
-      <c r="L106" t="n">
-        <v>2.580000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>2.533500000000001</v>
-      </c>
-      <c r="N106" t="n">
-        <v>2.530666666666666</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>지정 매도</t>
-        </is>
-      </c>
-      <c r="S106" t="n">
-        <v>1.029765625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -5949,28 +4287,16 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="J107" t="n">
-        <v>6.720000000000005</v>
-      </c>
-      <c r="K107" t="n">
-        <v>13.43283582089552</v>
-      </c>
-      <c r="L107" t="n">
-        <v>2.590000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="N107" t="n">
-        <v>2.535999999999999</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6000,28 +4326,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="J108" t="n">
-        <v>6.760000000000005</v>
-      </c>
-      <c r="K108" t="n">
-        <v>20.00000000000004</v>
-      </c>
-      <c r="L108" t="n">
-        <v>2.603000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>2.5575</v>
-      </c>
-      <c r="N108" t="n">
-        <v>2.541666666666665</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6051,28 +4365,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="J109" t="n">
-        <v>6.760000000000005</v>
-      </c>
-      <c r="K109" t="n">
-        <v>23.52941176470591</v>
-      </c>
-      <c r="L109" t="n">
-        <v>2.617000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>2.5755</v>
-      </c>
-      <c r="N109" t="n">
-        <v>2.547333333333332</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6102,30 +4404,16 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="J110" t="n">
-        <v>6.760000000000005</v>
-      </c>
-      <c r="K110" t="n">
-        <v>42.37288135593221</v>
-      </c>
-      <c r="L110" t="n">
-        <v>2.633000000000001</v>
-      </c>
-      <c r="M110" t="n">
-        <v>2.587499999999999</v>
-      </c>
-      <c r="N110" t="n">
-        <v>2.552666666666666</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6153,28 +4441,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.1999999999999997</v>
-      </c>
-      <c r="J111" t="n">
-        <v>7.020000000000005</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-17.80821917808219</v>
-      </c>
-      <c r="L111" t="n">
-        <v>2.632000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>2.587499999999999</v>
-      </c>
-      <c r="N111" t="n">
-        <v>2.549333333333332</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6204,28 +4476,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J112" t="n">
-        <v>7.300000000000004</v>
-      </c>
-      <c r="K112" t="n">
-        <v>14.00000000000002</v>
-      </c>
-      <c r="L112" t="n">
-        <v>2.647000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>2.597</v>
-      </c>
-      <c r="N112" t="n">
-        <v>2.555333333333333</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6255,28 +4511,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J113" t="n">
-        <v>7.480000000000004</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-6.086956521739163</v>
-      </c>
-      <c r="L113" t="n">
-        <v>2.643000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>2.605</v>
-      </c>
-      <c r="N113" t="n">
-        <v>2.555333333333333</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6306,28 +4546,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J114" t="n">
-        <v>7.660000000000004</v>
-      </c>
-      <c r="K114" t="n">
-        <v>24.13793103448278</v>
-      </c>
-      <c r="L114" t="n">
-        <v>2.654000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>2.619499999999999</v>
-      </c>
-      <c r="N114" t="n">
-        <v>2.565666666666666</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6357,28 +4581,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="J115" t="n">
-        <v>7.680000000000003</v>
-      </c>
-      <c r="K115" t="n">
-        <v>12.00000000000003</v>
-      </c>
-      <c r="L115" t="n">
-        <v>2.684000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>2.629</v>
-      </c>
-      <c r="N115" t="n">
-        <v>2.577333333333333</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6408,28 +4616,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J116" t="n">
-        <v>7.690000000000003</v>
-      </c>
-      <c r="K116" t="n">
-        <v>7.216494845360823</v>
-      </c>
-      <c r="L116" t="n">
-        <v>2.695000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>2.6375</v>
-      </c>
-      <c r="N116" t="n">
-        <v>2.587333333333333</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6459,28 +4651,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1600000000000001</v>
-      </c>
-      <c r="J117" t="n">
-        <v>7.760000000000003</v>
-      </c>
-      <c r="K117" t="n">
-        <v>10.00000000000003</v>
-      </c>
-      <c r="L117" t="n">
-        <v>2.709000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>2.6495</v>
-      </c>
-      <c r="N117" t="n">
-        <v>2.596333333333333</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6510,28 +4686,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J118" t="n">
-        <v>7.790000000000004</v>
-      </c>
-      <c r="K118" t="n">
-        <v>6.796116504854363</v>
-      </c>
-      <c r="L118" t="n">
-        <v>2.716000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>2.6595</v>
-      </c>
-      <c r="N118" t="n">
-        <v>2.610333333333333</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6561,28 +4721,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.06000000000000005</v>
-      </c>
-      <c r="J119" t="n">
-        <v>7.980000000000004</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-9.83606557377051</v>
-      </c>
-      <c r="L119" t="n">
-        <v>2.704000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>2.6605</v>
-      </c>
-      <c r="N119" t="n">
-        <v>2.618333333333333</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6612,28 +4756,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="J120" t="n">
-        <v>8.140000000000004</v>
-      </c>
-      <c r="K120" t="n">
-        <v>26.78571428571429</v>
-      </c>
-      <c r="L120" t="n">
-        <v>2.708000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>2.6705</v>
-      </c>
-      <c r="N120" t="n">
-        <v>2.627666666666666</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6663,28 +4791,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="J121" t="n">
-        <v>8.180000000000003</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-2.272727272727277</v>
-      </c>
-      <c r="L121" t="n">
-        <v>2.734000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>2.683</v>
-      </c>
-      <c r="N121" t="n">
-        <v>2.636333333333333</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6714,28 +4826,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="J122" t="n">
-        <v>8.180000000000003</v>
-      </c>
-      <c r="K122" t="n">
-        <v>22.8571428571429</v>
-      </c>
-      <c r="L122" t="n">
-        <v>2.732000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>2.6895</v>
-      </c>
-      <c r="N122" t="n">
-        <v>2.642</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6765,28 +4861,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>-0.1400000000000001</v>
-      </c>
-      <c r="J123" t="n">
-        <v>8.380000000000003</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-30.55555555555563</v>
-      </c>
-      <c r="L123" t="n">
-        <v>2.728000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>2.6855</v>
-      </c>
-      <c r="N123" t="n">
-        <v>2.646</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6816,28 +4896,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>-0.1400000000000001</v>
-      </c>
-      <c r="J124" t="n">
-        <v>8.380000000000003</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-34.28571428571436</v>
-      </c>
-      <c r="L124" t="n">
-        <v>2.706000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="N124" t="n">
-        <v>2.648333333333333</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6867,28 +4931,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J125" t="n">
-        <v>8.400000000000002</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-29.57746478873243</v>
-      </c>
-      <c r="L125" t="n">
-        <v>2.684000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>2.684</v>
-      </c>
-      <c r="N125" t="n">
-        <v>2.647333333333334</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6918,28 +4966,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J126" t="n">
-        <v>8.470000000000002</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-29.57746478873243</v>
-      </c>
-      <c r="L126" t="n">
-        <v>2.670000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>2.6825</v>
-      </c>
-      <c r="N126" t="n">
-        <v>2.648333333333333</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6969,28 +5001,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>-0.1400000000000001</v>
-      </c>
-      <c r="J127" t="n">
-        <v>8.560000000000002</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-35.06493506493513</v>
-      </c>
-      <c r="L127" t="n">
-        <v>2.640000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>2.6745</v>
-      </c>
-      <c r="N127" t="n">
-        <v>2.646333333333333</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7020,28 +5036,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0.03000000000000025</v>
-      </c>
-      <c r="J128" t="n">
-        <v>8.730000000000002</v>
-      </c>
-      <c r="K128" t="n">
-        <v>12.00000000000007</v>
-      </c>
-      <c r="L128" t="n">
-        <v>2.630000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>2.673</v>
-      </c>
-      <c r="N128" t="n">
-        <v>2.649666666666667</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7071,28 +5071,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J129" t="n">
-        <v>8.780000000000003</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-18.75000000000005</v>
-      </c>
-      <c r="L129" t="n">
-        <v>2.634000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>2.669</v>
-      </c>
-      <c r="N129" t="n">
-        <v>2.651666666666667</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7122,28 +5106,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J130" t="n">
-        <v>8.780000000000003</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-13.33333333333335</v>
-      </c>
-      <c r="L130" t="n">
-        <v>2.622000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>2.665</v>
-      </c>
-      <c r="N130" t="n">
-        <v>2.654333333333334</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7173,28 +5141,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J131" t="n">
-        <v>8.780000000000003</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-13.33333333333335</v>
-      </c>
-      <c r="L131" t="n">
-        <v>2.614000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>2.674</v>
-      </c>
-      <c r="N131" t="n">
-        <v>2.660000000000001</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7224,28 +5176,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>-0.06000000000000005</v>
-      </c>
-      <c r="J132" t="n">
-        <v>8.820000000000004</v>
-      </c>
-      <c r="K132" t="n">
-        <v>18.18181818181815</v>
-      </c>
-      <c r="L132" t="n">
-        <v>2.602000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>2.667</v>
-      </c>
-      <c r="N132" t="n">
-        <v>2.660333333333334</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7275,28 +5211,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J133" t="n">
-        <v>8.840000000000003</v>
-      </c>
-      <c r="K133" t="n">
-        <v>13.04347826086955</v>
-      </c>
-      <c r="L133" t="n">
-        <v>2.608000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>2.668</v>
-      </c>
-      <c r="N133" t="n">
-        <v>2.659666666666668</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7326,28 +5246,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>-0.06000000000000005</v>
-      </c>
-      <c r="J134" t="n">
-        <v>8.860000000000003</v>
-      </c>
-      <c r="K134" t="n">
-        <v>13.04347826086955</v>
-      </c>
-      <c r="L134" t="n">
-        <v>2.616000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>2.661</v>
-      </c>
-      <c r="N134" t="n">
-        <v>2.658666666666668</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7377,28 +5281,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>-0.06000000000000005</v>
-      </c>
-      <c r="J135" t="n">
-        <v>8.860000000000003</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-2.564102564102619</v>
-      </c>
-      <c r="L135" t="n">
-        <v>2.622</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>2.653</v>
-      </c>
-      <c r="N135" t="n">
-        <v>2.663333333333334</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7428,28 +5316,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>-0.06999999999999984</v>
-      </c>
-      <c r="J136" t="n">
-        <v>8.870000000000003</v>
-      </c>
-      <c r="K136" t="n">
-        <v>22.58064516129038</v>
-      </c>
-      <c r="L136" t="n">
-        <v>2.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>2.645</v>
-      </c>
-      <c r="N136" t="n">
-        <v>2.661666666666668</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7479,28 +5351,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J137" t="n">
-        <v>8.920000000000003</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-78.94736842105229</v>
-      </c>
-      <c r="L137" t="n">
-        <v>2.622</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>2.631</v>
-      </c>
-      <c r="N137" t="n">
-        <v>2.657000000000001</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7530,28 +5386,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J138" t="n">
-        <v>8.920000000000003</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-71.4285714285712</v>
-      </c>
-      <c r="L138" t="n">
-        <v>2.607</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>2.6185</v>
-      </c>
-      <c r="N138" t="n">
-        <v>2.651000000000001</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7581,28 +5421,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>-0.1799999999999997</v>
-      </c>
-      <c r="J139" t="n">
-        <v>8.980000000000004</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-79.99999999999943</v>
-      </c>
-      <c r="L139" t="n">
-        <v>2.591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>2.6125</v>
-      </c>
-      <c r="N139" t="n">
-        <v>2.643</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7632,28 +5456,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J140" t="n">
-        <v>9.140000000000004</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0</v>
-      </c>
-      <c r="L140" t="n">
-        <v>2.591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>2.6065</v>
-      </c>
-      <c r="N140" t="n">
-        <v>2.640333333333333</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7683,28 +5491,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J141" t="n">
-        <v>9.140000000000004</v>
-      </c>
-      <c r="K141" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L141" t="n">
-        <v>2.591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>2.6025</v>
-      </c>
-      <c r="N141" t="n">
-        <v>2.646333333333334</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7734,28 +5526,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J142" t="n">
-        <v>9.280000000000005</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-18.18181818181815</v>
-      </c>
-      <c r="L142" t="n">
-        <v>2.581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>2.5915</v>
-      </c>
-      <c r="N142" t="n">
-        <v>2.638333333333334</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7785,28 +5561,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J143" t="n">
-        <v>9.420000000000005</v>
-      </c>
-      <c r="K143" t="n">
-        <v>7.14285714285712</v>
-      </c>
-      <c r="L143" t="n">
-        <v>2.587</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>2.5975</v>
-      </c>
-      <c r="N143" t="n">
-        <v>2.641000000000001</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7838,26 +5598,10 @@
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>9.440000000000005</v>
-      </c>
-      <c r="K144" t="n">
-        <v>10.34482758620687</v>
-      </c>
-      <c r="L144" t="n">
-        <v>2.593</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>2.6045</v>
-      </c>
-      <c r="N144" t="n">
-        <v>2.638333333333335</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7887,28 +5631,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J145" t="n">
-        <v>9.480000000000004</v>
-      </c>
-      <c r="K145" t="n">
-        <v>4.918032786885204</v>
-      </c>
-      <c r="L145" t="n">
-        <v>2.595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>2.6085</v>
-      </c>
-      <c r="N145" t="n">
-        <v>2.633666666666668</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7938,28 +5666,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>-0.1400000000000001</v>
-      </c>
-      <c r="J146" t="n">
-        <v>9.580000000000004</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-3.030303030303032</v>
-      </c>
-      <c r="L146" t="n">
-        <v>2.588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>2.604000000000001</v>
-      </c>
-      <c r="N146" t="n">
-        <v>2.626000000000001</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7989,28 +5701,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J147" t="n">
-        <v>9.600000000000003</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0</v>
-      </c>
-      <c r="L147" t="n">
-        <v>2.588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>2.605</v>
-      </c>
-      <c r="N147" t="n">
-        <v>2.616666666666668</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8040,28 +5736,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J148" t="n">
-        <v>9.600000000000003</v>
-      </c>
-      <c r="K148" t="n">
-        <v>9.67741935483866</v>
-      </c>
-      <c r="L148" t="n">
-        <v>2.588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>2.5975</v>
-      </c>
-      <c r="N148" t="n">
-        <v>2.608333333333334</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8091,28 +5771,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J149" t="n">
-        <v>9.600000000000003</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-21.73913043478267</v>
-      </c>
-      <c r="L149" t="n">
-        <v>2.594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>2.5925</v>
-      </c>
-      <c r="N149" t="n">
-        <v>2.606333333333334</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8142,28 +5806,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>-0.1499999999999999</v>
-      </c>
-      <c r="J150" t="n">
-        <v>9.630000000000003</v>
-      </c>
-      <c r="K150" t="n">
-        <v>-26.53061224489802</v>
-      </c>
-      <c r="L150" t="n">
-        <v>2.581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>2.586</v>
-      </c>
-      <c r="N150" t="n">
-        <v>2.598000000000001</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8193,28 +5841,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J151" t="n">
-        <v>9.650000000000002</v>
-      </c>
-      <c r="K151" t="n">
-        <v>8.108108108108231</v>
-      </c>
-      <c r="L151" t="n">
-        <v>2.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>2.5805</v>
-      </c>
-      <c r="N151" t="n">
-        <v>2.591666666666668</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8244,28 +5876,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>-0.1499999999999999</v>
-      </c>
-      <c r="J152" t="n">
-        <v>9.670000000000002</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-52.0000000000007</v>
-      </c>
-      <c r="L152" t="n">
-        <v>2.571</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>2.576000000000001</v>
-      </c>
-      <c r="N152" t="n">
-        <v>2.584666666666668</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8295,28 +5911,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="J153" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="K153" t="n">
-        <v>-40.74074074074129</v>
-      </c>
-      <c r="L153" t="n">
-        <v>2.562</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>2.5745</v>
-      </c>
-      <c r="N153" t="n">
-        <v>2.585666666666667</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8346,28 +5946,12 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="J154" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-30.434782608696</v>
-      </c>
-      <c r="L154" t="n">
-        <v>2.551</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>2.572000000000001</v>
-      </c>
-      <c r="N154" t="n">
-        <v>2.586666666666667</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8397,28 +5981,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J155" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="K155" t="n">
-        <v>14.2857142857146</v>
-      </c>
-      <c r="L155" t="n">
-        <v>2.543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
-        <v>2.569</v>
-      </c>
-      <c r="N155" t="n">
-        <v>2.586666666666667</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8448,28 +6016,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J156" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="K156" t="n">
-        <v>14.2857142857146</v>
-      </c>
-      <c r="L156" t="n">
-        <v>2.547</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
-        <v>2.5675</v>
-      </c>
-      <c r="N156" t="n">
-        <v>2.585</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8499,28 +6051,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J157" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="K157" t="n">
-        <v>14.2857142857146</v>
-      </c>
-      <c r="L157" t="n">
-        <v>2.549</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>2.568500000000001</v>
-      </c>
-      <c r="N157" t="n">
-        <v>2.586333333333334</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8550,28 +6086,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>-0.06000000000000005</v>
-      </c>
-      <c r="J158" t="n">
-        <v>9.780000000000001</v>
-      </c>
-      <c r="K158" t="n">
-        <v>33.33333333333374</v>
-      </c>
-      <c r="L158" t="n">
-        <v>2.555</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>2.571500000000001</v>
-      </c>
-      <c r="N158" t="n">
-        <v>2.583333333333333</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8601,28 +6121,12 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J159" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="K159" t="n">
-        <v>26.31578947368443</v>
-      </c>
-      <c r="L159" t="n">
-        <v>2.556999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>2.575500000000001</v>
-      </c>
-      <c r="N159" t="n">
-        <v>2.580666666666666</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8652,28 +6156,12 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J160" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="K160" t="n">
-        <v>17.64705882352949</v>
-      </c>
-      <c r="L160" t="n">
-        <v>2.562</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
-        <v>2.571500000000001</v>
-      </c>
-      <c r="N160" t="n">
-        <v>2.577999999999999</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8703,28 +6191,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="J161" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="K161" t="n">
-        <v>25.00000000000028</v>
-      </c>
-      <c r="L161" t="n">
-        <v>2.564</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
-        <v>2.567000000000001</v>
-      </c>
-      <c r="N161" t="n">
-        <v>2.574999999999999</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8754,28 +6226,12 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J162" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="K162" t="n">
-        <v>7.692307692307587</v>
-      </c>
-      <c r="L162" t="n">
-        <v>2.569</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
-        <v>2.570000000000001</v>
-      </c>
-      <c r="N162" t="n">
-        <v>2.573666666666666</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8805,28 +6261,12 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J163" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="K163" t="n">
-        <v>7.692307692307587</v>
-      </c>
-      <c r="L163" t="n">
-        <v>2.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
-        <v>2.566000000000001</v>
-      </c>
-      <c r="N163" t="n">
-        <v>2.572999999999999</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8856,28 +6296,12 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="J164" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="K164" t="n">
-        <v>7.692307692307929</v>
-      </c>
-      <c r="L164" t="n">
-        <v>2.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
-        <v>2.560500000000001</v>
-      </c>
-      <c r="N164" t="n">
-        <v>2.571333333333332</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8907,28 +6331,12 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="J165" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-9.090909090908944</v>
-      </c>
-      <c r="L165" t="n">
-        <v>2.571</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
-        <v>2.557000000000001</v>
-      </c>
-      <c r="N165" t="n">
-        <v>2.569666666666665</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8958,28 +6366,12 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J166" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="K166" t="n">
-        <v>33.33333333333341</v>
-      </c>
-      <c r="L166" t="n">
-        <v>2.577</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
-        <v>2.562000000000001</v>
-      </c>
-      <c r="N166" t="n">
-        <v>2.570666666666666</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9009,28 +6401,12 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J167" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-20.00000000000009</v>
-      </c>
-      <c r="L167" t="n">
-        <v>2.577</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
-        <v>2.563000000000001</v>
-      </c>
-      <c r="N167" t="n">
-        <v>2.571333333333332</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9060,28 +6436,12 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J168" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="K168" t="n">
-        <v>-15.78947368421046</v>
-      </c>
-      <c r="L168" t="n">
-        <v>2.569999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
-        <v>2.562500000000001</v>
-      </c>
-      <c r="N168" t="n">
-        <v>2.570999999999999</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9111,28 +6471,12 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="J169" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="K169" t="n">
-        <v>-4.761904761904681</v>
-      </c>
-      <c r="L169" t="n">
-        <v>2.569</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
-        <v>2.563000000000001</v>
-      </c>
-      <c r="N169" t="n">
-        <v>2.573333333333332</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9162,28 +6506,12 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J170" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="K170" t="n">
-        <v>4.761904761904681</v>
-      </c>
-      <c r="L170" t="n">
-        <v>2.569</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
-        <v>2.565500000000001</v>
-      </c>
-      <c r="N170" t="n">
-        <v>2.570666666666666</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9213,28 +6541,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J171" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="K171" t="n">
-        <v>4.761904761904892</v>
-      </c>
-      <c r="L171" t="n">
-        <v>2.571</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
-        <v>2.567500000000002</v>
-      </c>
-      <c r="N171" t="n">
-        <v>2.568333333333332</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9264,28 +6576,12 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="J172" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="K172" t="n">
-        <v>-4.347826086956454</v>
-      </c>
-      <c r="L172" t="n">
-        <v>2.569999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
-        <v>2.569500000000001</v>
-      </c>
-      <c r="N172" t="n">
-        <v>2.569999999999999</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9315,28 +6611,12 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="J173" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0</v>
-      </c>
-      <c r="L173" t="n">
-        <v>2.569</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
-        <v>2.569500000000001</v>
-      </c>
-      <c r="N173" t="n">
-        <v>2.566999999999998</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9366,28 +6646,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J174" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="K174" t="n">
-        <v>4.347826086956454</v>
-      </c>
-      <c r="L174" t="n">
-        <v>2.569999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
-        <v>2.570000000000001</v>
-      </c>
-      <c r="N174" t="n">
-        <v>2.563666666666665</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9417,28 +6681,12 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0.03000000000000025</v>
-      </c>
-      <c r="J175" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="K175" t="n">
-        <v>24.13793103448293</v>
-      </c>
-      <c r="L175" t="n">
-        <v>2.584</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
-        <v>2.577500000000001</v>
-      </c>
-      <c r="N175" t="n">
-        <v>2.565999999999998</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9468,28 +6716,12 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J176" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="K176" t="n">
-        <v>2.857142857142941</v>
-      </c>
-      <c r="L176" t="n">
-        <v>2.579</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
-        <v>2.578000000000002</v>
-      </c>
-      <c r="N176" t="n">
-        <v>2.567666666666665</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9519,28 +6751,12 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="J177" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="K177" t="n">
-        <v>5.882352941176508</v>
-      </c>
-      <c r="L177" t="n">
-        <v>2.577999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
-        <v>2.577500000000001</v>
-      </c>
-      <c r="N177" t="n">
-        <v>2.567999999999998</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9570,28 +6786,12 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J178" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="K178" t="n">
-        <v>-3.030303030303116</v>
-      </c>
-      <c r="L178" t="n">
-        <v>2.579</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
-        <v>2.574500000000001</v>
-      </c>
-      <c r="N178" t="n">
-        <v>2.567999999999998</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9621,28 +6821,12 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J179" t="n">
-        <v>10.38</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0</v>
-      </c>
-      <c r="L179" t="n">
-        <v>2.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
-        <v>2.574500000000001</v>
-      </c>
-      <c r="N179" t="n">
-        <v>2.568666666666665</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9672,28 +6856,12 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J180" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="K180" t="n">
-        <v>-8.571428571428696</v>
-      </c>
-      <c r="L180" t="n">
-        <v>2.578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
-        <v>2.573500000000001</v>
-      </c>
-      <c r="N180" t="n">
-        <v>2.569666666666665</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9723,28 +6891,12 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J181" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K181" t="n">
-        <v>2.857142857142814</v>
-      </c>
-      <c r="L181" t="n">
-        <v>2.577</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
-        <v>2.574000000000001</v>
-      </c>
-      <c r="N181" t="n">
-        <v>2.570666666666665</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9774,28 +6926,12 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J182" t="n">
-        <v>10.43</v>
-      </c>
-      <c r="K182" t="n">
-        <v>5.555555555555597</v>
-      </c>
-      <c r="L182" t="n">
-        <v>2.579</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
-        <v>2.574500000000001</v>
-      </c>
-      <c r="N182" t="n">
-        <v>2.572666666666664</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9825,28 +6961,12 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J183" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="K183" t="n">
-        <v>29.16666666666688</v>
-      </c>
-      <c r="L183" t="n">
-        <v>2.594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
-        <v>2.581500000000001</v>
-      </c>
-      <c r="N183" t="n">
-        <v>2.577666666666664</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9876,28 +6996,12 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J184" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="K184" t="n">
-        <v>-29.41176470588264</v>
-      </c>
-      <c r="L184" t="n">
-        <v>2.592</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
-        <v>2.581000000000001</v>
-      </c>
-      <c r="N184" t="n">
-        <v>2.577333333333331</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9927,28 +7031,12 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>-0.06999999999999984</v>
-      </c>
-      <c r="J185" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="K185" t="n">
-        <v>4.545454545454573</v>
-      </c>
-      <c r="L185" t="n">
-        <v>2.582</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
-        <v>2.583000000000001</v>
-      </c>
-      <c r="N185" t="n">
-        <v>2.578999999999998</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9978,28 +7066,12 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>-0.06000000000000005</v>
-      </c>
-      <c r="J186" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="K186" t="n">
-        <v>11.6279069767442</v>
-      </c>
-      <c r="L186" t="n">
-        <v>2.585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
-        <v>2.582000000000001</v>
-      </c>
-      <c r="N186" t="n">
-        <v>2.580333333333331</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10029,28 +7101,12 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J187" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="K187" t="n">
-        <v>6.666666666666758</v>
-      </c>
-      <c r="L187" t="n">
-        <v>2.587</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
-        <v>2.5825</v>
-      </c>
-      <c r="N187" t="n">
-        <v>2.580666666666664</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10080,28 +7136,12 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J188" t="n">
-        <v>10.81999999999999</v>
-      </c>
-      <c r="K188" t="n">
-        <v>4.545454545454573</v>
-      </c>
-      <c r="L188" t="n">
-        <v>2.591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
-        <v>2.585</v>
-      </c>
-      <c r="N188" t="n">
-        <v>2.579999999999998</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10131,1099 +7171,12 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>-0.06999999999999984</v>
-      </c>
-      <c r="J189" t="n">
-        <v>10.82999999999999</v>
-      </c>
-      <c r="K189" t="n">
-        <v>11.6279069767443</v>
-      </c>
-      <c r="L189" t="n">
-        <v>2.594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
-        <v>2.587000000000001</v>
-      </c>
-      <c r="N189" t="n">
-        <v>2.580999999999998</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D190" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E190" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F190" t="n">
-        <v>7160276.4634</v>
-      </c>
-      <c r="G190" t="n">
-        <v>2.580000000000002</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>-0.06999999999999984</v>
-      </c>
-      <c r="J190" t="n">
-        <v>10.82999999999999</v>
-      </c>
-      <c r="K190" t="n">
-        <v>7.317073170731797</v>
-      </c>
-      <c r="L190" t="n">
-        <v>2.599</v>
-      </c>
-      <c r="M190" t="n">
-        <v>2.588500000000001</v>
-      </c>
-      <c r="N190" t="n">
-        <v>2.581999999999998</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C191" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D191" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E191" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="F191" t="n">
-        <v>10533976.2152</v>
-      </c>
-      <c r="G191" t="n">
-        <v>2.579333333333336</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>-0.06000000000000005</v>
-      </c>
-      <c r="J191" t="n">
-        <v>10.83999999999999</v>
-      </c>
-      <c r="K191" t="n">
-        <v>7.317073170731689</v>
-      </c>
-      <c r="L191" t="n">
-        <v>2.603</v>
-      </c>
-      <c r="M191" t="n">
-        <v>2.590000000000001</v>
-      </c>
-      <c r="N191" t="n">
-        <v>2.583666666666665</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C192" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="D192" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="E192" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F192" t="n">
-        <v>8430615.814099999</v>
-      </c>
-      <c r="G192" t="n">
-        <v>2.578333333333335</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J192" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K192" t="n">
-        <v>-47.05882352941182</v>
-      </c>
-      <c r="L192" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M192" t="n">
-        <v>2.5895</v>
-      </c>
-      <c r="N192" t="n">
-        <v>2.582999999999998</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C193" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D193" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E193" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F193" t="n">
-        <v>4226793.7596</v>
-      </c>
-      <c r="G193" t="n">
-        <v>2.577833333333336</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="J193" t="n">
-        <v>10.90999999999999</v>
-      </c>
-      <c r="K193" t="n">
-        <v>5.263157894736977</v>
-      </c>
-      <c r="L193" t="n">
-        <v>2.585</v>
-      </c>
-      <c r="M193" t="n">
-        <v>2.5895</v>
-      </c>
-      <c r="N193" t="n">
-        <v>2.582666666666665</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C194" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D194" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E194" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F194" t="n">
-        <v>6363162.3447</v>
-      </c>
-      <c r="G194" t="n">
-        <v>2.577166666666669</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J194" t="n">
-        <v>10.91999999999999</v>
-      </c>
-      <c r="K194" t="n">
-        <v>-20.00000000000036</v>
-      </c>
-      <c r="L194" t="n">
-        <v>2.587</v>
-      </c>
-      <c r="M194" t="n">
-        <v>2.5895</v>
-      </c>
-      <c r="N194" t="n">
-        <v>2.582999999999998</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C195" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="D195" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="E195" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="F195" t="n">
-        <v>5798330.8242</v>
-      </c>
-      <c r="G195" t="n">
-        <v>2.577666666666668</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>-0.0299999999999998</v>
-      </c>
-      <c r="J195" t="n">
-        <v>10.98999999999999</v>
-      </c>
-      <c r="K195" t="n">
-        <v>14.28571428571447</v>
-      </c>
-      <c r="L195" t="n">
-        <v>2.591</v>
-      </c>
-      <c r="M195" t="n">
-        <v>2.5865</v>
-      </c>
-      <c r="N195" t="n">
-        <v>2.585666666666664</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C196" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D196" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E196" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F196" t="n">
-        <v>2356370.7516</v>
-      </c>
-      <c r="G196" t="n">
-        <v>2.577166666666668</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J196" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="K196" t="n">
-        <v>-4.000000000000092</v>
-      </c>
-      <c r="L196" t="n">
-        <v>2.587</v>
-      </c>
-      <c r="M196" t="n">
-        <v>2.586</v>
-      </c>
-      <c r="N196" t="n">
-        <v>2.583666666666665</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C197" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="D197" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E197" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="F197" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G197" t="n">
-        <v>2.576500000000001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J197" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="K197" t="n">
-        <v>-26.66666666666663</v>
-      </c>
-      <c r="L197" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M197" t="n">
-        <v>2.5835</v>
-      </c>
-      <c r="N197" t="n">
-        <v>2.581666666666665</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="C198" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="D198" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="E198" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="F198" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G198" t="n">
-        <v>2.576166666666667</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>-0.1400000000000001</v>
-      </c>
-      <c r="J198" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="K198" t="n">
-        <v>-22.58064516129038</v>
-      </c>
-      <c r="L198" t="n">
-        <v>2.574</v>
-      </c>
-      <c r="M198" t="n">
-        <v>2.5825</v>
-      </c>
-      <c r="N198" t="n">
-        <v>2.581333333333331</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="D199" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E199" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F199" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G199" t="n">
-        <v>2.577166666666668</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J199" t="n">
-        <v>11.15999999999999</v>
-      </c>
-      <c r="K199" t="n">
-        <v>-15.15151515151523</v>
-      </c>
-      <c r="L199" t="n">
-        <v>2.569</v>
-      </c>
-      <c r="M199" t="n">
-        <v>2.5815</v>
-      </c>
-      <c r="N199" t="n">
-        <v>2.580999999999998</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C200" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="D200" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E200" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F200" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G200" t="n">
-        <v>2.575500000000001</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J200" t="n">
-        <v>11.15999999999999</v>
-      </c>
-      <c r="K200" t="n">
-        <v>-18.75</v>
-      </c>
-      <c r="L200" t="n">
-        <v>2.564</v>
-      </c>
-      <c r="M200" t="n">
-        <v>2.5815</v>
-      </c>
-      <c r="N200" t="n">
-        <v>2.580333333333331</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="C201" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="D201" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="E201" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="F201" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G201" t="n">
-        <v>2.576000000000001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0.01000000000000023</v>
-      </c>
-      <c r="J201" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="K201" t="n">
-        <v>33.33333333333337</v>
-      </c>
-      <c r="L201" t="n">
-        <v>2.571</v>
-      </c>
-      <c r="M201" t="n">
-        <v>2.587</v>
-      </c>
-      <c r="N201" t="n">
-        <v>2.583666666666665</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="D202" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="E202" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="F202" t="n">
-        <v>240000</v>
-      </c>
-      <c r="G202" t="n">
-        <v>2.576500000000001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J202" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="K202" t="n">
-        <v>-3.84615384615384</v>
-      </c>
-      <c r="L202" t="n">
-        <v>2.569999999999999</v>
-      </c>
-      <c r="M202" t="n">
-        <v>2.585</v>
-      </c>
-      <c r="N202" t="n">
-        <v>2.582999999999998</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="D203" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E203" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F203" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G203" t="n">
-        <v>2.574833333333335</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J203" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="K203" t="n">
-        <v>-3.84615384615384</v>
-      </c>
-      <c r="L203" t="n">
-        <v>2.569</v>
-      </c>
-      <c r="M203" t="n">
-        <v>2.577</v>
-      </c>
-      <c r="N203" t="n">
-        <v>2.582666666666665</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D204" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E204" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F204" t="n">
-        <v>516076</v>
-      </c>
-      <c r="G204" t="n">
-        <v>2.573000000000001</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="J204" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="K204" t="n">
-        <v>-17.39130434782607</v>
-      </c>
-      <c r="L204" t="n">
-        <v>2.568</v>
-      </c>
-      <c r="M204" t="n">
-        <v>2.5775</v>
-      </c>
-      <c r="N204" t="n">
-        <v>2.582333333333332</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C205" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D205" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E205" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F205" t="n">
-        <v>649013.9</v>
-      </c>
-      <c r="G205" t="n">
-        <v>2.571833333333335</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="J205" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="K205" t="n">
-        <v>-2.564102564102506</v>
-      </c>
-      <c r="L205" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="M205" t="n">
-        <v>2.5755</v>
-      </c>
-      <c r="N205" t="n">
-        <v>2.577666666666665</v>
-      </c>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C206" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D206" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E206" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F206" t="n">
-        <v>153398.3081</v>
-      </c>
-      <c r="G206" t="n">
-        <v>2.572500000000001</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J206" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="K206" t="n">
-        <v>17.64705882352943</v>
-      </c>
-      <c r="L206" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="M206" t="n">
-        <v>2.5735</v>
-      </c>
-      <c r="N206" t="n">
-        <v>2.577333333333331</v>
-      </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C207" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D207" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E207" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F207" t="n">
-        <v>77453.58289999999</v>
-      </c>
-      <c r="G207" t="n">
-        <v>2.572833333333334</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J207" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="K207" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L207" t="n">
-        <v>2.566</v>
-      </c>
-      <c r="M207" t="n">
-        <v>2.573</v>
-      </c>
-      <c r="N207" t="n">
-        <v>2.577666666666665</v>
-      </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C208" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D208" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="E208" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F208" t="n">
-        <v>640000</v>
-      </c>
-      <c r="G208" t="n">
-        <v>2.573333333333335</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J208" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="K208" t="n">
-        <v>9.677419354838774</v>
-      </c>
-      <c r="L208" t="n">
-        <v>2.570999999999999</v>
-      </c>
-      <c r="M208" t="n">
-        <v>2.5725</v>
-      </c>
-      <c r="N208" t="n">
-        <v>2.578666666666665</v>
-      </c>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C209" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D209" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E209" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F209" t="n">
-        <v>220000</v>
-      </c>
-      <c r="G209" t="n">
-        <v>2.573833333333334</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J209" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="K209" t="n">
-        <v>9.677419354838774</v>
-      </c>
-      <c r="L209" t="n">
-        <v>2.573999999999999</v>
-      </c>
-      <c r="M209" t="n">
-        <v>2.5715</v>
-      </c>
-      <c r="N209" t="n">
-        <v>2.578999999999998</v>
-      </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="C210" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="D210" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="E210" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="F210" t="n">
-        <v>10</v>
-      </c>
-      <c r="G210" t="n">
-        <v>2.576333333333334</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="K210" t="n">
-        <v>-3.703703703703795</v>
-      </c>
-      <c r="L210" t="n">
-        <v>2.585999999999999</v>
-      </c>
-      <c r="M210" t="n">
-        <v>2.575</v>
-      </c>
-      <c r="N210" t="n">
-        <v>2.582999999999998</v>
-      </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest MXC.xlsx
+++ b/BackTest/2019-11-02 BackTest MXC.xlsx
@@ -906,14 +906,20 @@
         <v>2.631166666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>2.57</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -948,7 +954,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -983,7 +993,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1018,7 +1032,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1053,7 +1071,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1088,7 +1110,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1123,7 +1149,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,7 +1188,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1186,14 +1220,20 @@
         <v>2.612499999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>2.51</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1221,14 +1261,20 @@
         <v>2.610666666666666</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>2.5</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1256,14 +1302,20 @@
         <v>2.610666666666666</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>2.57</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1291,14 +1343,20 @@
         <v>2.608166666666666</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>2.57</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1333,7 +1391,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1368,7 +1430,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1403,7 +1469,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1438,7 +1508,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1473,7 +1547,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1508,7 +1586,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1543,7 +1625,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1578,7 +1664,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1613,7 +1703,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1648,7 +1742,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1683,7 +1781,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1718,7 +1820,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1753,7 +1859,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1788,7 +1898,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1823,7 +1937,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1858,7 +1976,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1893,7 +2015,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1928,7 +2054,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1963,7 +2093,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1998,7 +2132,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2033,7 +2171,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2068,7 +2210,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2103,7 +2249,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2288,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2173,7 +2327,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2208,7 +2366,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2243,7 +2405,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2278,7 +2444,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2313,7 +2483,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2348,7 +2522,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2383,7 +2561,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2418,7 +2600,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2453,7 +2639,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2488,7 +2678,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2523,7 +2717,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2558,7 +2756,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2593,7 +2795,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2628,7 +2834,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2663,7 +2873,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2698,7 +2912,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2733,7 +2951,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2768,7 +2990,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2803,7 +3029,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2838,7 +3068,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2873,7 +3107,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2908,7 +3146,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2943,7 +3185,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2971,18 +3217,16 @@
         <v>2.582333333333332</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>2.57</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -3441,14 +3685,12 @@
         <v>2.581333333333332</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
@@ -3482,14 +3724,12 @@
         <v>2.580333333333332</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>2.56</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
@@ -3523,14 +3763,12 @@
         <v>2.576333333333332</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>2.48</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
@@ -3564,14 +3802,12 @@
         <v>2.572333333333332</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>2.39</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
@@ -3605,14 +3841,12 @@
         <v>2.570333333333331</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -3646,14 +3880,12 @@
         <v>2.567499999999998</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -3687,14 +3919,12 @@
         <v>2.566166666666665</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>2.53</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -3728,14 +3958,12 @@
         <v>2.562833333333332</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -3769,14 +3997,12 @@
         <v>2.560166666666665</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
@@ -3810,14 +4036,12 @@
         <v>2.559666666666665</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>2.58</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -3851,14 +4075,12 @@
         <v>2.559833333333331</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>2.58</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
@@ -3892,14 +4114,12 @@
         <v>2.558166666666665</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
@@ -4404,16 +4624,18 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4441,11 +4663,15 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4476,11 +4702,15 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4515,7 +4745,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4550,7 +4784,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4585,7 +4823,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4620,7 +4862,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4655,7 +4901,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4690,7 +4940,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4725,7 +4979,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4760,7 +5018,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4795,7 +5057,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4830,7 +5096,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4865,7 +5135,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4900,7 +5174,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4935,7 +5213,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4970,7 +5252,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5005,7 +5291,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5040,7 +5330,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5369,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5110,7 +5408,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5145,7 +5447,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5180,7 +5486,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5215,7 +5525,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5250,7 +5564,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5285,7 +5603,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5320,7 +5642,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5355,7 +5681,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5390,7 +5720,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5425,7 +5759,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5460,7 +5798,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5495,7 +5837,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5530,7 +5876,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5565,7 +5915,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5600,7 +5954,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5635,7 +5993,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5670,7 +6032,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5705,7 +6071,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5740,7 +6110,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5775,7 +6149,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5810,7 +6188,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5845,7 +6227,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5880,7 +6266,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5915,7 +6305,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5950,7 +6344,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5985,7 +6383,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6020,7 +6422,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6055,7 +6461,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6090,7 +6500,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6125,7 +6539,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6160,7 +6578,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6195,7 +6617,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6656,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6265,7 +6695,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6300,7 +6734,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6335,7 +6773,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6370,7 +6812,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6405,7 +6851,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6440,7 +6890,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6475,7 +6929,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6510,7 +6968,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6545,7 +7007,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6580,7 +7046,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6615,7 +7085,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6650,7 +7124,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6685,7 +7163,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6720,7 +7202,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6755,7 +7241,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6790,7 +7280,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6825,7 +7319,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6860,7 +7358,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6895,7 +7397,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6930,7 +7436,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6965,7 +7475,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7000,7 +7514,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7035,7 +7553,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7066,14 +7588,16 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">

--- a/BackTest/2019-11-02 BackTest MXC.xlsx
+++ b/BackTest/2019-11-02 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M229"/>
+  <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="C2" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="D2" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="E2" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="F2" t="n">
-        <v>8878.6736</v>
+        <v>10000</v>
       </c>
       <c r="G2" t="n">
-        <v>5006469.519053926</v>
+        <v>40440524.25001903</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.63</v>
+        <v>2.51</v>
       </c>
       <c r="C3" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="D3" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="E3" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="F3" t="n">
-        <v>14276556.4345</v>
+        <v>443756.3512</v>
       </c>
       <c r="G3" t="n">
-        <v>19283025.95355393</v>
+        <v>39996767.89881903</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="C4" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="D4" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="E4" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="F4" t="n">
-        <v>23231259.3893</v>
+        <v>804639</v>
       </c>
       <c r="G4" t="n">
-        <v>19283025.95355393</v>
+        <v>40801406.89881903</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.64</v>
+        <v>2.51</v>
       </c>
       <c r="C5" t="n">
-        <v>2.64</v>
+        <v>2.51</v>
       </c>
       <c r="D5" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="E5" t="n">
-        <v>2.64</v>
+        <v>2.51</v>
       </c>
       <c r="F5" t="n">
-        <v>23128238.2833</v>
+        <v>540854</v>
       </c>
       <c r="G5" t="n">
-        <v>-3845212.329746075</v>
+        <v>40801406.89881903</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="D6" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="F6" t="n">
-        <v>14781805.1545</v>
+        <v>267000</v>
       </c>
       <c r="G6" t="n">
-        <v>-3845212.329746075</v>
+        <v>40534406.89881903</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.63</v>
+        <v>2.51</v>
       </c>
       <c r="C7" t="n">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="D7" t="n">
-        <v>2.63</v>
+        <v>2.51</v>
       </c>
       <c r="E7" t="n">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="F7" t="n">
-        <v>19248722.7452</v>
+        <v>80000</v>
       </c>
       <c r="G7" t="n">
-        <v>-23093935.07494608</v>
+        <v>40534406.89881903</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.63</v>
+        <v>2.54</v>
       </c>
       <c r="C8" t="n">
-        <v>2.63</v>
+        <v>2.59</v>
       </c>
       <c r="D8" t="n">
-        <v>2.63</v>
+        <v>2.59</v>
       </c>
       <c r="E8" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="F8" t="n">
-        <v>18995664.0013</v>
+        <v>220000</v>
       </c>
       <c r="G8" t="n">
-        <v>-4098271.073646076</v>
+        <v>40754406.89881903</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,157 +683,151 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="C9" t="n">
-        <v>2.59</v>
+        <v>2.53</v>
       </c>
       <c r="D9" t="n">
-        <v>2.62</v>
+        <v>2.53</v>
       </c>
       <c r="E9" t="n">
-        <v>2.57</v>
+        <v>2.53</v>
       </c>
       <c r="F9" t="n">
-        <v>13002701.3691</v>
+        <v>190.7858</v>
       </c>
       <c r="G9" t="n">
-        <v>-17100972.44274608</v>
+        <v>40754216.11301903</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>2.63</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5242.2727</v>
+      </c>
+      <c r="G10" t="n">
+        <v>40748973.84031903</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>343378.3133</v>
+      </c>
+      <c r="G11" t="n">
+        <v>40405595.52701903</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2056661.7802</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-15044310.66254608</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F11" t="n">
-        <v>25.3726</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-15044336.03514608</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.61</v>
+        <v>2.5</v>
       </c>
       <c r="C12" t="n">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="D12" t="n">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="E12" t="n">
-        <v>2.61</v>
+        <v>2.5</v>
       </c>
       <c r="F12" t="n">
-        <v>36923.076</v>
+        <v>106099.3223</v>
       </c>
       <c r="G12" t="n">
-        <v>-15044336.03514608</v>
+        <v>40511694.84931903</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>2.61</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
@@ -832,38 +837,37 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="C13" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="D13" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="E13" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="F13" t="n">
-        <v>22658240.5613</v>
+        <v>200000</v>
       </c>
       <c r="G13" t="n">
-        <v>7613904.526153922</v>
+        <v>40511694.84931903</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>2.61</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
@@ -873,28 +877,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.64</v>
+        <v>2.57</v>
       </c>
       <c r="C14" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="D14" t="n">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="E14" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="F14" t="n">
-        <v>21349283.8562</v>
+        <v>2973449.997</v>
       </c>
       <c r="G14" t="n">
-        <v>-13735379.33004608</v>
+        <v>43485144.84631903</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -912,6 +917,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,16 +930,16 @@
         <v>2.62</v>
       </c>
       <c r="D15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E15" t="n">
         <v>2.62</v>
       </c>
-      <c r="E15" t="n">
-        <v>2.6</v>
-      </c>
       <c r="F15" t="n">
-        <v>31432712.3019</v>
+        <v>101633.7253</v>
       </c>
       <c r="G15" t="n">
-        <v>17697332.97185392</v>
+        <v>43485144.84631903</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -951,6 +957,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,19 +967,19 @@
         <v>2.62</v>
       </c>
       <c r="C16" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="D16" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="E16" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="F16" t="n">
-        <v>26059116.2956</v>
+        <v>20000</v>
       </c>
       <c r="G16" t="n">
-        <v>43756449.26745392</v>
+        <v>43485144.84631903</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -990,6 +997,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -999,19 +1007,19 @@
         <v>2.63</v>
       </c>
       <c r="C17" t="n">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="D17" t="n">
         <v>2.63</v>
       </c>
       <c r="E17" t="n">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="F17" t="n">
-        <v>193569.2144</v>
+        <v>328558.0982</v>
       </c>
       <c r="G17" t="n">
-        <v>43756449.26745392</v>
+        <v>43156586.74811903</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1029,28 +1037,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="C18" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="D18" t="n">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="E18" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="F18" t="n">
-        <v>291095.3099</v>
+        <v>40000</v>
       </c>
       <c r="G18" t="n">
-        <v>43465353.95755392</v>
+        <v>43156586.74811903</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1068,28 +1077,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="C19" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="D19" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="E19" t="n">
-        <v>2.53</v>
+        <v>2.64</v>
       </c>
       <c r="F19" t="n">
-        <v>15891132.5597</v>
+        <v>13992.5046</v>
       </c>
       <c r="G19" t="n">
-        <v>59356486.51725392</v>
+        <v>43170579.25271904</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1107,28 +1117,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="C20" t="n">
-        <v>2.73</v>
+        <v>2.64</v>
       </c>
       <c r="D20" t="n">
-        <v>2.73</v>
+        <v>2.65</v>
       </c>
       <c r="E20" t="n">
-        <v>2.53</v>
+        <v>2.64</v>
       </c>
       <c r="F20" t="n">
-        <v>8372199.1682</v>
+        <v>140000</v>
       </c>
       <c r="G20" t="n">
-        <v>67728685.68545392</v>
+        <v>43170579.25271904</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1146,28 +1157,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="C21" t="n">
-        <v>2.72</v>
+        <v>2.61</v>
       </c>
       <c r="D21" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="E21" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="F21" t="n">
-        <v>11544706.0694</v>
+        <v>1110429.4484</v>
       </c>
       <c r="G21" t="n">
-        <v>56183979.61605392</v>
+        <v>42060149.80431904</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1185,28 +1197,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="C22" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="D22" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="E22" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="F22" t="n">
-        <v>22863812.1389</v>
+        <v>80000</v>
       </c>
       <c r="G22" t="n">
-        <v>33320167.47715392</v>
+        <v>42140149.80431904</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1224,28 +1237,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="C23" t="n">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="D23" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="E23" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="F23" t="n">
-        <v>7612562.0335</v>
+        <v>120000</v>
       </c>
       <c r="G23" t="n">
-        <v>40932729.51065392</v>
+        <v>42020149.80431904</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1263,184 +1277,175 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.68</v>
+        <v>2.61</v>
       </c>
       <c r="C24" t="n">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="D24" t="n">
-        <v>2.69</v>
+        <v>2.61</v>
       </c>
       <c r="E24" t="n">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="F24" t="n">
-        <v>7699012.3264</v>
+        <v>371253.0617</v>
       </c>
       <c r="G24" t="n">
-        <v>33233717.18425392</v>
+        <v>41648896.74261904</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="C25" t="n">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="D25" t="n">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="E25" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="F25" t="n">
-        <v>19548171.6295</v>
+        <v>10231.2267</v>
       </c>
       <c r="G25" t="n">
-        <v>52781888.81375392</v>
+        <v>41659127.96931904</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="C26" t="n">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="D26" t="n">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="E26" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="F26" t="n">
-        <v>23810392.2544</v>
+        <v>10973.9025</v>
       </c>
       <c r="G26" t="n">
-        <v>52781888.81375392</v>
+        <v>41648154.06681903</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="C27" t="n">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="D27" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="E27" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="F27" t="n">
-        <v>15748348.2744</v>
+        <v>451.2048</v>
       </c>
       <c r="G27" t="n">
-        <v>37033540.53935392</v>
+        <v>41648154.06681903</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.71</v>
+        <v>2.58</v>
       </c>
       <c r="C28" t="n">
-        <v>2.71</v>
+        <v>2.45</v>
       </c>
       <c r="D28" t="n">
-        <v>2.71</v>
+        <v>2.58</v>
       </c>
       <c r="E28" t="n">
-        <v>2.56</v>
+        <v>2.45</v>
       </c>
       <c r="F28" t="n">
-        <v>11460078.52590369</v>
+        <v>342301.349</v>
       </c>
       <c r="G28" t="n">
-        <v>48493619.06525761</v>
+        <v>41305852.71781904</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1450,36 +1455,33 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.58</v>
+        <v>2.67</v>
       </c>
       <c r="C29" t="n">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="D29" t="n">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="E29" t="n">
-        <v>2.58</v>
+        <v>2.67</v>
       </c>
       <c r="F29" t="n">
-        <v>4640120.3023</v>
+        <v>32213.10861423221</v>
       </c>
       <c r="G29" t="n">
-        <v>43853498.76295761</v>
+        <v>41338065.82643326</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1489,36 +1491,33 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.61</v>
+        <v>2.51</v>
       </c>
       <c r="C30" t="n">
-        <v>2.61</v>
+        <v>2.51</v>
       </c>
       <c r="D30" t="n">
-        <v>2.62</v>
+        <v>2.51</v>
       </c>
       <c r="E30" t="n">
-        <v>2.6</v>
+        <v>2.51</v>
       </c>
       <c r="F30" t="n">
-        <v>3149604.7254</v>
+        <v>8572.8927</v>
       </c>
       <c r="G30" t="n">
-        <v>40703894.03755761</v>
+        <v>41329492.93373326</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1528,36 +1527,33 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="C31" t="n">
-        <v>2.55</v>
+        <v>2.68</v>
       </c>
       <c r="D31" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="E31" t="n">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="F31" t="n">
-        <v>40010</v>
+        <v>8581</v>
       </c>
       <c r="G31" t="n">
-        <v>40663884.03755761</v>
+        <v>41338073.93373326</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1567,36 +1563,33 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="C32" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="D32" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="E32" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="F32" t="n">
-        <v>22351.31086142322</v>
+        <v>103574</v>
       </c>
       <c r="G32" t="n">
-        <v>40686235.34841903</v>
+        <v>41441647.93373326</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1606,36 +1599,33 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2.63</v>
+        <v>2.71</v>
       </c>
       <c r="C33" t="n">
-        <v>2.63</v>
+        <v>2.51</v>
       </c>
       <c r="D33" t="n">
-        <v>2.63</v>
+        <v>2.71</v>
       </c>
       <c r="E33" t="n">
-        <v>2.63</v>
+        <v>2.51</v>
       </c>
       <c r="F33" t="n">
-        <v>22351.3108</v>
+        <v>2195</v>
       </c>
       <c r="G33" t="n">
-        <v>40663884.03761903</v>
+        <v>41439452.93373326</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1645,75 +1635,69 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="C34" t="n">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="D34" t="n">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="E34" t="n">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="F34" t="n">
-        <v>4271.56</v>
+        <v>90.25</v>
       </c>
       <c r="G34" t="n">
-        <v>40663884.03761903</v>
+        <v>41439362.68373326</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="C35" t="n">
-        <v>2.55</v>
+        <v>2.71</v>
       </c>
       <c r="D35" t="n">
-        <v>2.63</v>
+        <v>2.71</v>
       </c>
       <c r="E35" t="n">
         <v>2.55</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>324842.5246</v>
       </c>
       <c r="G35" t="n">
-        <v>40663874.03761903</v>
+        <v>41764205.20833326</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1723,14 +1707,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1740,19 +1721,19 @@
         <v>2.55</v>
       </c>
       <c r="C36" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="D36" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="E36" t="n">
         <v>2.55</v>
       </c>
       <c r="F36" t="n">
-        <v>191028.6276</v>
+        <v>857.375</v>
       </c>
       <c r="G36" t="n">
-        <v>40854902.66521903</v>
+        <v>41763347.83333326</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1762,36 +1743,33 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="C37" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="D37" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="E37" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="F37" t="n">
-        <v>1039.7884</v>
+        <v>14972.877</v>
       </c>
       <c r="G37" t="n">
-        <v>40853862.87681903</v>
+        <v>41778320.71033326</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1801,36 +1779,33 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="C38" t="n">
-        <v>2.51</v>
+        <v>2.63</v>
       </c>
       <c r="D38" t="n">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="E38" t="n">
-        <v>2.51</v>
+        <v>2.63</v>
       </c>
       <c r="F38" t="n">
-        <v>465436.4895</v>
+        <v>45000</v>
       </c>
       <c r="G38" t="n">
-        <v>40388426.38731903</v>
+        <v>41823320.71033326</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1840,36 +1815,33 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.55</v>
+        <v>2.64</v>
       </c>
       <c r="C39" t="n">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="D39" t="n">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="E39" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="F39" t="n">
-        <v>60000</v>
+        <v>200000</v>
       </c>
       <c r="G39" t="n">
-        <v>40448426.38731903</v>
+        <v>42023320.71033326</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1879,36 +1851,33 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="C40" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="D40" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="E40" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="F40" t="n">
-        <v>81056.893</v>
+        <v>428.6875</v>
       </c>
       <c r="G40" t="n">
-        <v>40448426.38731903</v>
+        <v>42022892.02283326</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1918,36 +1887,33 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="C41" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="D41" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="E41" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="F41" t="n">
-        <v>100000</v>
+        <v>214.3437</v>
       </c>
       <c r="G41" t="n">
-        <v>40448426.38731903</v>
+        <v>42022677.67913326</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1957,36 +1923,33 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="C42" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="D42" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="E42" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="F42" t="n">
-        <v>954.1176</v>
+        <v>642.8383</v>
       </c>
       <c r="G42" t="n">
-        <v>40447472.26971903</v>
+        <v>42023320.51743326</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1996,36 +1959,33 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="C43" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="D43" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="E43" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="F43" t="n">
-        <v>3051.9803</v>
+        <v>80000</v>
       </c>
       <c r="G43" t="n">
-        <v>40450524.25001903</v>
+        <v>42103320.51743326</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2035,36 +1995,33 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.57</v>
+        <v>2.61</v>
       </c>
       <c r="C44" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="D44" t="n">
-        <v>2.57</v>
+        <v>2.66</v>
       </c>
       <c r="E44" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="F44" t="n">
-        <v>10000</v>
+        <v>118832.8525</v>
       </c>
       <c r="G44" t="n">
-        <v>40440524.25001903</v>
+        <v>41984487.66493326</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2074,36 +2031,33 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2.51</v>
+        <v>2.63</v>
       </c>
       <c r="C45" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="D45" t="n">
-        <v>2.51</v>
+        <v>2.63</v>
       </c>
       <c r="E45" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="F45" t="n">
-        <v>443756.3512</v>
+        <v>1518</v>
       </c>
       <c r="G45" t="n">
-        <v>39996767.89881903</v>
+        <v>41986005.66493326</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2113,75 +2067,69 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2.51</v>
+        <v>2.63</v>
       </c>
       <c r="C46" t="n">
-        <v>2.51</v>
+        <v>2.66</v>
       </c>
       <c r="D46" t="n">
-        <v>2.51</v>
+        <v>2.66</v>
       </c>
       <c r="E46" t="n">
-        <v>2.51</v>
+        <v>2.63</v>
       </c>
       <c r="F46" t="n">
-        <v>804639</v>
+        <v>48597</v>
       </c>
       <c r="G46" t="n">
-        <v>40801406.89881903</v>
+        <v>42034602.66493326</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2.51</v>
+        <v>2.67</v>
       </c>
       <c r="C47" t="n">
-        <v>2.51</v>
+        <v>2.68</v>
       </c>
       <c r="D47" t="n">
-        <v>2.51</v>
+        <v>2.68</v>
       </c>
       <c r="E47" t="n">
-        <v>2.51</v>
+        <v>2.67</v>
       </c>
       <c r="F47" t="n">
-        <v>540854</v>
+        <v>726573.9911</v>
       </c>
       <c r="G47" t="n">
-        <v>40801406.89881903</v>
+        <v>42761176.65603326</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2191,36 +2139,33 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="C48" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="D48" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="E48" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="F48" t="n">
-        <v>267000</v>
+        <v>561626.8998</v>
       </c>
       <c r="G48" t="n">
-        <v>40534406.89881903</v>
+        <v>42199549.75623325</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2230,36 +2175,33 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2.51</v>
+        <v>2.63</v>
       </c>
       <c r="C49" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="D49" t="n">
-        <v>2.51</v>
+        <v>2.63</v>
       </c>
       <c r="E49" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="F49" t="n">
-        <v>80000</v>
+        <v>6074.3925</v>
       </c>
       <c r="G49" t="n">
-        <v>40534406.89881903</v>
+        <v>42193475.36373325</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2269,36 +2211,33 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="C50" t="n">
-        <v>2.59</v>
+        <v>2.64</v>
       </c>
       <c r="D50" t="n">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="E50" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="F50" t="n">
-        <v>220000</v>
+        <v>195680.6506</v>
       </c>
       <c r="G50" t="n">
-        <v>40754406.89881903</v>
+        <v>42389156.01433326</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2308,36 +2247,33 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.53</v>
+        <v>2.64</v>
       </c>
       <c r="C51" t="n">
-        <v>2.53</v>
+        <v>2.64</v>
       </c>
       <c r="D51" t="n">
-        <v>2.53</v>
+        <v>2.64</v>
       </c>
       <c r="E51" t="n">
-        <v>2.53</v>
+        <v>2.64</v>
       </c>
       <c r="F51" t="n">
-        <v>190.7858</v>
+        <v>40000</v>
       </c>
       <c r="G51" t="n">
-        <v>40754216.11301903</v>
+        <v>42389156.01433326</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2347,36 +2283,33 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="C52" t="n">
-        <v>2.51</v>
+        <v>2.64</v>
       </c>
       <c r="D52" t="n">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="E52" t="n">
-        <v>2.51</v>
+        <v>2.64</v>
       </c>
       <c r="F52" t="n">
-        <v>5242.2727</v>
+        <v>204135.4531</v>
       </c>
       <c r="G52" t="n">
-        <v>40748973.84031903</v>
+        <v>42389156.01433326</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2386,36 +2319,33 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2.51</v>
+        <v>2.63</v>
       </c>
       <c r="C53" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D53" t="n">
-        <v>2.51</v>
+        <v>2.7</v>
       </c>
       <c r="E53" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="F53" t="n">
-        <v>343378.3133</v>
+        <v>1055567.844997407</v>
       </c>
       <c r="G53" t="n">
-        <v>40405595.52701903</v>
+        <v>43444723.85933066</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2425,36 +2355,33 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="C54" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="D54" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="E54" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="F54" t="n">
-        <v>106099.3223</v>
+        <v>835.2289</v>
       </c>
       <c r="G54" t="n">
-        <v>40511694.84931903</v>
+        <v>43443888.63043066</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2464,36 +2391,33 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="C55" t="n">
         <v>2.57</v>
       </c>
       <c r="D55" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="E55" t="n">
         <v>2.57</v>
       </c>
       <c r="F55" t="n">
-        <v>200000</v>
+        <v>140341.6846</v>
       </c>
       <c r="G55" t="n">
-        <v>40511694.84931903</v>
+        <v>43303546.94583066</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2503,36 +2427,33 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.57</v>
+        <v>2.66</v>
       </c>
       <c r="C56" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="D56" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="E56" t="n">
-        <v>2.57</v>
+        <v>2.66</v>
       </c>
       <c r="F56" t="n">
-        <v>2973449.997</v>
+        <v>180000</v>
       </c>
       <c r="G56" t="n">
-        <v>43485144.84631903</v>
+        <v>43483546.94583066</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2542,114 +2463,105 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="C57" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="D57" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="E57" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="F57" t="n">
-        <v>101633.7253</v>
+        <v>100213.5529</v>
       </c>
       <c r="G57" t="n">
-        <v>43485144.84631903</v>
+        <v>43383333.39293066</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="C58" t="n">
-        <v>2.62</v>
+        <v>2.19</v>
       </c>
       <c r="D58" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="E58" t="n">
-        <v>2.62</v>
+        <v>2.19</v>
       </c>
       <c r="F58" t="n">
-        <v>20000</v>
+        <v>2647712.8296</v>
       </c>
       <c r="G58" t="n">
-        <v>43485144.84631903</v>
+        <v>40735620.56333066</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2.63</v>
+        <v>2.59</v>
       </c>
       <c r="C59" t="n">
-        <v>2.61</v>
+        <v>2.64</v>
       </c>
       <c r="D59" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="E59" t="n">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="F59" t="n">
-        <v>328558.0982</v>
+        <v>100000</v>
       </c>
       <c r="G59" t="n">
-        <v>43156586.74811903</v>
+        <v>40835620.56333066</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2659,36 +2571,33 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2.61</v>
+        <v>2.32</v>
       </c>
       <c r="C60" t="n">
-        <v>2.61</v>
+        <v>2.32</v>
       </c>
       <c r="D60" t="n">
-        <v>2.61</v>
+        <v>2.32</v>
       </c>
       <c r="E60" t="n">
-        <v>2.61</v>
+        <v>2.32</v>
       </c>
       <c r="F60" t="n">
-        <v>40000</v>
+        <v>128.1318</v>
       </c>
       <c r="G60" t="n">
-        <v>43156586.74811903</v>
+        <v>40835492.43153065</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2698,14 +2607,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2715,19 +2621,19 @@
         <v>2.64</v>
       </c>
       <c r="C61" t="n">
-        <v>2.64</v>
+        <v>2.26</v>
       </c>
       <c r="D61" t="n">
         <v>2.64</v>
       </c>
       <c r="E61" t="n">
-        <v>2.64</v>
+        <v>2.26</v>
       </c>
       <c r="F61" t="n">
-        <v>13992.5046</v>
+        <v>2009</v>
       </c>
       <c r="G61" t="n">
-        <v>43170579.25271904</v>
+        <v>40833483.43153065</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2737,36 +2643,33 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="C62" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="D62" t="n">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="E62" t="n">
-        <v>2.64</v>
+        <v>2.57</v>
       </c>
       <c r="F62" t="n">
-        <v>140000</v>
+        <v>20000</v>
       </c>
       <c r="G62" t="n">
-        <v>43170579.25271904</v>
+        <v>40853483.43153065</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2776,36 +2679,33 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="C63" t="n">
-        <v>2.61</v>
+        <v>2.54</v>
       </c>
       <c r="D63" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="E63" t="n">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="F63" t="n">
-        <v>1110429.4484</v>
+        <v>45238.9763</v>
       </c>
       <c r="G63" t="n">
-        <v>42060149.80431904</v>
+        <v>40808244.45523065</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2815,36 +2715,33 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2.62</v>
+        <v>2.53</v>
       </c>
       <c r="C64" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="D64" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="E64" t="n">
-        <v>2.62</v>
+        <v>2.53</v>
       </c>
       <c r="F64" t="n">
-        <v>80000</v>
+        <v>220000</v>
       </c>
       <c r="G64" t="n">
-        <v>42140149.80431904</v>
+        <v>41028244.45523065</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2854,36 +2751,33 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.62</v>
+        <v>2.53</v>
       </c>
       <c r="C65" t="n">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="D65" t="n">
-        <v>2.62</v>
+        <v>2.53</v>
       </c>
       <c r="E65" t="n">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="F65" t="n">
-        <v>120000</v>
+        <v>39525.69169960474</v>
       </c>
       <c r="G65" t="n">
-        <v>42020149.80431904</v>
+        <v>40988718.76353105</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2893,36 +2787,33 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="C66" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="D66" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="E66" t="n">
-        <v>2.58</v>
+        <v>2.53</v>
       </c>
       <c r="F66" t="n">
-        <v>371253.0617</v>
+        <v>80000</v>
       </c>
       <c r="G66" t="n">
-        <v>41648896.74261904</v>
+        <v>41068718.76353105</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2932,36 +2823,33 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2.69</v>
+        <v>2.56</v>
       </c>
       <c r="C67" t="n">
-        <v>2.69</v>
+        <v>2.56</v>
       </c>
       <c r="D67" t="n">
-        <v>2.69</v>
+        <v>2.56</v>
       </c>
       <c r="E67" t="n">
-        <v>2.69</v>
+        <v>2.56</v>
       </c>
       <c r="F67" t="n">
-        <v>10231.2267</v>
+        <v>60000</v>
       </c>
       <c r="G67" t="n">
-        <v>41659127.96931904</v>
+        <v>41068718.76353105</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2971,36 +2859,33 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.69</v>
+        <v>2.56</v>
       </c>
       <c r="C68" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="D68" t="n">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="E68" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="F68" t="n">
-        <v>10973.9025</v>
+        <v>360000</v>
       </c>
       <c r="G68" t="n">
-        <v>41648154.06681903</v>
+        <v>41428718.76353105</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3010,73 +2895,69 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="C69" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="D69" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="E69" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="F69" t="n">
-        <v>451.2048</v>
+        <v>108434.6303</v>
       </c>
       <c r="G69" t="n">
-        <v>41648154.06681903</v>
+        <v>41428718.76353105</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="C70" t="n">
-        <v>2.45</v>
+        <v>2.57</v>
       </c>
       <c r="D70" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="E70" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="F70" t="n">
-        <v>342301.349</v>
+        <v>383058.2567</v>
       </c>
       <c r="G70" t="n">
-        <v>41305852.71781904</v>
+        <v>41428718.76353105</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3090,28 +2971,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.67</v>
+        <v>2.56</v>
       </c>
       <c r="C71" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="D71" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="E71" t="n">
-        <v>2.67</v>
+        <v>2.56</v>
       </c>
       <c r="F71" t="n">
-        <v>32213.10861423221</v>
+        <v>267720.6225</v>
       </c>
       <c r="G71" t="n">
-        <v>41338065.82643326</v>
+        <v>41428718.76353105</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3125,28 +3007,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.51</v>
+        <v>2.44</v>
       </c>
       <c r="C72" t="n">
-        <v>2.51</v>
+        <v>2.44</v>
       </c>
       <c r="D72" t="n">
-        <v>2.51</v>
+        <v>2.44</v>
       </c>
       <c r="E72" t="n">
-        <v>2.51</v>
+        <v>2.44</v>
       </c>
       <c r="F72" t="n">
-        <v>8572.8927</v>
+        <v>11388.4944</v>
       </c>
       <c r="G72" t="n">
-        <v>41329492.93373326</v>
+        <v>41417330.26913105</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3160,28 +3043,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.67</v>
+        <v>2.42</v>
       </c>
       <c r="C73" t="n">
-        <v>2.68</v>
+        <v>2.42</v>
       </c>
       <c r="D73" t="n">
-        <v>2.68</v>
+        <v>2.42</v>
       </c>
       <c r="E73" t="n">
-        <v>2.67</v>
+        <v>2.42</v>
       </c>
       <c r="F73" t="n">
-        <v>8581</v>
+        <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>41338073.93373326</v>
+        <v>41417320.26913105</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3195,34 +3079,35 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="C74" t="n">
-        <v>2.71</v>
+        <v>2.46</v>
       </c>
       <c r="D74" t="n">
-        <v>2.71</v>
+        <v>2.46</v>
       </c>
       <c r="E74" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="F74" t="n">
-        <v>103574</v>
+        <v>19260.5066</v>
       </c>
       <c r="G74" t="n">
-        <v>41441647.93373326</v>
+        <v>41436580.77573105</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3230,203 +3115,245 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="C75" t="n">
-        <v>2.51</v>
+        <v>2.56</v>
       </c>
       <c r="D75" t="n">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="E75" t="n">
-        <v>2.51</v>
+        <v>2.56</v>
       </c>
       <c r="F75" t="n">
-        <v>2195</v>
+        <v>19289</v>
       </c>
       <c r="G75" t="n">
-        <v>41439452.93373326</v>
+        <v>41455869.77573105</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2.46</v>
+      </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.47</v>
+        <v>2.48</v>
       </c>
       <c r="C76" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="D76" t="n">
-        <v>2.47</v>
+        <v>2.56</v>
       </c>
       <c r="E76" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="F76" t="n">
-        <v>90.25</v>
+        <v>1189959.0294</v>
       </c>
       <c r="G76" t="n">
-        <v>41439362.68373326</v>
+        <v>40265910.74633105</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.55</v>
+        <v>2.39</v>
       </c>
       <c r="C77" t="n">
-        <v>2.71</v>
+        <v>2.37</v>
       </c>
       <c r="D77" t="n">
-        <v>2.71</v>
+        <v>2.39</v>
       </c>
       <c r="E77" t="n">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="F77" t="n">
-        <v>324842.5246</v>
+        <v>267051.3209</v>
       </c>
       <c r="G77" t="n">
-        <v>41764205.20833326</v>
+        <v>39998859.42543105</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="C78" t="n">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="D78" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="E78" t="n">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="F78" t="n">
-        <v>857.375</v>
+        <v>78790</v>
       </c>
       <c r="G78" t="n">
-        <v>41763347.83333326</v>
+        <v>40077649.42543105</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="C79" t="n">
-        <v>2.58</v>
+        <v>2.47</v>
       </c>
       <c r="D79" t="n">
-        <v>2.58</v>
+        <v>2.47</v>
       </c>
       <c r="E79" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="F79" t="n">
-        <v>14972.877</v>
+        <v>782328</v>
       </c>
       <c r="G79" t="n">
-        <v>41778320.71033326</v>
+        <v>39295321.42543105</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.63</v>
+        <v>2.53</v>
       </c>
       <c r="C80" t="n">
-        <v>2.63</v>
+        <v>2.56</v>
       </c>
       <c r="D80" t="n">
-        <v>2.63</v>
+        <v>2.56</v>
       </c>
       <c r="E80" t="n">
-        <v>2.63</v>
+        <v>2.53</v>
       </c>
       <c r="F80" t="n">
-        <v>45000</v>
+        <v>118818</v>
       </c>
       <c r="G80" t="n">
-        <v>41823320.71033326</v>
+        <v>39414139.42543105</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3435,173 +3362,216 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="C81" t="n">
-        <v>2.7</v>
+        <v>2.41</v>
       </c>
       <c r="D81" t="n">
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
       <c r="E81" t="n">
-        <v>2.63</v>
+        <v>2.41</v>
       </c>
       <c r="F81" t="n">
-        <v>200000</v>
+        <v>290357.1415</v>
       </c>
       <c r="G81" t="n">
-        <v>42023320.71033326</v>
+        <v>39123782.28393105</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.62</v>
+        <v>2.46</v>
       </c>
       <c r="C82" t="n">
-        <v>2.62</v>
+        <v>2.46</v>
       </c>
       <c r="D82" t="n">
-        <v>2.62</v>
+        <v>2.46</v>
       </c>
       <c r="E82" t="n">
-        <v>2.62</v>
+        <v>2.46</v>
       </c>
       <c r="F82" t="n">
-        <v>428.6875</v>
+        <v>82454.7133</v>
       </c>
       <c r="G82" t="n">
-        <v>42022892.02283326</v>
+        <v>39206236.99723104</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="C83" t="n">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="D83" t="n">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="E83" t="n">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="F83" t="n">
-        <v>214.3437</v>
+        <v>38759.68992248062</v>
       </c>
       <c r="G83" t="n">
-        <v>42022677.67913326</v>
+        <v>39244996.68715353</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="C84" t="n">
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
       <c r="D84" t="n">
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
       <c r="E84" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="F84" t="n">
-        <v>642.8383</v>
+        <v>20000</v>
       </c>
       <c r="G84" t="n">
-        <v>42023320.51743326</v>
+        <v>39264996.68715353</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K84" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
       <c r="C85" t="n">
-        <v>2.64</v>
+        <v>2.59</v>
       </c>
       <c r="D85" t="n">
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
       <c r="E85" t="n">
-        <v>2.64</v>
+        <v>2.59</v>
       </c>
       <c r="F85" t="n">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="G85" t="n">
-        <v>42103320.51743326</v>
+        <v>39264996.68715353</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3610,33 +3580,40 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="C86" t="n">
         <v>2.6</v>
       </c>
       <c r="D86" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="E86" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="F86" t="n">
-        <v>118832.8525</v>
+        <v>401087</v>
       </c>
       <c r="G86" t="n">
-        <v>41984487.66493326</v>
+        <v>39666083.68715353</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3645,33 +3622,40 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="C87" t="n">
-        <v>2.63</v>
+        <v>2.59</v>
       </c>
       <c r="D87" t="n">
-        <v>2.63</v>
+        <v>2.59</v>
       </c>
       <c r="E87" t="n">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="F87" t="n">
-        <v>1518</v>
+        <v>100000</v>
       </c>
       <c r="G87" t="n">
-        <v>41986005.66493326</v>
+        <v>39566083.68715353</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3680,33 +3664,40 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="C88" t="n">
-        <v>2.66</v>
+        <v>2.57</v>
       </c>
       <c r="D88" t="n">
-        <v>2.66</v>
+        <v>2.57</v>
       </c>
       <c r="E88" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="F88" t="n">
-        <v>48597</v>
+        <v>3185</v>
       </c>
       <c r="G88" t="n">
-        <v>42034602.66493326</v>
+        <v>39562898.68715353</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3715,138 +3706,166 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.67</v>
+        <v>2.48</v>
       </c>
       <c r="C89" t="n">
-        <v>2.68</v>
+        <v>2.48</v>
       </c>
       <c r="D89" t="n">
-        <v>2.68</v>
+        <v>2.48</v>
       </c>
       <c r="E89" t="n">
-        <v>2.67</v>
+        <v>2.48</v>
       </c>
       <c r="F89" t="n">
-        <v>726573.9911</v>
+        <v>10820.1173</v>
       </c>
       <c r="G89" t="n">
-        <v>42761176.65603326</v>
+        <v>39552078.56985353</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
       <c r="C90" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="D90" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="E90" t="n">
-        <v>2.63</v>
+        <v>2.59</v>
       </c>
       <c r="F90" t="n">
-        <v>561626.8998</v>
+        <v>40000</v>
       </c>
       <c r="G90" t="n">
-        <v>42199549.75623325</v>
+        <v>39592078.56985353</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="C91" t="n">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="D91" t="n">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="E91" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="F91" t="n">
-        <v>6074.3925</v>
+        <v>60047.3076</v>
       </c>
       <c r="G91" t="n">
-        <v>42193475.36373325</v>
+        <v>39652125.87745353</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="C92" t="n">
         <v>2.64</v>
       </c>
       <c r="D92" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="E92" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="F92" t="n">
-        <v>195680.6506</v>
+        <v>61653</v>
       </c>
       <c r="G92" t="n">
-        <v>42389156.01433326</v>
+        <v>39713778.87745353</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3855,11 +3874,18 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3869,89 +3895,103 @@
         <v>2.64</v>
       </c>
       <c r="C93" t="n">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="D93" t="n">
         <v>2.64</v>
       </c>
       <c r="E93" t="n">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="F93" t="n">
-        <v>40000</v>
+        <v>73662.265</v>
       </c>
       <c r="G93" t="n">
-        <v>42389156.01433326</v>
+        <v>39640116.61245353</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="C94" t="n">
         <v>2.65</v>
-      </c>
-      <c r="C94" t="n">
-        <v>2.64</v>
       </c>
       <c r="D94" t="n">
         <v>2.65</v>
       </c>
       <c r="E94" t="n">
-        <v>2.64</v>
+        <v>2.55</v>
       </c>
       <c r="F94" t="n">
-        <v>204135.4531</v>
+        <v>10008</v>
       </c>
       <c r="G94" t="n">
-        <v>42389156.01433326</v>
+        <v>39650124.61245353</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="C95" t="n">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="D95" t="n">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="E95" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="F95" t="n">
-        <v>1055567.844997407</v>
+        <v>878571.0514282528</v>
       </c>
       <c r="G95" t="n">
-        <v>43444723.85933066</v>
+        <v>40528695.66388178</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3960,68 +4000,82 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.57</v>
+        <v>2.51</v>
       </c>
       <c r="C96" t="n">
-        <v>2.59</v>
+        <v>2.73</v>
       </c>
       <c r="D96" t="n">
-        <v>2.59</v>
+        <v>2.73</v>
       </c>
       <c r="E96" t="n">
-        <v>2.57</v>
+        <v>2.51</v>
       </c>
       <c r="F96" t="n">
-        <v>835.2289</v>
+        <v>1112436.311350199</v>
       </c>
       <c r="G96" t="n">
-        <v>43443888.63043066</v>
+        <v>41641131.97523198</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2.65</v>
+        <v>2.73</v>
       </c>
       <c r="C97" t="n">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="D97" t="n">
-        <v>2.65</v>
+        <v>2.73</v>
       </c>
       <c r="E97" t="n">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="F97" t="n">
-        <v>140341.6846</v>
+        <v>36630.03663003663</v>
       </c>
       <c r="G97" t="n">
-        <v>43303546.94583066</v>
+        <v>41641131.97523198</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4030,33 +4084,40 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2.66</v>
+        <v>2.73</v>
       </c>
       <c r="C98" t="n">
-        <v>2.66</v>
+        <v>2.73</v>
       </c>
       <c r="D98" t="n">
-        <v>2.67</v>
+        <v>2.73</v>
       </c>
       <c r="E98" t="n">
-        <v>2.66</v>
+        <v>2.73</v>
       </c>
       <c r="F98" t="n">
-        <v>180000</v>
+        <v>800994.0844915113</v>
       </c>
       <c r="G98" t="n">
-        <v>43483546.94583066</v>
+        <v>41641131.97523198</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4065,33 +4126,40 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2.65</v>
+        <v>2.73</v>
       </c>
       <c r="C99" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="D99" t="n">
-        <v>2.65</v>
+        <v>2.73</v>
       </c>
       <c r="E99" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="F99" t="n">
-        <v>100213.5529</v>
+        <v>40000</v>
       </c>
       <c r="G99" t="n">
-        <v>43383333.39293066</v>
+        <v>41601131.97523198</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4100,33 +4168,40 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.56</v>
+        <v>2.75</v>
       </c>
       <c r="C100" t="n">
-        <v>2.19</v>
+        <v>2.75</v>
       </c>
       <c r="D100" t="n">
-        <v>2.56</v>
+        <v>2.75</v>
       </c>
       <c r="E100" t="n">
-        <v>2.19</v>
+        <v>2.75</v>
       </c>
       <c r="F100" t="n">
-        <v>2647712.8296</v>
+        <v>30.5454</v>
       </c>
       <c r="G100" t="n">
-        <v>40735620.56333066</v>
+        <v>41601162.52063198</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4135,33 +4210,40 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2.59</v>
+        <v>2.75</v>
       </c>
       <c r="C101" t="n">
-        <v>2.64</v>
+        <v>2.57</v>
       </c>
       <c r="D101" t="n">
-        <v>2.64</v>
+        <v>2.75</v>
       </c>
       <c r="E101" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="F101" t="n">
-        <v>100000</v>
+        <v>22</v>
       </c>
       <c r="G101" t="n">
-        <v>40835620.56333066</v>
+        <v>41601140.52063198</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4170,45 +4252,61 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.32</v>
+        <v>2.57</v>
       </c>
       <c r="C102" t="n">
-        <v>2.32</v>
+        <v>2.75</v>
       </c>
       <c r="D102" t="n">
-        <v>2.32</v>
+        <v>2.75</v>
       </c>
       <c r="E102" t="n">
-        <v>2.32</v>
+        <v>2.57</v>
       </c>
       <c r="F102" t="n">
-        <v>128.1318</v>
+        <v>140000</v>
       </c>
       <c r="G102" t="n">
-        <v>40835492.43153065</v>
+        <v>41741140.52063198</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M102" t="n">
-        <v>1</v>
+        <v>1.112886178861789</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1.237442922374429</v>
       </c>
     </row>
     <row r="103">
@@ -4216,22 +4314,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2.64</v>
+        <v>2.75</v>
       </c>
       <c r="C103" t="n">
-        <v>2.26</v>
+        <v>2.77</v>
       </c>
       <c r="D103" t="n">
-        <v>2.64</v>
+        <v>2.77</v>
       </c>
       <c r="E103" t="n">
-        <v>2.26</v>
+        <v>2.75</v>
       </c>
       <c r="F103" t="n">
-        <v>2009</v>
+        <v>311671.0254</v>
       </c>
       <c r="G103" t="n">
-        <v>40833483.43153065</v>
+        <v>42052811.54603197</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4245,34 +4343,35 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2.57</v>
+        <v>2.77</v>
       </c>
       <c r="C104" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="D104" t="n">
-        <v>2.58</v>
+        <v>2.88</v>
       </c>
       <c r="E104" t="n">
-        <v>2.57</v>
+        <v>2.51</v>
       </c>
       <c r="F104" t="n">
-        <v>20000</v>
+        <v>705290.6627</v>
       </c>
       <c r="G104" t="n">
-        <v>40853483.43153065</v>
+        <v>41347520.88333198</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4280,34 +4379,35 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.53</v>
+        <v>2.7</v>
       </c>
       <c r="C105" t="n">
-        <v>2.54</v>
+        <v>2.83</v>
       </c>
       <c r="D105" t="n">
-        <v>2.54</v>
+        <v>2.83</v>
       </c>
       <c r="E105" t="n">
         <v>2.53</v>
       </c>
       <c r="F105" t="n">
-        <v>45238.9763</v>
+        <v>215564.7583300353</v>
       </c>
       <c r="G105" t="n">
-        <v>40808244.45523065</v>
+        <v>41563085.64166201</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4315,34 +4415,35 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.53</v>
+        <v>2.8</v>
       </c>
       <c r="C106" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="D106" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="E106" t="n">
-        <v>2.53</v>
+        <v>2.58</v>
       </c>
       <c r="F106" t="n">
-        <v>220000</v>
+        <v>121</v>
       </c>
       <c r="G106" t="n">
-        <v>41028244.45523065</v>
+        <v>41562964.64166201</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4350,34 +4451,35 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.53</v>
+        <v>2.61</v>
       </c>
       <c r="C107" t="n">
-        <v>2.53</v>
+        <v>2.61</v>
       </c>
       <c r="D107" t="n">
-        <v>2.53</v>
+        <v>2.61</v>
       </c>
       <c r="E107" t="n">
-        <v>2.53</v>
+        <v>2.61</v>
       </c>
       <c r="F107" t="n">
-        <v>39525.69169960474</v>
+        <v>77.6584</v>
       </c>
       <c r="G107" t="n">
-        <v>40988718.76353105</v>
+        <v>41562886.98326201</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4385,34 +4487,35 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.53</v>
+        <v>2.77</v>
       </c>
       <c r="C108" t="n">
-        <v>2.56</v>
+        <v>2.77</v>
       </c>
       <c r="D108" t="n">
-        <v>2.56</v>
+        <v>2.77</v>
       </c>
       <c r="E108" t="n">
-        <v>2.53</v>
+        <v>2.77</v>
       </c>
       <c r="F108" t="n">
-        <v>80000</v>
+        <v>99</v>
       </c>
       <c r="G108" t="n">
-        <v>41068718.76353105</v>
+        <v>41562985.98326201</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4420,34 +4523,35 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2.56</v>
+        <v>2.71</v>
       </c>
       <c r="C109" t="n">
-        <v>2.56</v>
+        <v>2.73</v>
       </c>
       <c r="D109" t="n">
-        <v>2.56</v>
+        <v>2.73</v>
       </c>
       <c r="E109" t="n">
-        <v>2.56</v>
+        <v>2.71</v>
       </c>
       <c r="F109" t="n">
-        <v>60000</v>
+        <v>103671.5303</v>
       </c>
       <c r="G109" t="n">
-        <v>41068718.76353105</v>
+        <v>41459314.45296201</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4455,34 +4559,35 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2.56</v>
+        <v>2.73</v>
       </c>
       <c r="C110" t="n">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="D110" t="n">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="E110" t="n">
-        <v>2.56</v>
+        <v>2.73</v>
       </c>
       <c r="F110" t="n">
-        <v>360000</v>
+        <v>18508.0586</v>
       </c>
       <c r="G110" t="n">
-        <v>41428718.76353105</v>
+        <v>41459314.45296201</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4490,34 +4595,35 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="C111" t="n">
-        <v>2.57</v>
+        <v>2.53</v>
       </c>
       <c r="D111" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="E111" t="n">
-        <v>2.57</v>
+        <v>2.53</v>
       </c>
       <c r="F111" t="n">
-        <v>108434.6303</v>
+        <v>159607.7583</v>
       </c>
       <c r="G111" t="n">
-        <v>41428718.76353105</v>
+        <v>41299706.69466201</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4525,34 +4631,35 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.57</v>
+        <v>2.53</v>
       </c>
       <c r="C112" t="n">
-        <v>2.57</v>
+        <v>2.53</v>
       </c>
       <c r="D112" t="n">
-        <v>2.57</v>
+        <v>2.53</v>
       </c>
       <c r="E112" t="n">
-        <v>2.42</v>
+        <v>2.53</v>
       </c>
       <c r="F112" t="n">
-        <v>383058.2567</v>
+        <v>1385.5384</v>
       </c>
       <c r="G112" t="n">
-        <v>41428718.76353105</v>
+        <v>41299706.69466201</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4560,34 +4667,35 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="C113" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="D113" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="E113" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="F113" t="n">
-        <v>267720.6225</v>
+        <v>78.9666</v>
       </c>
       <c r="G113" t="n">
-        <v>41428718.76353105</v>
+        <v>41299785.66126201</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4595,28 +4703,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2.44</v>
+        <v>2.61</v>
       </c>
       <c r="C114" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="D114" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="E114" t="n">
-        <v>2.44</v>
+        <v>2.61</v>
       </c>
       <c r="F114" t="n">
-        <v>11388.4944</v>
+        <v>80000</v>
       </c>
       <c r="G114" t="n">
-        <v>41417330.26913105</v>
+        <v>41379785.66126201</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4630,28 +4739,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2.42</v>
+        <v>2.61</v>
       </c>
       <c r="C115" t="n">
-        <v>2.42</v>
+        <v>2.53</v>
       </c>
       <c r="D115" t="n">
-        <v>2.42</v>
+        <v>2.61</v>
       </c>
       <c r="E115" t="n">
-        <v>2.42</v>
+        <v>2.53</v>
       </c>
       <c r="F115" t="n">
-        <v>10</v>
+        <v>795022.2461</v>
       </c>
       <c r="G115" t="n">
-        <v>41417320.26913105</v>
+        <v>40584763.41516201</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4665,196 +4775,173 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="C116" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="D116" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="E116" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="F116" t="n">
-        <v>19260.5066</v>
+        <v>36166</v>
       </c>
       <c r="G116" t="n">
-        <v>41436580.77573105</v>
+        <v>40620929.41516201</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="K116" t="n">
-        <v>2.42</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2.56</v>
+        <v>2.65</v>
       </c>
       <c r="C117" t="n">
-        <v>2.56</v>
+        <v>2.65</v>
       </c>
       <c r="D117" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="E117" t="n">
-        <v>2.56</v>
+        <v>2.65</v>
       </c>
       <c r="F117" t="n">
-        <v>19289</v>
+        <v>596937.448</v>
       </c>
       <c r="G117" t="n">
-        <v>41455869.77573105</v>
+        <v>40023991.96716201</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="K117" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2.48</v>
+        <v>2.65</v>
       </c>
       <c r="C118" t="n">
-        <v>2.38</v>
+        <v>2.65</v>
       </c>
       <c r="D118" t="n">
-        <v>2.56</v>
+        <v>2.65</v>
       </c>
       <c r="E118" t="n">
-        <v>2.38</v>
+        <v>2.65</v>
       </c>
       <c r="F118" t="n">
-        <v>1189959.0294</v>
+        <v>569566.6178</v>
       </c>
       <c r="G118" t="n">
-        <v>40265910.74633105</v>
+        <v>40023991.96716201</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K118" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2.39</v>
+        <v>2.65</v>
       </c>
       <c r="C119" t="n">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="D119" t="n">
-        <v>2.39</v>
+        <v>2.65</v>
       </c>
       <c r="E119" t="n">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="F119" t="n">
-        <v>267051.3209</v>
+        <v>640688.0377</v>
       </c>
       <c r="G119" t="n">
-        <v>39998859.42543105</v>
+        <v>40023991.96716201</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K119" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="C120" t="n">
-        <v>2.49</v>
+        <v>2.61</v>
       </c>
       <c r="D120" t="n">
-        <v>2.5</v>
+        <v>2.61</v>
       </c>
       <c r="E120" t="n">
-        <v>2.49</v>
+        <v>2.54</v>
       </c>
       <c r="F120" t="n">
-        <v>78790</v>
+        <v>734917.231</v>
       </c>
       <c r="G120" t="n">
-        <v>40077649.42543105</v>
+        <v>39289074.73616201</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4863,39 +4950,34 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2.46</v>
+        <v>2.59</v>
       </c>
       <c r="C121" t="n">
-        <v>2.47</v>
+        <v>2.59</v>
       </c>
       <c r="D121" t="n">
-        <v>2.47</v>
+        <v>2.59</v>
       </c>
       <c r="E121" t="n">
-        <v>2.46</v>
+        <v>2.59</v>
       </c>
       <c r="F121" t="n">
-        <v>782328</v>
+        <v>17915.1938</v>
       </c>
       <c r="G121" t="n">
-        <v>39295321.42543105</v>
+        <v>39271159.54236201</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4904,39 +4986,34 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2.53</v>
+        <v>2.61</v>
       </c>
       <c r="C122" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="D122" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="E122" t="n">
-        <v>2.53</v>
+        <v>2.6</v>
       </c>
       <c r="F122" t="n">
-        <v>118818</v>
+        <v>120000</v>
       </c>
       <c r="G122" t="n">
-        <v>39414139.42543105</v>
+        <v>39391159.54236201</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4945,39 +5022,34 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="C123" t="n">
-        <v>2.41</v>
+        <v>2.61</v>
       </c>
       <c r="D123" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="E123" t="n">
-        <v>2.41</v>
+        <v>2.61</v>
       </c>
       <c r="F123" t="n">
-        <v>290357.1415</v>
+        <v>559210.0669</v>
       </c>
       <c r="G123" t="n">
-        <v>39123782.28393105</v>
+        <v>39391159.54236201</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4986,39 +5058,34 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="C124" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="D124" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="E124" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="F124" t="n">
-        <v>82454.7133</v>
+        <v>19638.4615</v>
       </c>
       <c r="G124" t="n">
-        <v>39206236.99723104</v>
+        <v>39371521.08086202</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5027,39 +5094,34 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="C125" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="D125" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="E125" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="F125" t="n">
-        <v>38759.68992248062</v>
+        <v>19589.3653</v>
       </c>
       <c r="G125" t="n">
-        <v>39244996.68715353</v>
+        <v>39351931.71556202</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5068,39 +5130,34 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="C126" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="D126" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="E126" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="F126" t="n">
-        <v>20000</v>
+        <v>305019.6543</v>
       </c>
       <c r="G126" t="n">
-        <v>39264996.68715353</v>
+        <v>39351931.71556202</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5109,39 +5166,34 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2.59</v>
+        <v>2.49</v>
       </c>
       <c r="C127" t="n">
-        <v>2.59</v>
+        <v>2.49</v>
       </c>
       <c r="D127" t="n">
-        <v>2.59</v>
+        <v>2.49</v>
       </c>
       <c r="E127" t="n">
-        <v>2.59</v>
+        <v>2.49</v>
       </c>
       <c r="F127" t="n">
-        <v>20000</v>
+        <v>6245.6729</v>
       </c>
       <c r="G127" t="n">
-        <v>39264996.68715353</v>
+        <v>39345686.04266202</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5150,39 +5202,34 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="C128" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="D128" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="E128" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="F128" t="n">
-        <v>401087</v>
+        <v>38461.7884</v>
       </c>
       <c r="G128" t="n">
-        <v>39666083.68715353</v>
+        <v>39384147.83106202</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5191,39 +5238,34 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="C129" t="n">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="D129" t="n">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="E129" t="n">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="F129" t="n">
-        <v>100000</v>
+        <v>17373.2075</v>
       </c>
       <c r="G129" t="n">
-        <v>39566083.68715353</v>
+        <v>39384147.83106202</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5232,123 +5274,106 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="C130" t="n">
-        <v>2.57</v>
+        <v>2.51</v>
       </c>
       <c r="D130" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="E130" t="n">
-        <v>2.55</v>
+        <v>2.51</v>
       </c>
       <c r="F130" t="n">
-        <v>3185</v>
+        <v>427120.7969</v>
       </c>
       <c r="G130" t="n">
-        <v>39562898.68715353</v>
+        <v>38957027.03416202</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2.48</v>
+        <v>2.65</v>
       </c>
       <c r="C131" t="n">
-        <v>2.48</v>
+        <v>2.65</v>
       </c>
       <c r="D131" t="n">
-        <v>2.48</v>
+        <v>2.65</v>
       </c>
       <c r="E131" t="n">
-        <v>2.48</v>
+        <v>2.65</v>
       </c>
       <c r="F131" t="n">
-        <v>10820.1173</v>
+        <v>10</v>
       </c>
       <c r="G131" t="n">
-        <v>39552078.56985353</v>
+        <v>38957037.03416202</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K131" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="C132" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="D132" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="E132" t="n">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="F132" t="n">
-        <v>40000</v>
+        <v>5000</v>
       </c>
       <c r="G132" t="n">
-        <v>39592078.56985353</v>
+        <v>38962037.03416202</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5357,142 +5382,120 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="C133" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="D133" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="E133" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="F133" t="n">
-        <v>60047.3076</v>
+        <v>44010.2661</v>
       </c>
       <c r="G133" t="n">
-        <v>39652125.87745353</v>
+        <v>38918026.76806203</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="C134" t="n">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="D134" t="n">
-        <v>2.64</v>
+        <v>2.55</v>
       </c>
       <c r="E134" t="n">
-        <v>2.61</v>
+        <v>2.53</v>
       </c>
       <c r="F134" t="n">
-        <v>61653</v>
+        <v>10000</v>
       </c>
       <c r="G134" t="n">
-        <v>39713778.87745353</v>
+        <v>38908026.76806203</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="K134" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2.64</v>
+        <v>2.55</v>
       </c>
       <c r="C135" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="D135" t="n">
-        <v>2.64</v>
+        <v>2.55</v>
       </c>
       <c r="E135" t="n">
-        <v>2.47</v>
+        <v>2.53</v>
       </c>
       <c r="F135" t="n">
-        <v>73662.265</v>
+        <v>675754.2426999999</v>
       </c>
       <c r="G135" t="n">
-        <v>39640116.61245353</v>
+        <v>39583781.01076203</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5502,60 +5505,55 @@
         <v>2.55</v>
       </c>
       <c r="C136" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="D136" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="E136" t="n">
         <v>2.55</v>
       </c>
       <c r="F136" t="n">
-        <v>10008</v>
+        <v>60000</v>
       </c>
       <c r="G136" t="n">
-        <v>39650124.61245353</v>
+        <v>39583781.01076203</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="C137" t="n">
-        <v>2.69</v>
+        <v>2.55</v>
       </c>
       <c r="D137" t="n">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="E137" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="F137" t="n">
-        <v>878571.0514282528</v>
+        <v>229740.0145</v>
       </c>
       <c r="G137" t="n">
-        <v>40528695.66388178</v>
+        <v>39583781.01076203</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5564,39 +5562,34 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="C138" t="n">
-        <v>2.73</v>
+        <v>2.52</v>
       </c>
       <c r="D138" t="n">
-        <v>2.73</v>
+        <v>2.52</v>
       </c>
       <c r="E138" t="n">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="F138" t="n">
-        <v>1112436.311350199</v>
+        <v>234887.6607</v>
       </c>
       <c r="G138" t="n">
-        <v>41641131.97523198</v>
+        <v>39348893.35006203</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5605,39 +5598,34 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2.73</v>
+        <v>2.54</v>
       </c>
       <c r="C139" t="n">
-        <v>2.73</v>
+        <v>2.54</v>
       </c>
       <c r="D139" t="n">
-        <v>2.73</v>
+        <v>2.54</v>
       </c>
       <c r="E139" t="n">
-        <v>2.73</v>
+        <v>2.54</v>
       </c>
       <c r="F139" t="n">
-        <v>36630.03663003663</v>
+        <v>1297086.0826</v>
       </c>
       <c r="G139" t="n">
-        <v>41641131.97523198</v>
+        <v>40645979.43266203</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5646,39 +5634,34 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2.73</v>
+        <v>2.59</v>
       </c>
       <c r="C140" t="n">
-        <v>2.73</v>
+        <v>2.52</v>
       </c>
       <c r="D140" t="n">
-        <v>2.73</v>
+        <v>2.59</v>
       </c>
       <c r="E140" t="n">
-        <v>2.73</v>
+        <v>2.52</v>
       </c>
       <c r="F140" t="n">
-        <v>800994.0844915113</v>
+        <v>51305.2505</v>
       </c>
       <c r="G140" t="n">
-        <v>41641131.97523198</v>
+        <v>40594674.18216202</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5687,39 +5670,34 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="C141" t="n">
-        <v>2.47</v>
+        <v>2.56</v>
       </c>
       <c r="D141" t="n">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="E141" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="F141" t="n">
-        <v>40000</v>
+        <v>1058526.554536576</v>
       </c>
       <c r="G141" t="n">
-        <v>41601131.97523198</v>
+        <v>41653200.7366986</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5728,39 +5706,34 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="C142" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="D142" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="E142" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="F142" t="n">
-        <v>30.5454</v>
+        <v>3085865.5799</v>
       </c>
       <c r="G142" t="n">
-        <v>41601162.52063198</v>
+        <v>41653200.7366986</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5769,39 +5742,34 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="C143" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="D143" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="E143" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="F143" t="n">
-        <v>22</v>
+        <v>5285765.7294</v>
       </c>
       <c r="G143" t="n">
-        <v>41601140.52063198</v>
+        <v>36367435.0072986</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5810,39 +5778,34 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="C144" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="D144" t="n">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="E144" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="F144" t="n">
-        <v>140000</v>
+        <v>10437315.9715</v>
       </c>
       <c r="G144" t="n">
-        <v>41741140.52063198</v>
+        <v>46804750.9787986</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5851,39 +5814,34 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="C145" t="n">
-        <v>2.77</v>
+        <v>2.57</v>
       </c>
       <c r="D145" t="n">
-        <v>2.77</v>
+        <v>2.57</v>
       </c>
       <c r="E145" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="F145" t="n">
-        <v>311671.0254</v>
+        <v>10465601.3806</v>
       </c>
       <c r="G145" t="n">
-        <v>42052811.54603197</v>
+        <v>46804750.9787986</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5892,39 +5850,34 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>2.77</v>
+        <v>2.59</v>
       </c>
       <c r="C146" t="n">
-        <v>2.76</v>
+        <v>2.61</v>
       </c>
       <c r="D146" t="n">
-        <v>2.88</v>
+        <v>2.61</v>
       </c>
       <c r="E146" t="n">
-        <v>2.51</v>
+        <v>2.59</v>
       </c>
       <c r="F146" t="n">
-        <v>705290.6627</v>
+        <v>6730903.3089</v>
       </c>
       <c r="G146" t="n">
-        <v>41347520.88333198</v>
+        <v>53535654.2876986</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5933,86 +5886,76 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="C147" t="n">
-        <v>2.83</v>
+        <v>2.57</v>
       </c>
       <c r="D147" t="n">
-        <v>2.83</v>
+        <v>2.57</v>
       </c>
       <c r="E147" t="n">
-        <v>2.53</v>
+        <v>2.57</v>
       </c>
       <c r="F147" t="n">
-        <v>215564.7583300353</v>
+        <v>6320374.6878</v>
       </c>
       <c r="G147" t="n">
-        <v>41563085.64166201</v>
+        <v>47215279.5998986</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>1.164421487603306</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2.8</v>
+        <v>2.56</v>
       </c>
       <c r="C148" t="n">
-        <v>2.8</v>
+        <v>2.57</v>
       </c>
       <c r="D148" t="n">
-        <v>2.8</v>
+        <v>2.57</v>
       </c>
       <c r="E148" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="F148" t="n">
-        <v>121</v>
+        <v>11175888.4853</v>
       </c>
       <c r="G148" t="n">
-        <v>41562964.64166201</v>
+        <v>47215279.5998986</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -6020,34 +5963,35 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="C149" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="D149" t="n">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="E149" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="F149" t="n">
-        <v>77.6584</v>
+        <v>7071969.4355</v>
       </c>
       <c r="G149" t="n">
-        <v>41562886.98326201</v>
+        <v>40143310.1643986</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -6055,28 +5999,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2.77</v>
+        <v>2.57</v>
       </c>
       <c r="C150" t="n">
-        <v>2.77</v>
+        <v>2.57</v>
       </c>
       <c r="D150" t="n">
-        <v>2.77</v>
+        <v>2.57</v>
       </c>
       <c r="E150" t="n">
-        <v>2.77</v>
+        <v>2.57</v>
       </c>
       <c r="F150" t="n">
-        <v>99</v>
+        <v>8967182.1472</v>
       </c>
       <c r="G150" t="n">
-        <v>41562985.98326201</v>
+        <v>49110492.3115986</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6090,28 +6035,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2.71</v>
+        <v>2.57</v>
       </c>
       <c r="C151" t="n">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="D151" t="n">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="E151" t="n">
-        <v>2.71</v>
+        <v>2.57</v>
       </c>
       <c r="F151" t="n">
-        <v>103671.5303</v>
+        <v>11437480.2593</v>
       </c>
       <c r="G151" t="n">
-        <v>41459314.45296201</v>
+        <v>49110492.3115986</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6125,34 +6071,35 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="C152" t="n">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="D152" t="n">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="E152" t="n">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="F152" t="n">
-        <v>18508.0586</v>
+        <v>9189508.9772</v>
       </c>
       <c r="G152" t="n">
-        <v>41459314.45296201</v>
+        <v>39920983.3343986</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -6160,34 +6107,35 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="C153" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="D153" t="n">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="E153" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="F153" t="n">
-        <v>159607.7583</v>
+        <v>2341449.6459</v>
       </c>
       <c r="G153" t="n">
-        <v>41299706.69466201</v>
+        <v>39920983.3343986</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -6195,28 +6143,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="C154" t="n">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="D154" t="n">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="E154" t="n">
         <v>2.53</v>
       </c>
       <c r="F154" t="n">
-        <v>1385.5384</v>
+        <v>3336544.4401</v>
       </c>
       <c r="G154" t="n">
-        <v>41299706.69466201</v>
+        <v>43257527.7744986</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6230,28 +6179,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="C155" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="D155" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="E155" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="F155" t="n">
-        <v>78.9666</v>
+        <v>4755742.7677</v>
       </c>
       <c r="G155" t="n">
-        <v>41299785.66126201</v>
+        <v>38501785.0067986</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6265,28 +6215,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D156" t="n">
         <v>2.61</v>
       </c>
-      <c r="C156" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="D156" t="n">
-        <v>2.62</v>
-      </c>
       <c r="E156" t="n">
-        <v>2.61</v>
+        <v>2.54</v>
       </c>
       <c r="F156" t="n">
-        <v>80000</v>
+        <v>6873792.4197</v>
       </c>
       <c r="G156" t="n">
-        <v>41379785.66126201</v>
+        <v>31627992.58709859</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6300,28 +6251,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="C157" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="D157" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="E157" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="F157" t="n">
-        <v>795022.2461</v>
+        <v>6139114.234</v>
       </c>
       <c r="G157" t="n">
-        <v>40584763.41516201</v>
+        <v>37767106.8210986</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6335,28 +6287,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="C158" t="n">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="D158" t="n">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="E158" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="F158" t="n">
-        <v>36166</v>
+        <v>9168806.6709</v>
       </c>
       <c r="G158" t="n">
-        <v>40620929.41516201</v>
+        <v>46935913.4919986</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6370,28 +6323,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="C159" t="n">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="D159" t="n">
-        <v>2.66</v>
+        <v>2.59</v>
       </c>
       <c r="E159" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="F159" t="n">
-        <v>596937.448</v>
+        <v>6264859.6888</v>
       </c>
       <c r="G159" t="n">
-        <v>40023991.96716201</v>
+        <v>53200773.1807986</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6405,34 +6359,35 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="C160" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="D160" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="E160" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="F160" t="n">
-        <v>569566.6178</v>
+        <v>12366329.247</v>
       </c>
       <c r="G160" t="n">
-        <v>40023991.96716201</v>
+        <v>40834443.9337986</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -6440,28 +6395,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="C161" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="D161" t="n">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="E161" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="F161" t="n">
-        <v>640688.0377</v>
+        <v>9139260.0451</v>
       </c>
       <c r="G161" t="n">
-        <v>40023991.96716201</v>
+        <v>40834443.9337986</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6475,28 +6431,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="C162" t="n">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="D162" t="n">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="E162" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="F162" t="n">
-        <v>734917.231</v>
+        <v>3043182.5867</v>
       </c>
       <c r="G162" t="n">
-        <v>39289074.73616201</v>
+        <v>43877626.5204986</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6510,6 +6467,7 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6519,19 +6477,19 @@
         <v>2.59</v>
       </c>
       <c r="C163" t="n">
-        <v>2.59</v>
+        <v>2.7</v>
       </c>
       <c r="D163" t="n">
-        <v>2.59</v>
+        <v>2.7</v>
       </c>
       <c r="E163" t="n">
         <v>2.59</v>
       </c>
       <c r="F163" t="n">
-        <v>17915.1938</v>
+        <v>17969.3803</v>
       </c>
       <c r="G163" t="n">
-        <v>39271159.54236201</v>
+        <v>43895595.9007986</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6545,28 +6503,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="C164" t="n">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="D164" t="n">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="E164" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="F164" t="n">
-        <v>120000</v>
+        <v>6238547.2119</v>
       </c>
       <c r="G164" t="n">
-        <v>39391159.54236201</v>
+        <v>37657048.68889859</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6580,28 +6539,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
       <c r="C165" t="n">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="D165" t="n">
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
       <c r="E165" t="n">
-        <v>2.61</v>
+        <v>2.52</v>
       </c>
       <c r="F165" t="n">
-        <v>559210.0669</v>
+        <v>9777591.714400001</v>
       </c>
       <c r="G165" t="n">
-        <v>39391159.54236201</v>
+        <v>27879456.97449859</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6615,28 +6575,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="C166" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="D166" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="E166" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="F166" t="n">
-        <v>19638.4615</v>
+        <v>4769887.1294</v>
       </c>
       <c r="G166" t="n">
-        <v>39371521.08086202</v>
+        <v>23109569.84509859</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6650,28 +6611,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="C167" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="D167" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="E167" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="F167" t="n">
-        <v>19589.3653</v>
+        <v>6210731.8327</v>
       </c>
       <c r="G167" t="n">
-        <v>39351931.71556202</v>
+        <v>29320301.67779859</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6685,28 +6647,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="C168" t="n">
         <v>2.55</v>
       </c>
       <c r="D168" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="E168" t="n">
         <v>2.55</v>
       </c>
       <c r="F168" t="n">
-        <v>305019.6543</v>
+        <v>10455882.0958</v>
       </c>
       <c r="G168" t="n">
-        <v>39351931.71556202</v>
+        <v>18864419.58199859</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6720,28 +6683,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="C169" t="n">
-        <v>2.49</v>
+        <v>2.57</v>
       </c>
       <c r="D169" t="n">
-        <v>2.49</v>
+        <v>2.57</v>
       </c>
       <c r="E169" t="n">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="F169" t="n">
-        <v>6245.6729</v>
+        <v>8488254.392899999</v>
       </c>
       <c r="G169" t="n">
-        <v>39345686.04266202</v>
+        <v>27352673.97489859</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6755,28 +6719,29 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="C170" t="n">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="D170" t="n">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="E170" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="F170" t="n">
-        <v>38461.7884</v>
+        <v>10304328.697</v>
       </c>
       <c r="G170" t="n">
-        <v>39384147.83106202</v>
+        <v>37657002.67189859</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6790,28 +6755,29 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="C171" t="n">
-        <v>2.65</v>
+        <v>2.71</v>
       </c>
       <c r="D171" t="n">
-        <v>2.65</v>
+        <v>2.71</v>
       </c>
       <c r="E171" t="n">
-        <v>2.65</v>
+        <v>2.54</v>
       </c>
       <c r="F171" t="n">
-        <v>17373.2075</v>
+        <v>4372745.2195</v>
       </c>
       <c r="G171" t="n">
-        <v>39384147.83106202</v>
+        <v>42029747.89139859</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6825,28 +6791,29 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>2.65</v>
+        <v>2.71</v>
       </c>
       <c r="C172" t="n">
-        <v>2.51</v>
+        <v>2.55</v>
       </c>
       <c r="D172" t="n">
-        <v>2.65</v>
+        <v>2.79</v>
       </c>
       <c r="E172" t="n">
-        <v>2.51</v>
+        <v>2.54</v>
       </c>
       <c r="F172" t="n">
-        <v>427120.7969</v>
+        <v>5037717.9937</v>
       </c>
       <c r="G172" t="n">
-        <v>38957027.03416202</v>
+        <v>36992029.89769859</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6860,28 +6827,29 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="C173" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="D173" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="E173" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="F173" t="n">
-        <v>10</v>
+        <v>2301799.8543</v>
       </c>
       <c r="G173" t="n">
-        <v>38957037.03416202</v>
+        <v>39293829.75199859</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6895,28 +6863,29 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
       <c r="C174" t="n">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="D174" t="n">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="E174" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="F174" t="n">
-        <v>5000</v>
+        <v>11157577.9322</v>
       </c>
       <c r="G174" t="n">
-        <v>38962037.03416202</v>
+        <v>50451407.68419859</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6930,28 +6899,29 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>2.63</v>
+        <v>2.59</v>
       </c>
       <c r="C175" t="n">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="D175" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="E175" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="F175" t="n">
-        <v>44010.2661</v>
+        <v>8804696.7916</v>
       </c>
       <c r="G175" t="n">
-        <v>38918026.76806203</v>
+        <v>41646710.89259858</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6965,28 +6935,29 @@
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="C176" t="n">
-        <v>2.53</v>
+        <v>2.59</v>
       </c>
       <c r="D176" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="E176" t="n">
-        <v>2.53</v>
+        <v>2.57</v>
       </c>
       <c r="F176" t="n">
-        <v>10000</v>
+        <v>7933160.2407</v>
       </c>
       <c r="G176" t="n">
-        <v>38908026.76806203</v>
+        <v>49579871.13329858</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7000,28 +6971,29 @@
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="C177" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="D177" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="E177" t="n">
-        <v>2.53</v>
+        <v>2.58</v>
       </c>
       <c r="F177" t="n">
-        <v>675754.2426999999</v>
+        <v>10049274.2341</v>
       </c>
       <c r="G177" t="n">
-        <v>39583781.01076203</v>
+        <v>59629145.36739858</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7035,28 +7007,29 @@
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="C178" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="D178" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="E178" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="F178" t="n">
-        <v>60000</v>
+        <v>7160276.4634</v>
       </c>
       <c r="G178" t="n">
-        <v>39583781.01076203</v>
+        <v>59629145.36739858</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7070,28 +7043,29 @@
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="C179" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="D179" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="E179" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="F179" t="n">
-        <v>229740.0145</v>
+        <v>10533976.2152</v>
       </c>
       <c r="G179" t="n">
-        <v>39583781.01076203</v>
+        <v>70163121.58259858</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7105,28 +7079,29 @@
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="C180" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="D180" t="n">
-        <v>2.52</v>
+        <v>2.59</v>
       </c>
       <c r="E180" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="F180" t="n">
-        <v>234887.6607</v>
+        <v>8430615.814099999</v>
       </c>
       <c r="G180" t="n">
-        <v>39348893.35006203</v>
+        <v>61732505.76849858</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7140,28 +7115,29 @@
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="C181" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="D181" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="E181" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="F181" t="n">
-        <v>1297086.0826</v>
+        <v>4226793.7596</v>
       </c>
       <c r="G181" t="n">
-        <v>40645979.43266203</v>
+        <v>65959299.52809858</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7175,28 +7151,29 @@
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="C182" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="D182" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="E182" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="F182" t="n">
-        <v>51305.2505</v>
+        <v>6363162.3447</v>
       </c>
       <c r="G182" t="n">
-        <v>40594674.18216202</v>
+        <v>72322461.87279858</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7210,6 +7187,7 @@
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7219,19 +7197,19 @@
         <v>2.57</v>
       </c>
       <c r="C183" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="D183" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="E183" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="F183" t="n">
-        <v>1058526.554536576</v>
+        <v>5798330.8242</v>
       </c>
       <c r="G183" t="n">
-        <v>41653200.7366986</v>
+        <v>78120792.69699858</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7245,28 +7223,29 @@
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="C184" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="D184" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="E184" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="F184" t="n">
-        <v>3085865.5799</v>
+        <v>2356370.7516</v>
       </c>
       <c r="G184" t="n">
-        <v>41653200.7366986</v>
+        <v>75764421.94539858</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7280,28 +7259,29 @@
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="C185" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D185" t="n">
         <v>2.55</v>
       </c>
-      <c r="D185" t="n">
-        <v>2.62</v>
-      </c>
       <c r="E185" t="n">
-        <v>2.55</v>
+        <v>2.51</v>
       </c>
       <c r="F185" t="n">
-        <v>5285765.7294</v>
+        <v>100000</v>
       </c>
       <c r="G185" t="n">
-        <v>36367435.0072986</v>
+        <v>75664421.94539858</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7315,28 +7295,29 @@
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="C186" t="n">
-        <v>2.57</v>
+        <v>2.53</v>
       </c>
       <c r="D186" t="n">
-        <v>2.59</v>
+        <v>2.54</v>
       </c>
       <c r="E186" t="n">
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
       <c r="F186" t="n">
-        <v>10437315.9715</v>
+        <v>60000</v>
       </c>
       <c r="G186" t="n">
-        <v>46804750.9787986</v>
+        <v>75724421.94539858</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7350,28 +7331,29 @@
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="C187" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="D187" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="E187" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="F187" t="n">
-        <v>10465601.3806</v>
+        <v>200000</v>
       </c>
       <c r="G187" t="n">
-        <v>46804750.9787986</v>
+        <v>75924421.94539858</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7385,1642 +7367,7 @@
       <c r="M187" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C188" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D188" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="E188" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="F188" t="n">
-        <v>6730903.3089</v>
-      </c>
-      <c r="G188" t="n">
-        <v>53535654.2876986</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K188" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C189" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D189" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E189" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F189" t="n">
-        <v>6320374.6878</v>
-      </c>
-      <c r="G189" t="n">
-        <v>47215279.5998986</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D190" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E190" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F190" t="n">
-        <v>11175888.4853</v>
-      </c>
-      <c r="G190" t="n">
-        <v>47215279.5998986</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C191" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D191" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E191" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F191" t="n">
-        <v>7071969.4355</v>
-      </c>
-      <c r="G191" t="n">
-        <v>40143310.1643986</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C192" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D192" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E192" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F192" t="n">
-        <v>8967182.1472</v>
-      </c>
-      <c r="G192" t="n">
-        <v>49110492.3115986</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C193" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D193" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E193" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F193" t="n">
-        <v>11437480.2593</v>
-      </c>
-      <c r="G193" t="n">
-        <v>49110492.3115986</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C194" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D194" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E194" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F194" t="n">
-        <v>9189508.9772</v>
-      </c>
-      <c r="G194" t="n">
-        <v>39920983.3343986</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C195" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D195" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E195" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F195" t="n">
-        <v>2341449.6459</v>
-      </c>
-      <c r="G195" t="n">
-        <v>39920983.3343986</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C196" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="D196" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="E196" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="F196" t="n">
-        <v>3336544.4401</v>
-      </c>
-      <c r="G196" t="n">
-        <v>43257527.7744986</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C197" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D197" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E197" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F197" t="n">
-        <v>4755742.7677</v>
-      </c>
-      <c r="G197" t="n">
-        <v>38501785.0067986</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C198" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="D198" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="E198" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="F198" t="n">
-        <v>6873792.4197</v>
-      </c>
-      <c r="G198" t="n">
-        <v>31627992.58709859</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D199" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E199" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F199" t="n">
-        <v>6139114.234</v>
-      </c>
-      <c r="G199" t="n">
-        <v>37767106.8210986</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C200" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D200" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E200" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F200" t="n">
-        <v>9168806.6709</v>
-      </c>
-      <c r="G200" t="n">
-        <v>46935913.4919986</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C201" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D201" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="E201" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F201" t="n">
-        <v>6264859.6888</v>
-      </c>
-      <c r="G201" t="n">
-        <v>53200773.1807986</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D202" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="E202" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F202" t="n">
-        <v>12366329.247</v>
-      </c>
-      <c r="G202" t="n">
-        <v>40834443.9337986</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D203" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E203" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F203" t="n">
-        <v>9139260.0451</v>
-      </c>
-      <c r="G203" t="n">
-        <v>40834443.9337986</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D204" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E204" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F204" t="n">
-        <v>3043182.5867</v>
-      </c>
-      <c r="G204" t="n">
-        <v>43877626.5204986</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C205" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D205" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E205" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="F205" t="n">
-        <v>17969.3803</v>
-      </c>
-      <c r="G205" t="n">
-        <v>43895595.9007986</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C206" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D206" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E206" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F206" t="n">
-        <v>6238547.2119</v>
-      </c>
-      <c r="G206" t="n">
-        <v>37657048.68889859</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C207" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D207" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="E207" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="F207" t="n">
-        <v>9777591.714400001</v>
-      </c>
-      <c r="G207" t="n">
-        <v>27879456.97449859</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C208" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="D208" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E208" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F208" t="n">
-        <v>4769887.1294</v>
-      </c>
-      <c r="G208" t="n">
-        <v>23109569.84509859</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C209" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D209" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E209" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F209" t="n">
-        <v>6210731.8327</v>
-      </c>
-      <c r="G209" t="n">
-        <v>29320301.67779859</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C210" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="D210" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E210" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F210" t="n">
-        <v>10455882.0958</v>
-      </c>
-      <c r="G210" t="n">
-        <v>18864419.58199859</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C211" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D211" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E211" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F211" t="n">
-        <v>8488254.392899999</v>
-      </c>
-      <c r="G211" t="n">
-        <v>27352673.97489859</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C212" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D212" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E212" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F212" t="n">
-        <v>10304328.697</v>
-      </c>
-      <c r="G212" t="n">
-        <v>37657002.67189859</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C213" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="D213" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="E213" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="F213" t="n">
-        <v>4372745.2195</v>
-      </c>
-      <c r="G213" t="n">
-        <v>42029747.89139859</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="C214" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="D214" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="E214" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="F214" t="n">
-        <v>5037717.9937</v>
-      </c>
-      <c r="G214" t="n">
-        <v>36992029.89769859</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="C215" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D215" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="E215" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F215" t="n">
-        <v>2301799.8543</v>
-      </c>
-      <c r="G215" t="n">
-        <v>39293829.75199859</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1.006673151750973</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C216" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D216" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="E216" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F216" t="n">
-        <v>11157577.9322</v>
-      </c>
-      <c r="G216" t="n">
-        <v>50451407.68419859</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C217" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D217" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E217" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F217" t="n">
-        <v>8804696.7916</v>
-      </c>
-      <c r="G217" t="n">
-        <v>41646710.89259858</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C218" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="D218" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="E218" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F218" t="n">
-        <v>7933160.2407</v>
-      </c>
-      <c r="G218" t="n">
-        <v>49579871.13329858</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C219" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D219" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E219" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F219" t="n">
-        <v>10049274.2341</v>
-      </c>
-      <c r="G219" t="n">
-        <v>59629145.36739858</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C220" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D220" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E220" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F220" t="n">
-        <v>7160276.4634</v>
-      </c>
-      <c r="G220" t="n">
-        <v>59629145.36739858</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C221" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D221" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E221" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="F221" t="n">
-        <v>10533976.2152</v>
-      </c>
-      <c r="G221" t="n">
-        <v>70163121.58259858</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C222" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="D222" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="E222" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F222" t="n">
-        <v>8430615.814099999</v>
-      </c>
-      <c r="G222" t="n">
-        <v>61732505.76849858</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C223" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D223" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E223" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F223" t="n">
-        <v>4226793.7596</v>
-      </c>
-      <c r="G223" t="n">
-        <v>65959299.52809858</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C224" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D224" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E224" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F224" t="n">
-        <v>6363162.3447</v>
-      </c>
-      <c r="G224" t="n">
-        <v>72322461.87279858</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C225" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="D225" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="E225" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="F225" t="n">
-        <v>5798330.8242</v>
-      </c>
-      <c r="G225" t="n">
-        <v>78120792.69699858</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C226" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D226" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E226" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F226" t="n">
-        <v>2356370.7516</v>
-      </c>
-      <c r="G226" t="n">
-        <v>75764421.94539858</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C227" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="D227" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E227" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="F227" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G227" t="n">
-        <v>75664421.94539858</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="C228" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="D228" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="E228" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="F228" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G228" t="n">
-        <v>75724421.94539858</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C229" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="D229" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E229" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F229" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G229" t="n">
-        <v>75924421.94539858</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
+      <c r="N187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest MXC.xlsx
+++ b/BackTest/2019-11-02 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -979,10 +979,14 @@
         <v>-3239873.639611541</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.65</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1015,8 +1019,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1058,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1342,10 +1358,14 @@
         <v>-4491737.693746073</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.67</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1375,11 +1395,19 @@
         <v>5015348.192653926</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1436,19 @@
         <v>5006469.519053926</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1477,19 @@
         <v>19283025.95355393</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1521,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1560,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1599,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1635,19 @@
         <v>-23093935.07494608</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1676,19 @@
         <v>-4098271.073646076</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1717,19 @@
         <v>-17100972.44274608</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1758,19 @@
         <v>-15044310.66254608</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1799,19 @@
         <v>-15044336.03514608</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1840,19 @@
         <v>-15044336.03514608</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1881,19 @@
         <v>7613904.526153922</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +1925,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1961,19 @@
         <v>17697332.97185392</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2005,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2044,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2083,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2122,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2161,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2200,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2239,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2278,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2317,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2356,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2395,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2434,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2473,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2512,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2551,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2590,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2629,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2668,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2707,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2746,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2785,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2824,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2863,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2902,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2941,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2980,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3019,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3058,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3097,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3136,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3175,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3214,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3250,17 @@
         <v>40534406.89881903</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3292,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3331,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3370,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3406,17 @@
         <v>40748973.84031903</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3448,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3484,17 @@
         <v>40511694.84931903</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3526,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3562,17 @@
         <v>43485144.84631903</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3604,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3640,17 @@
         <v>43485144.84631903</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3682,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3718,17 @@
         <v>43156586.74811903</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3760,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3799,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3838,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3874,17 @@
         <v>42140149.80431904</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3916,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,13 +3952,19 @@
         <v>41648896.74261904</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>0.9612921348314607</v>
       </c>
       <c r="M95" t="inlineStr"/>
     </row>
@@ -3553,7 +3991,7 @@
         <v>41659127.96931904</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +4024,7 @@
         <v>41648154.06681903</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +4057,7 @@
         <v>41648154.06681903</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +4090,7 @@
         <v>41305852.71781904</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +4123,7 @@
         <v>41338065.82643326</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +4156,7 @@
         <v>41329492.93373326</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +4189,7 @@
         <v>41338073.93373326</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +4222,7 @@
         <v>41441647.93373326</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +4255,7 @@
         <v>41439452.93373326</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +4288,7 @@
         <v>41439362.68373326</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +4321,7 @@
         <v>41764205.20833326</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +4354,7 @@
         <v>41763347.83333326</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +4387,7 @@
         <v>41778320.71033326</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +4420,7 @@
         <v>41823320.71033326</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4453,7 @@
         <v>42023320.71033326</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4486,7 @@
         <v>42022892.02283326</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4519,7 @@
         <v>42022677.67913326</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4552,7 @@
         <v>42023320.51743326</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4585,7 @@
         <v>42103320.51743326</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4618,7 @@
         <v>41984487.66493326</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4651,7 @@
         <v>41986005.66493326</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4684,7 @@
         <v>42034602.66493326</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4717,7 @@
         <v>42761176.65603326</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4750,7 @@
         <v>42199549.75623325</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4783,7 @@
         <v>42193475.36373325</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4816,7 @@
         <v>42389156.01433326</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4849,7 @@
         <v>42389156.01433326</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4882,7 @@
         <v>42389156.01433326</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4915,7 @@
         <v>43444723.85933066</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4948,7 @@
         <v>43443888.63043066</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4981,7 @@
         <v>43303546.94583066</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +5014,7 @@
         <v>43483546.94583066</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +5047,7 @@
         <v>43383333.39293066</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +5080,7 @@
         <v>40735620.56333066</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +5113,7 @@
         <v>40835620.56333066</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +5146,7 @@
         <v>40835492.43153065</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +5179,7 @@
         <v>40833483.43153065</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4972,7 +5410,7 @@
         <v>41428718.76353105</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5443,7 @@
         <v>41428718.76353105</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5476,7 @@
         <v>41428718.76353105</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5509,7 @@
         <v>41428718.76353105</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5542,7 @@
         <v>41417330.26913105</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5575,7 @@
         <v>41417320.26913105</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5608,7 @@
         <v>41436580.77573105</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5641,7 @@
         <v>41455869.77573105</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5674,7 @@
         <v>40265910.74633105</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5271,15 +5709,9 @@
       <c r="H148" t="n">
         <v>2</v>
       </c>
-      <c r="I148" t="n">
-        <v>2.38</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5308,15 +5740,11 @@
         <v>40077649.42543105</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5345,15 +5773,11 @@
         <v>39295321.42543105</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5386,11 +5810,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5423,11 +5843,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5460,11 +5876,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5497,11 +5909,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5534,11 +5942,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5571,11 +5975,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5608,11 +6008,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5641,15 +6037,11 @@
         <v>39566083.68715353</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5682,11 +6074,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5719,11 +6107,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5752,17 +6136,11 @@
         <v>39592078.56985353</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>2.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5791,17 +6169,11 @@
         <v>39652125.87745353</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>2.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5834,11 +6206,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5867,16 +6235,14 @@
         <v>39640116.61245353</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
       <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
@@ -5902,7 +6268,7 @@
         <v>39650124.61245353</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5935,7 +6301,7 @@
         <v>40528695.66388178</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6001,7 +6367,7 @@
         <v>41641131.97523198</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6166,7 +6532,7 @@
         <v>41741140.52063198</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6199,7 +6565,7 @@
         <v>42052811.54603197</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6232,7 +6598,7 @@
         <v>41347520.88333198</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6265,7 +6631,7 @@
         <v>41563085.64166201</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6298,7 +6664,7 @@
         <v>41562964.64166201</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6331,7 +6697,7 @@
         <v>41562886.98326201</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6364,7 +6730,7 @@
         <v>41562985.98326201</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6595,7 +6961,7 @@
         <v>40584763.41516201</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6628,7 +6994,7 @@
         <v>40620929.41516201</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6661,7 +7027,7 @@
         <v>40023991.96716201</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6694,7 +7060,7 @@
         <v>40023991.96716201</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6727,7 +7093,7 @@
         <v>40023991.96716201</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6760,7 +7126,7 @@
         <v>39289074.73616201</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6793,7 +7159,7 @@
         <v>39271159.54236201</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6826,7 +7192,7 @@
         <v>39391159.54236201</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6859,7 +7225,7 @@
         <v>39391159.54236201</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6892,7 +7258,7 @@
         <v>39371521.08086202</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6925,7 +7291,7 @@
         <v>39351931.71556202</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6991,7 +7357,7 @@
         <v>39345686.04266202</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7057,7 +7423,7 @@
         <v>39384147.83106202</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7090,7 +7456,7 @@
         <v>38957027.03416202</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7123,7 +7489,7 @@
         <v>38957037.03416202</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7156,7 +7522,7 @@
         <v>38962037.03416202</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7420,7 +7786,7 @@
         <v>40594674.18216202</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7453,7 +7819,7 @@
         <v>41653200.7366986</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7486,7 +7852,7 @@
         <v>41653200.7366986</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7519,7 +7885,7 @@
         <v>36367435.0072986</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7552,7 +7918,7 @@
         <v>46804750.9787986</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7585,7 +7951,7 @@
         <v>46804750.9787986</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7618,7 +7984,7 @@
         <v>53535654.2876986</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7651,7 +8017,7 @@
         <v>47215279.5998986</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7684,7 +8050,7 @@
         <v>47215279.5998986</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7717,7 +8083,7 @@
         <v>40143310.1643986</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7750,7 +8116,7 @@
         <v>49110492.3115986</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7816,7 +8182,7 @@
         <v>39920983.3343986</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7849,7 +8215,7 @@
         <v>39920983.3343986</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7882,7 +8248,7 @@
         <v>43257527.7744986</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7915,7 +8281,7 @@
         <v>38501785.0067986</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7948,7 +8314,7 @@
         <v>31627992.58709859</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7981,7 +8347,7 @@
         <v>37767106.8210986</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8014,7 +8380,7 @@
         <v>46935913.4919986</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8047,7 +8413,7 @@
         <v>53200773.1807986</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8080,7 +8446,7 @@
         <v>40834443.9337986</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8113,7 +8479,7 @@
         <v>40834443.9337986</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8146,7 +8512,7 @@
         <v>43877626.5204986</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8179,7 +8545,7 @@
         <v>43895595.9007986</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8212,7 +8578,7 @@
         <v>37657048.68889859</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8245,7 +8611,7 @@
         <v>27879456.97449859</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8278,7 +8644,7 @@
         <v>23109569.84509859</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8311,7 +8677,7 @@
         <v>29320301.67779859</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8344,7 +8710,7 @@
         <v>18864419.58199859</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8377,7 +8743,7 @@
         <v>27352673.97489859</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8410,7 +8776,7 @@
         <v>37657002.67189859</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8443,7 +8809,7 @@
         <v>42029747.89139859</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8476,7 +8842,7 @@
         <v>36992029.89769859</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8509,7 +8875,7 @@
         <v>39293829.75199859</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8542,7 +8908,7 @@
         <v>50451407.68419859</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8575,7 +8941,7 @@
         <v>41646710.89259858</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8608,7 +8974,7 @@
         <v>49579871.13329858</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8641,7 +9007,7 @@
         <v>59629145.36739858</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8674,7 +9040,7 @@
         <v>59629145.36739858</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8707,7 +9073,7 @@
         <v>70163121.58259858</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8740,7 +9106,7 @@
         <v>61732505.76849858</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8773,7 +9139,7 @@
         <v>65959299.52809858</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8806,7 +9172,7 @@
         <v>72322461.87279858</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8839,7 +9205,7 @@
         <v>78120792.69699858</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8872,7 +9238,7 @@
         <v>75764421.94539858</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8907,15 +9273,9 @@
       <c r="H256" t="n">
         <v>2</v>
       </c>
-      <c r="I256" t="n">
-        <v>2.57</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8946,15 +9306,9 @@
       <c r="H257" t="n">
         <v>2</v>
       </c>
-      <c r="I257" t="n">
-        <v>2.51</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8983,21 +9337,17 @@
         <v>75924421.94539858</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
       <c r="M258" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest MXC.xlsx
+++ b/BackTest/2019-11-02 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -979,14 +979,10 @@
         <v>-3239873.639611541</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1019,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1058,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1358,14 +1342,10 @@
         <v>-4491737.693746073</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1395,19 +1375,11 @@
         <v>5015348.192653926</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1436,19 +1408,11 @@
         <v>5006469.519053926</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1477,19 +1441,11 @@
         <v>19283025.95355393</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1521,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1560,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1599,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1635,19 +1573,11 @@
         <v>-23093935.07494608</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1676,19 +1606,11 @@
         <v>-4098271.073646076</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1717,19 +1639,11 @@
         <v>-17100972.44274608</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J38" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1758,19 +1672,11 @@
         <v>-15044310.66254608</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1799,19 +1705,11 @@
         <v>-15044336.03514608</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1840,19 +1738,11 @@
         <v>-15044336.03514608</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1881,19 +1771,11 @@
         <v>7613904.526153922</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1925,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1966,12 +1842,10 @@
       <c r="I44" t="n">
         <v>2.6</v>
       </c>
-      <c r="J44" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -2005,9 +1879,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2044,9 +1916,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2083,9 +1953,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2119,12 +1987,12 @@
         <v>59356486.51725392</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>2.67</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2161,9 +2029,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2200,9 +2066,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2239,9 +2103,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2278,9 +2140,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2317,9 +2177,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2356,9 +2214,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2395,9 +2251,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2434,9 +2288,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2473,9 +2325,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2512,9 +2362,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2551,9 +2399,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2590,9 +2436,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2629,9 +2473,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2668,9 +2510,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2707,9 +2547,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2746,9 +2584,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2785,9 +2621,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2824,9 +2658,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2863,9 +2695,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2902,9 +2732,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2941,9 +2769,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2980,9 +2806,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3019,9 +2843,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3058,9 +2880,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3097,9 +2917,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3136,9 +2954,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3175,9 +2991,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3214,9 +3028,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3253,9 +3065,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3292,9 +3102,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3331,9 +3139,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3370,9 +3176,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3409,9 +3213,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3448,9 +3250,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3487,9 +3287,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3526,9 +3324,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3565,9 +3361,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3604,9 +3398,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3643,9 +3435,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3682,9 +3472,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3721,9 +3509,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3760,9 +3546,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3799,9 +3583,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3838,9 +3620,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3877,9 +3657,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3916,9 +3694,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3952,19 +3728,17 @@
         <v>41648896.74261904</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>0.9612921348314607</v>
+        <v>1</v>
       </c>
       <c r="M95" t="inlineStr"/>
     </row>
@@ -3991,11 +3765,15 @@
         <v>41659127.96931904</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4024,11 +3802,15 @@
         <v>41648154.06681903</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4057,11 +3839,15 @@
         <v>41648154.06681903</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4090,11 +3876,15 @@
         <v>41305852.71781904</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4123,11 +3913,15 @@
         <v>41338065.82643326</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4156,11 +3950,15 @@
         <v>41329492.93373326</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4189,11 +3987,15 @@
         <v>41338073.93373326</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4222,11 +4024,15 @@
         <v>41441647.93373326</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4255,11 +4061,15 @@
         <v>41439452.93373326</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4288,11 +4098,15 @@
         <v>41439362.68373326</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4321,11 +4135,15 @@
         <v>41764205.20833326</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4354,11 +4172,15 @@
         <v>41763347.83333326</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4387,11 +4209,15 @@
         <v>41778320.71033326</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4420,11 +4246,15 @@
         <v>41823320.71033326</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4453,11 +4283,15 @@
         <v>42023320.71033326</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4486,11 +4320,15 @@
         <v>42022892.02283326</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4519,11 +4357,15 @@
         <v>42022677.67913326</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4552,11 +4394,15 @@
         <v>42023320.51743326</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4585,11 +4431,15 @@
         <v>42103320.51743326</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4618,11 +4468,15 @@
         <v>41984487.66493326</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4651,11 +4505,15 @@
         <v>41986005.66493326</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4684,11 +4542,15 @@
         <v>42034602.66493326</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4717,11 +4579,15 @@
         <v>42761176.65603326</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4750,11 +4616,15 @@
         <v>42199549.75623325</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4783,11 +4653,15 @@
         <v>42193475.36373325</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4816,11 +4690,15 @@
         <v>42389156.01433326</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4849,11 +4727,15 @@
         <v>42389156.01433326</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4882,11 +4764,15 @@
         <v>42389156.01433326</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4915,11 +4801,15 @@
         <v>43444723.85933066</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4948,11 +4838,15 @@
         <v>43443888.63043066</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4981,11 +4875,15 @@
         <v>43303546.94583066</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5014,11 +4912,15 @@
         <v>43483546.94583066</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5047,11 +4949,15 @@
         <v>43383333.39293066</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5080,11 +4986,15 @@
         <v>40735620.56333066</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5113,11 +5023,15 @@
         <v>40835620.56333066</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5146,11 +5060,15 @@
         <v>40835492.43153065</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5179,11 +5097,15 @@
         <v>40833483.43153065</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5216,7 +5138,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5249,7 +5175,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5282,7 +5212,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5315,7 +5249,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5348,7 +5286,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5381,7 +5323,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5410,11 +5356,15 @@
         <v>41428718.76353105</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5443,11 +5393,15 @@
         <v>41428718.76353105</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5476,11 +5430,15 @@
         <v>41428718.76353105</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5509,11 +5467,15 @@
         <v>41428718.76353105</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5542,11 +5504,15 @@
         <v>41417330.26913105</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5575,11 +5541,15 @@
         <v>41417320.26913105</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5608,11 +5578,15 @@
         <v>41436580.77573105</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5641,11 +5615,15 @@
         <v>41455869.77573105</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5674,11 +5652,15 @@
         <v>40265910.74633105</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5707,11 +5689,15 @@
         <v>39998859.42543105</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5740,11 +5726,15 @@
         <v>40077649.42543105</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5773,11 +5763,15 @@
         <v>39295321.42543105</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5810,7 +5804,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5843,7 +5841,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5876,7 +5878,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5909,7 +5915,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5942,7 +5952,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5975,7 +5989,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6008,7 +6026,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6037,11 +6059,15 @@
         <v>39566083.68715353</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6074,7 +6100,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6107,7 +6137,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6140,7 +6174,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6173,7 +6211,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6206,7 +6248,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6239,7 +6285,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6272,7 +6322,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6305,7 +6359,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6338,7 +6396,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6371,7 +6433,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6404,7 +6470,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6437,7 +6507,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6470,7 +6544,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6503,7 +6581,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6532,11 +6614,15 @@
         <v>41741140.52063198</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6565,11 +6651,15 @@
         <v>42052811.54603197</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6598,11 +6688,15 @@
         <v>41347520.88333198</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6635,7 +6729,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6668,7 +6766,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6697,11 +6799,15 @@
         <v>41562886.98326201</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6730,11 +6836,15 @@
         <v>41562985.98326201</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6767,7 +6877,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6800,7 +6914,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6833,7 +6951,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6866,7 +6988,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6899,7 +7025,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6932,7 +7062,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6961,11 +7095,15 @@
         <v>40584763.41516201</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6994,11 +7132,15 @@
         <v>40620929.41516201</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7027,11 +7169,15 @@
         <v>40023991.96716201</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7060,11 +7206,15 @@
         <v>40023991.96716201</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7093,11 +7243,15 @@
         <v>40023991.96716201</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7126,11 +7280,15 @@
         <v>39289074.73616201</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7159,11 +7317,15 @@
         <v>39271159.54236201</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7192,11 +7354,15 @@
         <v>39391159.54236201</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7225,11 +7391,15 @@
         <v>39391159.54236201</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7258,11 +7428,15 @@
         <v>39371521.08086202</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7291,11 +7465,15 @@
         <v>39351931.71556202</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7328,7 +7506,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7357,11 +7539,15 @@
         <v>39345686.04266202</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7394,7 +7580,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7427,10 +7617,12 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
@@ -7522,7 +7714,7 @@
         <v>38962037.03416202</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7786,7 +7978,7 @@
         <v>40594674.18216202</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7819,7 +8011,7 @@
         <v>41653200.7366986</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7852,7 +8044,7 @@
         <v>41653200.7366986</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7885,7 +8077,7 @@
         <v>36367435.0072986</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7918,7 +8110,7 @@
         <v>46804750.9787986</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7951,7 +8143,7 @@
         <v>46804750.9787986</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7984,7 +8176,7 @@
         <v>53535654.2876986</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8017,7 +8209,7 @@
         <v>47215279.5998986</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8050,7 +8242,7 @@
         <v>47215279.5998986</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8083,7 +8275,7 @@
         <v>40143310.1643986</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8116,7 +8308,7 @@
         <v>49110492.3115986</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8182,7 +8374,7 @@
         <v>39920983.3343986</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8215,7 +8407,7 @@
         <v>39920983.3343986</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8248,7 +8440,7 @@
         <v>43257527.7744986</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8281,7 +8473,7 @@
         <v>38501785.0067986</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8314,7 +8506,7 @@
         <v>31627992.58709859</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8347,7 +8539,7 @@
         <v>37767106.8210986</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8380,7 +8572,7 @@
         <v>46935913.4919986</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8413,7 +8605,7 @@
         <v>53200773.1807986</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8578,7 +8770,7 @@
         <v>37657048.68889859</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8611,7 +8803,7 @@
         <v>27879456.97449859</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8644,7 +8836,7 @@
         <v>23109569.84509859</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8677,7 +8869,7 @@
         <v>29320301.67779859</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8710,7 +8902,7 @@
         <v>18864419.58199859</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8743,7 +8935,7 @@
         <v>27352673.97489859</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8776,7 +8968,7 @@
         <v>37657002.67189859</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8809,7 +9001,7 @@
         <v>42029747.89139859</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8842,7 +9034,7 @@
         <v>36992029.89769859</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8875,7 +9067,7 @@
         <v>39293829.75199859</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8908,7 +9100,7 @@
         <v>50451407.68419859</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8941,7 +9133,7 @@
         <v>41646710.89259858</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8974,7 +9166,7 @@
         <v>49579871.13329858</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9007,7 +9199,7 @@
         <v>59629145.36739858</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9040,7 +9232,7 @@
         <v>59629145.36739858</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9073,7 +9265,7 @@
         <v>70163121.58259858</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9106,7 +9298,7 @@
         <v>61732505.76849858</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9139,7 +9331,7 @@
         <v>65959299.52809858</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9172,7 +9364,7 @@
         <v>72322461.87279858</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9205,7 +9397,7 @@
         <v>78120792.69699858</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9238,7 +9430,7 @@
         <v>75764421.94539858</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9271,7 +9463,7 @@
         <v>75664421.94539858</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9304,7 +9496,7 @@
         <v>75724421.94539858</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9337,7 +9529,7 @@
         <v>75924421.94539858</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9348,6 +9540,6 @@
       <c r="M258" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest MXC.xlsx
+++ b/BackTest/2019-11-02 BackTest MXC.xlsx
@@ -451,7 +451,7 @@
         <v>-3507369.277511541</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>-3284710.937511541</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.63</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -521,7 +527,11 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +564,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +601,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +638,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +675,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +712,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +749,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +786,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +823,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +860,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +897,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +934,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +971,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1008,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1041,17 @@
         <v>-3239873.639611541</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.65</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1080,17 @@
         <v>-3239873.639611541</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.69</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1123,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1160,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1193,17 @@
         <v>-3237501.440811541</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.62</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1232,17 @@
         <v>-2902251.401011541</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.63</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1271,17 @@
         <v>-4536498.137346073</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.68</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1310,17 @@
         <v>-4532243.263746073</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.57</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1353,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1390,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1427,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1464,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1501,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1538,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1575,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1612,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1649,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1686,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1719,17 @@
         <v>-23093935.07494608</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.64</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1758,17 @@
         <v>-4098271.073646076</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.59</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1797,17 @@
         <v>-17100972.44274608</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.63</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1836,17 @@
         <v>-15044310.66254608</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.59</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1875,17 @@
         <v>-15044336.03514608</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.68</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1914,17 @@
         <v>-15044336.03514608</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.61</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1953,17 @@
         <v>7613904.526153922</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.61</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1992,17 @@
         <v>-13735379.33004608</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.63</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1845,7 +2039,7 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -1987,11 +2181,9 @@
         <v>59356486.51725392</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -3839,18 +4031,16 @@
         <v>41648154.06681903</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -3880,11 +4070,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3917,11 +4103,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3954,11 +4136,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3991,11 +4169,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4028,11 +4202,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4065,11 +4235,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4102,11 +4268,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4139,11 +4301,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4176,11 +4334,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4367,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4250,11 +4400,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4287,11 +4433,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4324,11 +4466,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4361,11 +4499,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4398,11 +4532,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4435,11 +4565,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4472,11 +4598,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4509,11 +4631,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4546,11 +4664,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4583,11 +4697,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4620,11 +4730,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4657,11 +4763,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4694,11 +4796,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4731,11 +4829,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4768,11 +4862,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4805,11 +4895,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4842,11 +4928,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4879,11 +4961,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4916,11 +4994,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4953,11 +5027,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4990,11 +5060,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5027,11 +5093,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5064,11 +5126,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5101,11 +5159,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5138,11 +5192,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5175,11 +5225,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5212,11 +5258,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5249,11 +5291,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5286,11 +5324,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5323,11 +5357,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5360,11 +5390,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5397,11 +5423,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5456,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5471,11 +5489,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5508,11 +5522,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5545,11 +5555,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5582,11 +5588,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5619,11 +5621,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5656,11 +5654,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5693,11 +5687,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5730,11 +5720,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5767,11 +5753,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5804,11 +5786,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5841,11 +5819,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5878,11 +5852,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5915,11 +5885,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5952,11 +5918,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5989,11 +5951,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6026,11 +5984,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6063,11 +6017,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6100,11 +6050,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6137,11 +6083,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6174,11 +6116,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6211,11 +6149,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6248,11 +6182,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6285,11 +6215,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6322,11 +6248,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6359,11 +6281,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6396,11 +6314,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6433,11 +6347,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6470,11 +6380,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6507,11 +6413,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6544,11 +6446,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6581,11 +6479,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6618,11 +6512,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +6545,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6692,11 +6578,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6729,11 +6611,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6766,11 +6644,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6803,11 +6677,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6840,11 +6710,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6877,11 +6743,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6914,11 +6776,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6951,11 +6809,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6988,11 +6842,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7025,11 +6875,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7062,11 +6908,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7099,11 +6941,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7136,11 +6974,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7173,11 +7007,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7210,11 +7040,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7247,11 +7073,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7284,11 +7106,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7321,11 +7139,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7358,11 +7172,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7395,11 +7205,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7432,11 +7238,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7469,11 +7271,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7506,11 +7304,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7543,11 +7337,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7580,11 +7370,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7613,16 +7399,14 @@
         <v>39384147.83106202</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
       <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
@@ -7648,7 +7432,7 @@
         <v>38957027.03416202</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7681,7 +7465,7 @@
         <v>38957037.03416202</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -9034,7 +8818,7 @@
         <v>36992029.89769859</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9067,7 +8851,7 @@
         <v>39293829.75199859</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9100,7 +8884,7 @@
         <v>50451407.68419859</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9133,7 +8917,7 @@
         <v>41646710.89259858</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9166,7 +8950,7 @@
         <v>49579871.13329858</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9298,7 +9082,7 @@
         <v>61732505.76849858</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9331,7 +9115,7 @@
         <v>65959299.52809858</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9364,7 +9148,7 @@
         <v>72322461.87279858</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9397,7 +9181,7 @@
         <v>78120792.69699858</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9430,7 +9214,7 @@
         <v>75764421.94539858</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9463,7 +9247,7 @@
         <v>75664421.94539858</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9496,7 +9280,7 @@
         <v>75724421.94539858</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9529,7 +9313,7 @@
         <v>75924421.94539858</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest MXC.xlsx
+++ b/BackTest/2019-11-02 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M258"/>
+  <dimension ref="A1:L258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>513.3202</v>
       </c>
       <c r="G2" t="n">
-        <v>-3507369.277511541</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,15 @@
         <v>222658.34</v>
       </c>
       <c r="G3" t="n">
-        <v>-3284710.937511541</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,22 +503,15 @@
         <v>198716.0334</v>
       </c>
       <c r="G4" t="n">
-        <v>-3284710.937511541</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -557,22 +533,15 @@
         <v>38045.2685</v>
       </c>
       <c r="G5" t="n">
-        <v>-3322756.206011541</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,22 +563,15 @@
         <v>1138.2</v>
       </c>
       <c r="G6" t="n">
-        <v>-3321618.006011541</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -631,22 +593,15 @@
         <v>464627.6752</v>
       </c>
       <c r="G7" t="n">
-        <v>-2856990.330811541</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -668,22 +623,15 @@
         <v>175705.2238</v>
       </c>
       <c r="G8" t="n">
-        <v>-3032695.55461154</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -705,22 +653,15 @@
         <v>200000</v>
       </c>
       <c r="G9" t="n">
-        <v>-3232695.55461154</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,22 +683,15 @@
         <v>11636.19</v>
       </c>
       <c r="G10" t="n">
-        <v>-3232695.55461154</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -779,22 +713,15 @@
         <v>170000</v>
       </c>
       <c r="G11" t="n">
-        <v>-3232695.55461154</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,22 +743,15 @@
         <v>20000</v>
       </c>
       <c r="G12" t="n">
-        <v>-3232695.55461154</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -853,22 +773,15 @@
         <v>136799.3345</v>
       </c>
       <c r="G13" t="n">
-        <v>-3232695.55461154</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,22 +803,15 @@
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>-3232685.55461154</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -927,22 +833,15 @@
         <v>33351.98</v>
       </c>
       <c r="G15" t="n">
-        <v>-3266037.53461154</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -964,22 +863,15 @@
         <v>26519.9327</v>
       </c>
       <c r="G16" t="n">
-        <v>-3239517.601911541</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1001,22 +893,15 @@
         <v>456.0377</v>
       </c>
       <c r="G17" t="n">
-        <v>-3239973.639611541</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1038,24 +923,15 @@
         <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>-3239873.639611541</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.65</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1077,24 +953,15 @@
         <v>4410.4407</v>
       </c>
       <c r="G19" t="n">
-        <v>-3239873.639611541</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1116,22 +983,15 @@
         <v>4.0574</v>
       </c>
       <c r="G20" t="n">
-        <v>-3239873.639611541</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1153,22 +1013,15 @@
         <v>55699.1812</v>
       </c>
       <c r="G21" t="n">
-        <v>-3295572.820811541</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1190,24 +1043,15 @@
         <v>58071.38</v>
       </c>
       <c r="G22" t="n">
-        <v>-3237501.440811541</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1229,24 +1073,15 @@
         <v>335250.0398</v>
       </c>
       <c r="G23" t="n">
-        <v>-2902251.401011541</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1268,24 +1103,15 @@
         <v>1634246.736334532</v>
       </c>
       <c r="G24" t="n">
-        <v>-4536498.137346073</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1307,24 +1133,15 @@
         <v>4254.8736</v>
       </c>
       <c r="G25" t="n">
-        <v>-4532243.263746073</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.57</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1346,22 +1163,15 @@
         <v>20000</v>
       </c>
       <c r="G26" t="n">
-        <v>-4512243.263746073</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1383,22 +1193,15 @@
         <v>55</v>
       </c>
       <c r="G27" t="n">
-        <v>-4512298.263746073</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1420,22 +1223,15 @@
         <v>40000</v>
       </c>
       <c r="G28" t="n">
-        <v>-4472298.263746073</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1457,22 +1253,15 @@
         <v>19439.43</v>
       </c>
       <c r="G29" t="n">
-        <v>-4491737.693746073</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1494,22 +1283,15 @@
         <v>9507085.886399999</v>
       </c>
       <c r="G30" t="n">
-        <v>5015348.192653926</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1531,22 +1313,15 @@
         <v>8878.6736</v>
       </c>
       <c r="G31" t="n">
-        <v>5006469.519053926</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1568,22 +1343,15 @@
         <v>14276556.4345</v>
       </c>
       <c r="G32" t="n">
-        <v>19283025.95355393</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1605,22 +1373,15 @@
         <v>23231259.3893</v>
       </c>
       <c r="G33" t="n">
-        <v>19283025.95355393</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1642,22 +1403,15 @@
         <v>23128238.2833</v>
       </c>
       <c r="G34" t="n">
-        <v>-3845212.329746075</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1679,22 +1433,15 @@
         <v>14781805.1545</v>
       </c>
       <c r="G35" t="n">
-        <v>-3845212.329746075</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1716,24 +1463,15 @@
         <v>19248722.7452</v>
       </c>
       <c r="G36" t="n">
-        <v>-23093935.07494608</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1755,24 +1493,15 @@
         <v>18995664.0013</v>
       </c>
       <c r="G37" t="n">
-        <v>-4098271.073646076</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1794,24 +1523,15 @@
         <v>13002701.3691</v>
       </c>
       <c r="G38" t="n">
-        <v>-17100972.44274608</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2.63</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1833,24 +1553,15 @@
         <v>2056661.7802</v>
       </c>
       <c r="G39" t="n">
-        <v>-15044310.66254608</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1872,24 +1583,15 @@
         <v>25.3726</v>
       </c>
       <c r="G40" t="n">
-        <v>-15044336.03514608</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2.68</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1911,24 +1613,15 @@
         <v>36923.076</v>
       </c>
       <c r="G41" t="n">
-        <v>-15044336.03514608</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.61</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1950,24 +1643,15 @@
         <v>22658240.5613</v>
       </c>
       <c r="G42" t="n">
-        <v>7613904.526153922</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2.61</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1989,24 +1673,15 @@
         <v>21349283.8562</v>
       </c>
       <c r="G43" t="n">
-        <v>-13735379.33004608</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.63</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2028,24 +1703,15 @@
         <v>31432712.3019</v>
       </c>
       <c r="G44" t="n">
-        <v>17697332.97185392</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2067,22 +1733,15 @@
         <v>26059116.2956</v>
       </c>
       <c r="G45" t="n">
-        <v>43756449.26745392</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2104,22 +1763,15 @@
         <v>193569.2144</v>
       </c>
       <c r="G46" t="n">
-        <v>43756449.26745392</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2141,22 +1793,15 @@
         <v>291095.3099</v>
       </c>
       <c r="G47" t="n">
-        <v>43465353.95755392</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2178,22 +1823,15 @@
         <v>15891132.5597</v>
       </c>
       <c r="G48" t="n">
-        <v>59356486.51725392</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2215,22 +1853,15 @@
         <v>8372199.1682</v>
       </c>
       <c r="G49" t="n">
-        <v>67728685.68545392</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2252,22 +1883,15 @@
         <v>11544706.0694</v>
       </c>
       <c r="G50" t="n">
-        <v>56183979.61605392</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2289,22 +1913,15 @@
         <v>22863812.1389</v>
       </c>
       <c r="G51" t="n">
-        <v>33320167.47715392</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2326,22 +1943,15 @@
         <v>7612562.0335</v>
       </c>
       <c r="G52" t="n">
-        <v>40932729.51065392</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2363,22 +1973,15 @@
         <v>7699012.3264</v>
       </c>
       <c r="G53" t="n">
-        <v>33233717.18425392</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2400,22 +2003,15 @@
         <v>19548171.6295</v>
       </c>
       <c r="G54" t="n">
-        <v>52781888.81375392</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2437,22 +2033,15 @@
         <v>23810392.2544</v>
       </c>
       <c r="G55" t="n">
-        <v>52781888.81375392</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2474,22 +2063,15 @@
         <v>15748348.2744</v>
       </c>
       <c r="G56" t="n">
-        <v>37033540.53935392</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2511,22 +2093,15 @@
         <v>11460078.52590369</v>
       </c>
       <c r="G57" t="n">
-        <v>48493619.06525761</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2548,22 +2123,15 @@
         <v>4640120.3023</v>
       </c>
       <c r="G58" t="n">
-        <v>43853498.76295761</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2585,22 +2153,15 @@
         <v>3149604.7254</v>
       </c>
       <c r="G59" t="n">
-        <v>40703894.03755761</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2622,22 +2183,15 @@
         <v>40010</v>
       </c>
       <c r="G60" t="n">
-        <v>40663884.03755761</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2659,22 +2213,15 @@
         <v>22351.31086142322</v>
       </c>
       <c r="G61" t="n">
-        <v>40686235.34841903</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2696,22 +2243,15 @@
         <v>22351.3108</v>
       </c>
       <c r="G62" t="n">
-        <v>40663884.03761903</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2733,22 +2273,15 @@
         <v>4271.56</v>
       </c>
       <c r="G63" t="n">
-        <v>40663884.03761903</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2770,22 +2303,15 @@
         <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>40663874.03761903</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2807,22 +2333,15 @@
         <v>191028.6276</v>
       </c>
       <c r="G65" t="n">
-        <v>40854902.66521903</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2844,22 +2363,15 @@
         <v>1039.7884</v>
       </c>
       <c r="G66" t="n">
-        <v>40853862.87681903</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2881,22 +2393,15 @@
         <v>465436.4895</v>
       </c>
       <c r="G67" t="n">
-        <v>40388426.38731903</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2918,22 +2423,15 @@
         <v>60000</v>
       </c>
       <c r="G68" t="n">
-        <v>40448426.38731903</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2955,22 +2453,15 @@
         <v>81056.893</v>
       </c>
       <c r="G69" t="n">
-        <v>40448426.38731903</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2992,22 +2483,15 @@
         <v>100000</v>
       </c>
       <c r="G70" t="n">
-        <v>40448426.38731903</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3029,22 +2513,15 @@
         <v>954.1176</v>
       </c>
       <c r="G71" t="n">
-        <v>40447472.26971903</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3066,22 +2543,15 @@
         <v>3051.9803</v>
       </c>
       <c r="G72" t="n">
-        <v>40450524.25001903</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3103,22 +2573,15 @@
         <v>10000</v>
       </c>
       <c r="G73" t="n">
-        <v>40440524.25001903</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3140,22 +2603,15 @@
         <v>443756.3512</v>
       </c>
       <c r="G74" t="n">
-        <v>39996767.89881903</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3177,22 +2633,15 @@
         <v>804639</v>
       </c>
       <c r="G75" t="n">
-        <v>40801406.89881903</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3214,22 +2663,19 @@
         <v>540854</v>
       </c>
       <c r="G76" t="n">
-        <v>40801406.89881903</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>2.51</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2.51</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3251,22 +2697,23 @@
         <v>267000</v>
       </c>
       <c r="G77" t="n">
-        <v>40534406.89881903</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>2.51</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3288,22 +2735,23 @@
         <v>80000</v>
       </c>
       <c r="G78" t="n">
-        <v>40534406.89881903</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3325,22 +2773,23 @@
         <v>220000</v>
       </c>
       <c r="G79" t="n">
-        <v>40754406.89881903</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3362,22 +2811,23 @@
         <v>190.7858</v>
       </c>
       <c r="G80" t="n">
-        <v>40754216.11301903</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3399,22 +2849,23 @@
         <v>5242.2727</v>
       </c>
       <c r="G81" t="n">
-        <v>40748973.84031903</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>2.53</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3436,22 +2887,23 @@
         <v>343378.3133</v>
       </c>
       <c r="G82" t="n">
-        <v>40405595.52701903</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>2.51</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3473,22 +2925,23 @@
         <v>106099.3223</v>
       </c>
       <c r="G83" t="n">
-        <v>40511694.84931903</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3510,22 +2963,23 @@
         <v>200000</v>
       </c>
       <c r="G84" t="n">
-        <v>40511694.84931903</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3547,22 +3001,23 @@
         <v>2973449.997</v>
       </c>
       <c r="G85" t="n">
-        <v>43485144.84631903</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3584,22 +3039,23 @@
         <v>101633.7253</v>
       </c>
       <c r="G86" t="n">
-        <v>43485144.84631903</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>2.62</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3621,22 +3077,23 @@
         <v>20000</v>
       </c>
       <c r="G87" t="n">
-        <v>43485144.84631903</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>2.62</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3658,22 +3115,23 @@
         <v>328558.0982</v>
       </c>
       <c r="G88" t="n">
-        <v>43156586.74811903</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>2.62</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3695,22 +3153,21 @@
         <v>40000</v>
       </c>
       <c r="G89" t="n">
-        <v>43156586.74811903</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3732,22 +3189,21 @@
         <v>13992.5046</v>
       </c>
       <c r="G90" t="n">
-        <v>43170579.25271904</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3769,22 +3225,21 @@
         <v>140000</v>
       </c>
       <c r="G91" t="n">
-        <v>43170579.25271904</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3806,22 +3261,21 @@
         <v>1110429.4484</v>
       </c>
       <c r="G92" t="n">
-        <v>42060149.80431904</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1.034840637450199</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3843,22 +3297,19 @@
         <v>80000</v>
       </c>
       <c r="G93" t="n">
-        <v>42140149.80431904</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>2.61</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2.61</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3880,22 +3331,23 @@
         <v>120000</v>
       </c>
       <c r="G94" t="n">
-        <v>42020149.80431904</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>2.62</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3917,22 +3369,23 @@
         <v>371253.0617</v>
       </c>
       <c r="G95" t="n">
-        <v>41648896.74261904</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>2.61</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3954,22 +3407,23 @@
         <v>10231.2267</v>
       </c>
       <c r="G96" t="n">
-        <v>41659127.96931904</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3991,22 +3445,21 @@
         <v>10973.9025</v>
       </c>
       <c r="G97" t="n">
-        <v>41648154.06681903</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4028,20 +3481,21 @@
         <v>451.2048</v>
       </c>
       <c r="G98" t="n">
-        <v>41648154.06681903</v>
-      </c>
-      <c r="H98" t="n">
         <v>2</v>
       </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
       </c>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4063,18 +3517,21 @@
         <v>342301.349</v>
       </c>
       <c r="G99" t="n">
-        <v>41305852.71781904</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4096,18 +3553,21 @@
         <v>32213.10861423221</v>
       </c>
       <c r="G100" t="n">
-        <v>41338065.82643326</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4129,18 +3589,21 @@
         <v>8572.8927</v>
       </c>
       <c r="G101" t="n">
-        <v>41329492.93373326</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4162,18 +3625,21 @@
         <v>8581</v>
       </c>
       <c r="G102" t="n">
-        <v>41338073.93373326</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4195,18 +3661,21 @@
         <v>103574</v>
       </c>
       <c r="G103" t="n">
-        <v>41441647.93373326</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4228,18 +3697,21 @@
         <v>2195</v>
       </c>
       <c r="G104" t="n">
-        <v>41439452.93373326</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4261,18 +3733,21 @@
         <v>90.25</v>
       </c>
       <c r="G105" t="n">
-        <v>41439362.68373326</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4294,18 +3769,21 @@
         <v>324842.5246</v>
       </c>
       <c r="G106" t="n">
-        <v>41764205.20833326</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4327,18 +3805,21 @@
         <v>857.375</v>
       </c>
       <c r="G107" t="n">
-        <v>41763347.83333326</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4360,18 +3841,21 @@
         <v>14972.877</v>
       </c>
       <c r="G108" t="n">
-        <v>41778320.71033326</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4393,18 +3877,21 @@
         <v>45000</v>
       </c>
       <c r="G109" t="n">
-        <v>41823320.71033326</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4426,18 +3913,21 @@
         <v>200000</v>
       </c>
       <c r="G110" t="n">
-        <v>42023320.71033326</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4459,18 +3949,21 @@
         <v>428.6875</v>
       </c>
       <c r="G111" t="n">
-        <v>42022892.02283326</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4492,18 +3985,21 @@
         <v>214.3437</v>
       </c>
       <c r="G112" t="n">
-        <v>42022677.67913326</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4525,18 +4021,21 @@
         <v>642.8383</v>
       </c>
       <c r="G113" t="n">
-        <v>42023320.51743326</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4558,18 +4057,21 @@
         <v>80000</v>
       </c>
       <c r="G114" t="n">
-        <v>42103320.51743326</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4591,18 +4093,21 @@
         <v>118832.8525</v>
       </c>
       <c r="G115" t="n">
-        <v>41984487.66493326</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4624,18 +4129,21 @@
         <v>1518</v>
       </c>
       <c r="G116" t="n">
-        <v>41986005.66493326</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4657,18 +4165,21 @@
         <v>48597</v>
       </c>
       <c r="G117" t="n">
-        <v>42034602.66493326</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4690,18 +4201,21 @@
         <v>726573.9911</v>
       </c>
       <c r="G118" t="n">
-        <v>42761176.65603326</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4723,18 +4237,21 @@
         <v>561626.8998</v>
       </c>
       <c r="G119" t="n">
-        <v>42199549.75623325</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4756,18 +4273,21 @@
         <v>6074.3925</v>
       </c>
       <c r="G120" t="n">
-        <v>42193475.36373325</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4789,18 +4309,21 @@
         <v>195680.6506</v>
       </c>
       <c r="G121" t="n">
-        <v>42389156.01433326</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4822,18 +4345,21 @@
         <v>40000</v>
       </c>
       <c r="G122" t="n">
-        <v>42389156.01433326</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4855,18 +4381,21 @@
         <v>204135.4531</v>
       </c>
       <c r="G123" t="n">
-        <v>42389156.01433326</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4888,18 +4417,21 @@
         <v>1055567.844997407</v>
       </c>
       <c r="G124" t="n">
-        <v>43444723.85933066</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4921,18 +4453,21 @@
         <v>835.2289</v>
       </c>
       <c r="G125" t="n">
-        <v>43443888.63043066</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4954,18 +4489,21 @@
         <v>140341.6846</v>
       </c>
       <c r="G126" t="n">
-        <v>43303546.94583066</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4987,18 +4525,21 @@
         <v>180000</v>
       </c>
       <c r="G127" t="n">
-        <v>43483546.94583066</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5020,18 +4561,21 @@
         <v>100213.5529</v>
       </c>
       <c r="G128" t="n">
-        <v>43383333.39293066</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5053,18 +4597,21 @@
         <v>2647712.8296</v>
       </c>
       <c r="G129" t="n">
-        <v>40735620.56333066</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5086,18 +4633,21 @@
         <v>100000</v>
       </c>
       <c r="G130" t="n">
-        <v>40835620.56333066</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5119,18 +4669,21 @@
         <v>128.1318</v>
       </c>
       <c r="G131" t="n">
-        <v>40835492.43153065</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5152,18 +4705,21 @@
         <v>2009</v>
       </c>
       <c r="G132" t="n">
-        <v>40833483.43153065</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5185,18 +4741,21 @@
         <v>20000</v>
       </c>
       <c r="G133" t="n">
-        <v>40853483.43153065</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5218,18 +4777,21 @@
         <v>45238.9763</v>
       </c>
       <c r="G134" t="n">
-        <v>40808244.45523065</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5251,18 +4813,21 @@
         <v>220000</v>
       </c>
       <c r="G135" t="n">
-        <v>41028244.45523065</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5284,18 +4849,21 @@
         <v>39525.69169960474</v>
       </c>
       <c r="G136" t="n">
-        <v>40988718.76353105</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5317,18 +4885,21 @@
         <v>80000</v>
       </c>
       <c r="G137" t="n">
-        <v>41068718.76353105</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5350,18 +4921,21 @@
         <v>60000</v>
       </c>
       <c r="G138" t="n">
-        <v>41068718.76353105</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5383,18 +4957,21 @@
         <v>360000</v>
       </c>
       <c r="G139" t="n">
-        <v>41428718.76353105</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5416,18 +4993,21 @@
         <v>108434.6303</v>
       </c>
       <c r="G140" t="n">
-        <v>41428718.76353105</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5449,18 +5029,21 @@
         <v>383058.2567</v>
       </c>
       <c r="G141" t="n">
-        <v>41428718.76353105</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5482,18 +5065,21 @@
         <v>267720.6225</v>
       </c>
       <c r="G142" t="n">
-        <v>41428718.76353105</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5515,18 +5101,21 @@
         <v>11388.4944</v>
       </c>
       <c r="G143" t="n">
-        <v>41417330.26913105</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5548,18 +5137,21 @@
         <v>10</v>
       </c>
       <c r="G144" t="n">
-        <v>41417320.26913105</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5581,18 +5173,21 @@
         <v>19260.5066</v>
       </c>
       <c r="G145" t="n">
-        <v>41436580.77573105</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5614,18 +5209,21 @@
         <v>19289</v>
       </c>
       <c r="G146" t="n">
-        <v>41455869.77573105</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5647,18 +5245,21 @@
         <v>1189959.0294</v>
       </c>
       <c r="G147" t="n">
-        <v>40265910.74633105</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5680,18 +5281,21 @@
         <v>267051.3209</v>
       </c>
       <c r="G148" t="n">
-        <v>39998859.42543105</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5713,18 +5317,21 @@
         <v>78790</v>
       </c>
       <c r="G149" t="n">
-        <v>40077649.42543105</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5746,18 +5353,21 @@
         <v>782328</v>
       </c>
       <c r="G150" t="n">
-        <v>39295321.42543105</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5779,18 +5389,21 @@
         <v>118818</v>
       </c>
       <c r="G151" t="n">
-        <v>39414139.42543105</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5812,18 +5425,21 @@
         <v>290357.1415</v>
       </c>
       <c r="G152" t="n">
-        <v>39123782.28393105</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5845,18 +5461,21 @@
         <v>82454.7133</v>
       </c>
       <c r="G153" t="n">
-        <v>39206236.99723104</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5878,18 +5497,21 @@
         <v>38759.68992248062</v>
       </c>
       <c r="G154" t="n">
-        <v>39244996.68715353</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5911,18 +5533,21 @@
         <v>20000</v>
       </c>
       <c r="G155" t="n">
-        <v>39264996.68715353</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5944,18 +5569,21 @@
         <v>20000</v>
       </c>
       <c r="G156" t="n">
-        <v>39264996.68715353</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5977,18 +5605,21 @@
         <v>401087</v>
       </c>
       <c r="G157" t="n">
-        <v>39666083.68715353</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6010,18 +5641,21 @@
         <v>100000</v>
       </c>
       <c r="G158" t="n">
-        <v>39566083.68715353</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6043,18 +5677,21 @@
         <v>3185</v>
       </c>
       <c r="G159" t="n">
-        <v>39562898.68715353</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6076,18 +5713,21 @@
         <v>10820.1173</v>
       </c>
       <c r="G160" t="n">
-        <v>39552078.56985353</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6109,18 +5749,21 @@
         <v>40000</v>
       </c>
       <c r="G161" t="n">
-        <v>39592078.56985353</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6142,18 +5785,21 @@
         <v>60047.3076</v>
       </c>
       <c r="G162" t="n">
-        <v>39652125.87745353</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6175,18 +5821,21 @@
         <v>61653</v>
       </c>
       <c r="G163" t="n">
-        <v>39713778.87745353</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6208,18 +5857,21 @@
         <v>73662.265</v>
       </c>
       <c r="G164" t="n">
-        <v>39640116.61245353</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6241,18 +5893,21 @@
         <v>10008</v>
       </c>
       <c r="G165" t="n">
-        <v>39650124.61245353</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6274,18 +5929,21 @@
         <v>878571.0514282528</v>
       </c>
       <c r="G166" t="n">
-        <v>40528695.66388178</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6307,18 +5965,21 @@
         <v>1112436.311350199</v>
       </c>
       <c r="G167" t="n">
-        <v>41641131.97523198</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6340,18 +6001,21 @@
         <v>36630.03663003663</v>
       </c>
       <c r="G168" t="n">
-        <v>41641131.97523198</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6373,18 +6037,21 @@
         <v>800994.0844915113</v>
       </c>
       <c r="G169" t="n">
-        <v>41641131.97523198</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6406,18 +6073,21 @@
         <v>40000</v>
       </c>
       <c r="G170" t="n">
-        <v>41601131.97523198</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6439,18 +6109,21 @@
         <v>30.5454</v>
       </c>
       <c r="G171" t="n">
-        <v>41601162.52063198</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6472,18 +6145,21 @@
         <v>22</v>
       </c>
       <c r="G172" t="n">
-        <v>41601140.52063198</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6505,18 +6181,21 @@
         <v>140000</v>
       </c>
       <c r="G173" t="n">
-        <v>41741140.52063198</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6538,18 +6217,21 @@
         <v>311671.0254</v>
       </c>
       <c r="G174" t="n">
-        <v>42052811.54603197</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6571,18 +6253,21 @@
         <v>705290.6627</v>
       </c>
       <c r="G175" t="n">
-        <v>41347520.88333198</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6604,18 +6289,21 @@
         <v>215564.7583300353</v>
       </c>
       <c r="G176" t="n">
-        <v>41563085.64166201</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6637,18 +6325,21 @@
         <v>121</v>
       </c>
       <c r="G177" t="n">
-        <v>41562964.64166201</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6670,18 +6361,21 @@
         <v>77.6584</v>
       </c>
       <c r="G178" t="n">
-        <v>41562886.98326201</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6703,18 +6397,21 @@
         <v>99</v>
       </c>
       <c r="G179" t="n">
-        <v>41562985.98326201</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6736,18 +6433,21 @@
         <v>103671.5303</v>
       </c>
       <c r="G180" t="n">
-        <v>41459314.45296201</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6769,18 +6469,21 @@
         <v>18508.0586</v>
       </c>
       <c r="G181" t="n">
-        <v>41459314.45296201</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6802,18 +6505,21 @@
         <v>159607.7583</v>
       </c>
       <c r="G182" t="n">
-        <v>41299706.69466201</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6835,18 +6541,21 @@
         <v>1385.5384</v>
       </c>
       <c r="G183" t="n">
-        <v>41299706.69466201</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6868,18 +6577,21 @@
         <v>78.9666</v>
       </c>
       <c r="G184" t="n">
-        <v>41299785.66126201</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6901,18 +6613,21 @@
         <v>80000</v>
       </c>
       <c r="G185" t="n">
-        <v>41379785.66126201</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6934,18 +6649,21 @@
         <v>795022.2461</v>
       </c>
       <c r="G186" t="n">
-        <v>40584763.41516201</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6967,18 +6685,21 @@
         <v>36166</v>
       </c>
       <c r="G187" t="n">
-        <v>40620929.41516201</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7000,18 +6721,21 @@
         <v>596937.448</v>
       </c>
       <c r="G188" t="n">
-        <v>40023991.96716201</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7033,18 +6757,21 @@
         <v>569566.6178</v>
       </c>
       <c r="G189" t="n">
-        <v>40023991.96716201</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7066,18 +6793,21 @@
         <v>640688.0377</v>
       </c>
       <c r="G190" t="n">
-        <v>40023991.96716201</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7099,18 +6829,21 @@
         <v>734917.231</v>
       </c>
       <c r="G191" t="n">
-        <v>39289074.73616201</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7132,18 +6865,21 @@
         <v>17915.1938</v>
       </c>
       <c r="G192" t="n">
-        <v>39271159.54236201</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7165,18 +6901,21 @@
         <v>120000</v>
       </c>
       <c r="G193" t="n">
-        <v>39391159.54236201</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7198,18 +6937,21 @@
         <v>559210.0669</v>
       </c>
       <c r="G194" t="n">
-        <v>39391159.54236201</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7231,18 +6973,21 @@
         <v>19638.4615</v>
       </c>
       <c r="G195" t="n">
-        <v>39371521.08086202</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7264,18 +7009,21 @@
         <v>19589.3653</v>
       </c>
       <c r="G196" t="n">
-        <v>39351931.71556202</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7297,18 +7045,21 @@
         <v>305019.6543</v>
       </c>
       <c r="G197" t="n">
-        <v>39351931.71556202</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7330,18 +7081,21 @@
         <v>6245.6729</v>
       </c>
       <c r="G198" t="n">
-        <v>39345686.04266202</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7363,18 +7117,21 @@
         <v>38461.7884</v>
       </c>
       <c r="G199" t="n">
-        <v>39384147.83106202</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7396,18 +7153,21 @@
         <v>17373.2075</v>
       </c>
       <c r="G200" t="n">
-        <v>39384147.83106202</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7429,18 +7189,21 @@
         <v>427120.7969</v>
       </c>
       <c r="G201" t="n">
-        <v>38957027.03416202</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7462,18 +7225,21 @@
         <v>10</v>
       </c>
       <c r="G202" t="n">
-        <v>38957037.03416202</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7495,18 +7261,21 @@
         <v>5000</v>
       </c>
       <c r="G203" t="n">
-        <v>38962037.03416202</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7528,18 +7297,21 @@
         <v>44010.2661</v>
       </c>
       <c r="G204" t="n">
-        <v>38918026.76806203</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7561,18 +7333,21 @@
         <v>10000</v>
       </c>
       <c r="G205" t="n">
-        <v>38908026.76806203</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7594,18 +7369,21 @@
         <v>675754.2426999999</v>
       </c>
       <c r="G206" t="n">
-        <v>39583781.01076203</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7627,18 +7405,21 @@
         <v>60000</v>
       </c>
       <c r="G207" t="n">
-        <v>39583781.01076203</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7660,18 +7441,21 @@
         <v>229740.0145</v>
       </c>
       <c r="G208" t="n">
-        <v>39583781.01076203</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7693,18 +7477,21 @@
         <v>234887.6607</v>
       </c>
       <c r="G209" t="n">
-        <v>39348893.35006203</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7726,18 +7513,21 @@
         <v>1297086.0826</v>
       </c>
       <c r="G210" t="n">
-        <v>40645979.43266203</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7759,18 +7549,21 @@
         <v>51305.2505</v>
       </c>
       <c r="G211" t="n">
-        <v>40594674.18216202</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7792,18 +7585,21 @@
         <v>1058526.554536576</v>
       </c>
       <c r="G212" t="n">
-        <v>41653200.7366986</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7825,18 +7621,21 @@
         <v>3085865.5799</v>
       </c>
       <c r="G213" t="n">
-        <v>41653200.7366986</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7858,18 +7657,21 @@
         <v>5285765.7294</v>
       </c>
       <c r="G214" t="n">
-        <v>36367435.0072986</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7891,18 +7693,21 @@
         <v>10437315.9715</v>
       </c>
       <c r="G215" t="n">
-        <v>46804750.9787986</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7924,18 +7729,21 @@
         <v>10465601.3806</v>
       </c>
       <c r="G216" t="n">
-        <v>46804750.9787986</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7957,18 +7765,21 @@
         <v>6730903.3089</v>
       </c>
       <c r="G217" t="n">
-        <v>53535654.2876986</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7990,18 +7801,21 @@
         <v>6320374.6878</v>
       </c>
       <c r="G218" t="n">
-        <v>47215279.5998986</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8023,18 +7837,21 @@
         <v>11175888.4853</v>
       </c>
       <c r="G219" t="n">
-        <v>47215279.5998986</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8056,18 +7873,21 @@
         <v>7071969.4355</v>
       </c>
       <c r="G220" t="n">
-        <v>40143310.1643986</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8089,18 +7909,21 @@
         <v>8967182.1472</v>
       </c>
       <c r="G221" t="n">
-        <v>49110492.3115986</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8122,18 +7945,21 @@
         <v>11437480.2593</v>
       </c>
       <c r="G222" t="n">
-        <v>49110492.3115986</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8155,18 +7981,21 @@
         <v>9189508.9772</v>
       </c>
       <c r="G223" t="n">
-        <v>39920983.3343986</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8188,18 +8017,21 @@
         <v>2341449.6459</v>
       </c>
       <c r="G224" t="n">
-        <v>39920983.3343986</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8221,18 +8053,21 @@
         <v>3336544.4401</v>
       </c>
       <c r="G225" t="n">
-        <v>43257527.7744986</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8254,18 +8089,21 @@
         <v>4755742.7677</v>
       </c>
       <c r="G226" t="n">
-        <v>38501785.0067986</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8287,18 +8125,21 @@
         <v>6873792.4197</v>
       </c>
       <c r="G227" t="n">
-        <v>31627992.58709859</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8320,18 +8161,21 @@
         <v>6139114.234</v>
       </c>
       <c r="G228" t="n">
-        <v>37767106.8210986</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8353,18 +8197,23 @@
         <v>9168806.6709</v>
       </c>
       <c r="G229" t="n">
-        <v>46935913.4919986</v>
+        <v>1</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>2.56</v>
+      </c>
+      <c r="I229" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8386,18 +8235,21 @@
         <v>6264859.6888</v>
       </c>
       <c r="G230" t="n">
-        <v>53200773.1807986</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8419,18 +8271,23 @@
         <v>12366329.247</v>
       </c>
       <c r="G231" t="n">
-        <v>40834443.9337986</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="I231" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8452,18 +8309,23 @@
         <v>9139260.0451</v>
       </c>
       <c r="G232" t="n">
-        <v>40834443.9337986</v>
+        <v>1</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>2.56</v>
+      </c>
+      <c r="I232" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8485,18 +8347,21 @@
         <v>3043182.5867</v>
       </c>
       <c r="G233" t="n">
-        <v>43877626.5204986</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8518,18 +8383,21 @@
         <v>17969.3803</v>
       </c>
       <c r="G234" t="n">
-        <v>43895595.9007986</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8551,18 +8419,21 @@
         <v>6238547.2119</v>
       </c>
       <c r="G235" t="n">
-        <v>37657048.68889859</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8584,18 +8455,21 @@
         <v>9777591.714400001</v>
       </c>
       <c r="G236" t="n">
-        <v>27879456.97449859</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8617,18 +8491,23 @@
         <v>4769887.1294</v>
       </c>
       <c r="G237" t="n">
-        <v>23109569.84509859</v>
+        <v>1</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>2.56</v>
+      </c>
+      <c r="I237" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8650,18 +8529,23 @@
         <v>6210731.8327</v>
       </c>
       <c r="G238" t="n">
-        <v>29320301.67779859</v>
+        <v>1</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>2.55</v>
+      </c>
+      <c r="I238" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8683,18 +8567,23 @@
         <v>10455882.0958</v>
       </c>
       <c r="G239" t="n">
-        <v>18864419.58199859</v>
+        <v>1</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="I239" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8716,18 +8605,23 @@
         <v>8488254.392899999</v>
       </c>
       <c r="G240" t="n">
-        <v>27352673.97489859</v>
+        <v>1</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>2.55</v>
+      </c>
+      <c r="I240" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8749,18 +8643,23 @@
         <v>10304328.697</v>
       </c>
       <c r="G241" t="n">
-        <v>37657002.67189859</v>
+        <v>1</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="I241" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8782,18 +8681,23 @@
         <v>4372745.2195</v>
       </c>
       <c r="G242" t="n">
-        <v>42029747.89139859</v>
+        <v>1</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="I242" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8815,18 +8719,21 @@
         <v>5037717.9937</v>
       </c>
       <c r="G243" t="n">
-        <v>36992029.89769859</v>
-      </c>
-      <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8848,18 +8755,21 @@
         <v>2301799.8543</v>
       </c>
       <c r="G244" t="n">
-        <v>39293829.75199859</v>
-      </c>
-      <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8881,18 +8791,21 @@
         <v>11157577.9322</v>
       </c>
       <c r="G245" t="n">
-        <v>50451407.68419859</v>
-      </c>
-      <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8914,18 +8827,21 @@
         <v>8804696.7916</v>
       </c>
       <c r="G246" t="n">
-        <v>41646710.89259858</v>
-      </c>
-      <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8947,18 +8863,21 @@
         <v>7933160.2407</v>
       </c>
       <c r="G247" t="n">
-        <v>49579871.13329858</v>
-      </c>
-      <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8980,18 +8899,21 @@
         <v>10049274.2341</v>
       </c>
       <c r="G248" t="n">
-        <v>59629145.36739858</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9013,18 +8935,21 @@
         <v>7160276.4634</v>
       </c>
       <c r="G249" t="n">
-        <v>59629145.36739858</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9046,18 +8971,21 @@
         <v>10533976.2152</v>
       </c>
       <c r="G250" t="n">
-        <v>70163121.58259858</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9079,18 +9007,21 @@
         <v>8430615.814099999</v>
       </c>
       <c r="G251" t="n">
-        <v>61732505.76849858</v>
-      </c>
-      <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9112,18 +9043,21 @@
         <v>4226793.7596</v>
       </c>
       <c r="G252" t="n">
-        <v>65959299.52809858</v>
-      </c>
-      <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9145,18 +9079,23 @@
         <v>6363162.3447</v>
       </c>
       <c r="G253" t="n">
-        <v>72322461.87279858</v>
+        <v>1</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>2.56</v>
+      </c>
+      <c r="I253" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9178,18 +9117,23 @@
         <v>5798330.8242</v>
       </c>
       <c r="G254" t="n">
-        <v>78120792.69699858</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="I254" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9211,18 +9155,23 @@
         <v>2356370.7516</v>
       </c>
       <c r="G255" t="n">
-        <v>75764421.94539858</v>
+        <v>1</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>2.64</v>
+      </c>
+      <c r="I255" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9244,18 +9193,23 @@
         <v>100000</v>
       </c>
       <c r="G256" t="n">
-        <v>75664421.94539858</v>
+        <v>1</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="I256" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9277,18 +9231,23 @@
         <v>60000</v>
       </c>
       <c r="G257" t="n">
-        <v>75724421.94539858</v>
+        <v>1</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>2.51</v>
+      </c>
+      <c r="I257" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9310,18 +9269,23 @@
         <v>200000</v>
       </c>
       <c r="G258" t="n">
-        <v>75924421.94539858</v>
+        <v>1</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+        <v>2.53</v>
+      </c>
+      <c r="I258" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
